--- a/InputData/elec/SoESCaOMCbIC/Share of Electricity Sector Capital and OM Costs by ISIC Code.xlsx
+++ b/InputData/elec/SoESCaOMCbIC/Share of Electricity Sector Capital and OM Costs by ISIC Code.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\elec\SoESCaOMCbIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/ar/elec/soescaomcbic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2198EB10-E58C-432D-B314-896D448D1F5F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94BC4F1-50EF-8348-B9FF-3B52EE39672F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2535" yWindow="165" windowWidth="25665" windowHeight="16830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2540" yWindow="460" windowWidth="25660" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="4" r:id="rId1"/>
@@ -1905,7 +1905,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2117,6 +2117,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2140,9 +2144,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2431,21 +2432,24 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="61.85546875" customWidth="1"/>
-    <col min="3" max="3" width="4.5703125" customWidth="1"/>
-    <col min="4" max="4" width="65.7109375" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" customWidth="1"/>
-    <col min="6" max="6" width="63.42578125" customWidth="1"/>
+    <col min="2" max="2" width="61.83203125" customWidth="1"/>
+    <col min="3" max="3" width="4.5" customWidth="1"/>
+    <col min="4" max="4" width="65.6640625" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" customWidth="1"/>
+    <col min="6" max="6" width="63.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="74" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C1" s="120">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="74" t="s">
         <v>215</v>
       </c>
@@ -2459,7 +2463,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>216</v>
       </c>
@@ -2470,7 +2474,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" s="83">
         <v>2018</v>
       </c>
@@ -2481,7 +2485,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>217</v>
       </c>
@@ -2492,7 +2496,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="68" t="s">
         <v>218</v>
       </c>
@@ -2503,7 +2507,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>219</v>
       </c>
@@ -2514,7 +2518,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" s="82" t="s">
         <v>331</v>
       </c>
@@ -2525,7 +2529,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>216</v>
       </c>
@@ -2536,7 +2540,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" s="83">
         <v>2019</v>
       </c>
@@ -2547,7 +2551,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>291</v>
       </c>
@@ -2558,7 +2562,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" s="68" t="s">
         <v>290</v>
       </c>
@@ -2569,7 +2573,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>292</v>
       </c>
@@ -2580,7 +2584,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="82" t="s">
         <v>227</v>
       </c>
@@ -2591,7 +2595,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>216</v>
       </c>
@@ -2602,7 +2606,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="83">
         <v>2016</v>
       </c>
@@ -2613,7 +2617,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B20" s="115" t="s">
         <v>228</v>
       </c>
@@ -2626,7 +2630,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B21" s="117" t="s">
         <v>114</v>
       </c>
@@ -2639,7 +2643,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>334</v>
       </c>
@@ -2650,7 +2654,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="82" t="s">
         <v>332</v>
       </c>
@@ -2661,7 +2665,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>216</v>
       </c>
@@ -2672,7 +2676,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="83">
         <v>2016</v>
       </c>
@@ -2683,7 +2687,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>333</v>
       </c>
@@ -2694,7 +2698,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" s="68" t="s">
         <v>259</v>
       </c>
@@ -2705,7 +2709,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>292</v>
       </c>
@@ -2716,37 +2720,37 @@
         <v>292</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="74" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>359</v>
       </c>
@@ -2776,19 +2780,19 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="77.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="77.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="74" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="74" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="74" t="s">
         <v>194</v>
       </c>
@@ -2796,7 +2800,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>123</v>
       </c>
@@ -2804,7 +2808,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>433</v>
       </c>
@@ -2812,7 +2816,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>434</v>
       </c>
@@ -2820,7 +2824,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>451</v>
       </c>
@@ -2828,7 +2832,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>124</v>
       </c>
@@ -2836,7 +2840,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -2844,7 +2848,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>126</v>
       </c>
@@ -2852,7 +2856,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>127</v>
       </c>
@@ -2860,7 +2864,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>128</v>
       </c>
@@ -2868,7 +2872,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>129</v>
       </c>
@@ -2876,7 +2880,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>432</v>
       </c>
@@ -2884,7 +2888,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>431</v>
       </c>
@@ -2892,7 +2896,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>130</v>
       </c>
@@ -2900,7 +2904,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>444</v>
       </c>
@@ -2908,7 +2912,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>445</v>
       </c>
@@ -2916,7 +2920,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>446</v>
       </c>
@@ -2924,7 +2928,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>447</v>
       </c>
@@ -2932,7 +2936,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>131</v>
       </c>
@@ -2940,7 +2944,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>132</v>
       </c>
@@ -2948,7 +2952,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>133</v>
       </c>
@@ -2956,7 +2960,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>134</v>
       </c>
@@ -2964,7 +2968,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>135</v>
       </c>
@@ -2972,7 +2976,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>136</v>
       </c>
@@ -2980,7 +2984,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>137</v>
       </c>
@@ -2988,7 +2992,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>448</v>
       </c>
@@ -2996,7 +3000,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>449</v>
       </c>
@@ -3004,7 +3008,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>450</v>
       </c>
@@ -3012,7 +3016,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>138</v>
       </c>
@@ -3020,7 +3024,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>139</v>
       </c>
@@ -3028,7 +3032,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>140</v>
       </c>
@@ -3036,7 +3040,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>141</v>
       </c>
@@ -3044,7 +3048,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>142</v>
       </c>
@@ -3052,7 +3056,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>143</v>
       </c>
@@ -3060,7 +3064,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>144</v>
       </c>
@@ -3068,7 +3072,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>145</v>
       </c>
@@ -3076,7 +3080,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>146</v>
       </c>
@@ -3084,7 +3088,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>147</v>
       </c>
@@ -3092,7 +3096,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>148</v>
       </c>
@@ -3100,7 +3104,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>149</v>
       </c>
@@ -3108,7 +3112,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>150</v>
       </c>
@@ -3116,7 +3120,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>151</v>
       </c>
@@ -3124,7 +3128,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>152</v>
       </c>
@@ -3145,27 +3149,27 @@
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="65.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="65.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="74" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.5703125" customWidth="1"/>
-    <col min="6" max="6" width="60.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.5" customWidth="1"/>
+    <col min="6" max="6" width="60.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="123" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="125"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="127"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3185,7 +3189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -3197,7 +3201,7 @@
       <c r="E3" s="21"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>153</v>
       </c>
@@ -3219,7 +3223,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>154</v>
       </c>
@@ -3241,7 +3245,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>155</v>
       </c>
@@ -3263,7 +3267,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>156</v>
       </c>
@@ -3285,7 +3289,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>157</v>
       </c>
@@ -3307,7 +3311,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>158</v>
       </c>
@@ -3329,7 +3333,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>159</v>
       </c>
@@ -3351,7 +3355,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>160</v>
       </c>
@@ -3373,7 +3377,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
@@ -3395,7 +3399,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="59" t="s">
         <v>161</v>
       </c>
@@ -3417,7 +3421,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="92" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="92" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>8</v>
       </c>
@@ -3427,7 +3431,7 @@
       <c r="E14" s="13"/>
       <c r="F14" s="14"/>
     </row>
-    <row r="15" spans="1:6" s="76" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="76" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>261</v>
       </c>
@@ -3449,7 +3453,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="91" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="91" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>262</v>
       </c>
@@ -3471,18 +3475,18 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="119" t="s">
+    <row r="17" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="120"/>
-      <c r="C18" s="120"/>
-      <c r="D18" s="121"/>
-      <c r="E18" s="121"/>
-      <c r="F18" s="122"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="122"/>
+      <c r="C18" s="122"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="123"/>
+      <c r="F18" s="124"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="96" t="s">
         <v>1</v>
       </c>
@@ -3502,7 +3506,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>6</v>
       </c>
@@ -3514,7 +3518,7 @@
       <c r="E20" s="21"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
         <v>241</v>
       </c>
@@ -3524,7 +3528,7 @@
       <c r="E21" s="94"/>
       <c r="F21" s="58"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
         <v>263</v>
       </c>
@@ -3544,7 +3548,7 @@
       </c>
       <c r="F22" s="16"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
         <v>264</v>
       </c>
@@ -3564,7 +3568,7 @@
       </c>
       <c r="F23" s="16"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
         <v>265</v>
       </c>
@@ -3584,7 +3588,7 @@
       </c>
       <c r="F24" s="16"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
         <v>266</v>
       </c>
@@ -3604,7 +3608,7 @@
       </c>
       <c r="F25" s="16"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
         <v>267</v>
       </c>
@@ -3616,7 +3620,7 @@
       <c r="E26" s="94"/>
       <c r="F26" s="16"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
         <v>118</v>
       </c>
@@ -3626,7 +3630,7 @@
       <c r="E27" s="94"/>
       <c r="F27" s="16"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
         <v>232</v>
       </c>
@@ -3636,7 +3640,7 @@
       <c r="E28" s="94"/>
       <c r="F28" s="16"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
         <v>268</v>
       </c>
@@ -3656,7 +3660,7 @@
       </c>
       <c r="F29" s="16"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
         <v>269</v>
       </c>
@@ -3676,7 +3680,7 @@
       </c>
       <c r="F30" s="16"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
         <v>270</v>
       </c>
@@ -3696,7 +3700,7 @@
       </c>
       <c r="F31" s="16"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
         <v>271</v>
       </c>
@@ -3716,7 +3720,7 @@
       </c>
       <c r="F32" s="6"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
         <v>272</v>
       </c>
@@ -3728,7 +3732,7 @@
       <c r="E33" s="94"/>
       <c r="F33" s="16"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
         <v>235</v>
       </c>
@@ -3738,7 +3742,7 @@
       <c r="E34" s="94"/>
       <c r="F34" s="16"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
         <v>273</v>
       </c>
@@ -3758,7 +3762,7 @@
       </c>
       <c r="F35" s="6"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
         <v>274</v>
       </c>
@@ -3778,7 +3782,7 @@
       </c>
       <c r="F36" s="6"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="20" t="s">
         <v>240</v>
       </c>
@@ -3798,7 +3802,7 @@
       </c>
       <c r="F37" s="6"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="20" t="s">
         <v>275</v>
       </c>
@@ -3818,7 +3822,7 @@
       </c>
       <c r="F38" s="6"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="20" t="s">
         <v>276</v>
       </c>
@@ -3838,7 +3842,7 @@
       </c>
       <c r="F39" s="6"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="20" t="s">
         <v>277</v>
       </c>
@@ -3850,7 +3854,7 @@
       <c r="E40" s="21"/>
       <c r="F40" s="6"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="20" t="s">
         <v>278</v>
       </c>
@@ -3860,7 +3864,7 @@
       <c r="E41" s="21"/>
       <c r="F41" s="6"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="20" t="s">
         <v>279</v>
       </c>
@@ -3870,7 +3874,7 @@
       <c r="E42" s="21"/>
       <c r="F42" s="6"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="20" t="s">
         <v>280</v>
       </c>
@@ -3890,7 +3894,7 @@
       </c>
       <c r="F43" s="6"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="20" t="s">
         <v>281</v>
       </c>
@@ -3910,7 +3914,7 @@
       </c>
       <c r="F44" s="6"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="20" t="s">
         <v>282</v>
       </c>
@@ -3930,7 +3934,7 @@
       </c>
       <c r="F45" s="6"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="20" t="s">
         <v>283</v>
       </c>
@@ -3950,7 +3954,7 @@
       </c>
       <c r="F46" s="6"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="20" t="s">
         <v>284</v>
       </c>
@@ -3970,7 +3974,7 @@
       </c>
       <c r="F47" s="6"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="20" t="s">
         <v>285</v>
       </c>
@@ -3990,7 +3994,7 @@
       </c>
       <c r="F48" s="6"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="20" t="s">
         <v>286</v>
       </c>
@@ -4002,7 +4006,7 @@
       <c r="E49" s="21"/>
       <c r="F49" s="6"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="20" t="s">
         <v>287</v>
       </c>
@@ -4014,7 +4018,7 @@
       <c r="E50" s="21"/>
       <c r="F50" s="6"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="20" t="s">
         <v>288</v>
       </c>
@@ -4026,7 +4030,7 @@
       <c r="E51" s="21"/>
       <c r="F51" s="6"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="20" t="s">
         <v>289</v>
       </c>
@@ -4046,7 +4050,7 @@
       </c>
       <c r="F52" s="6"/>
     </row>
-    <row r="53" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="24" t="s">
         <v>11</v>
       </c>
@@ -4058,7 +4062,7 @@
       <c r="E53" s="25"/>
       <c r="F53" s="10"/>
     </row>
-    <row r="54" spans="1:6" s="92" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" s="92" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
         <v>8</v>
       </c>
@@ -4068,7 +4072,7 @@
       <c r="E54" s="13"/>
       <c r="F54" s="14"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="20" t="s">
         <v>65</v>
       </c>
@@ -4078,7 +4082,7 @@
       <c r="E55" s="21"/>
       <c r="F55" s="6"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="20" t="s">
         <v>293</v>
       </c>
@@ -4088,7 +4092,7 @@
       <c r="E56" s="21"/>
       <c r="F56" s="6"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="20" t="s">
         <v>294</v>
       </c>
@@ -4108,7 +4112,7 @@
       </c>
       <c r="F57" s="6"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="20" t="s">
         <v>295</v>
       </c>
@@ -4128,7 +4132,7 @@
       </c>
       <c r="F58" s="6"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="20" t="s">
         <v>296</v>
       </c>
@@ -4148,7 +4152,7 @@
       </c>
       <c r="F59" s="6"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="20" t="s">
         <v>297</v>
       </c>
@@ -4160,7 +4164,7 @@
       <c r="E60" s="21"/>
       <c r="F60" s="6"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="20" t="s">
         <v>105</v>
       </c>
@@ -4170,7 +4174,7 @@
       <c r="E61" s="21"/>
       <c r="F61" s="6"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="20" t="s">
         <v>298</v>
       </c>
@@ -4190,7 +4194,7 @@
       </c>
       <c r="F62" s="6"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="20" t="s">
         <v>299</v>
       </c>
@@ -4210,7 +4214,7 @@
       </c>
       <c r="F63" s="6"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="20" t="s">
         <v>300</v>
       </c>
@@ -4230,7 +4234,7 @@
       </c>
       <c r="F64" s="6"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="20" t="s">
         <v>301</v>
       </c>
@@ -4250,7 +4254,7 @@
       </c>
       <c r="F65" s="6"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="20" t="s">
         <v>302</v>
       </c>
@@ -4270,7 +4274,7 @@
       </c>
       <c r="F66" s="6"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="20" t="s">
         <v>303</v>
       </c>
@@ -4290,7 +4294,7 @@
       </c>
       <c r="F67" s="6"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="20" t="s">
         <v>304</v>
       </c>
@@ -4310,7 +4314,7 @@
       </c>
       <c r="F68" s="6"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="20" t="s">
         <v>305</v>
       </c>
@@ -4330,7 +4334,7 @@
       </c>
       <c r="F69" s="6"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="20" t="s">
         <v>306</v>
       </c>
@@ -4342,7 +4346,7 @@
       <c r="E70" s="21"/>
       <c r="F70" s="6"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="20" t="s">
         <v>50</v>
       </c>
@@ -4362,7 +4366,7 @@
       </c>
       <c r="F71" s="6"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="20" t="s">
         <v>307</v>
       </c>
@@ -4374,7 +4378,7 @@
       <c r="E72" s="21"/>
       <c r="F72" s="6"/>
     </row>
-    <row r="73" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="24" t="s">
         <v>308</v>
       </c>
@@ -4386,18 +4390,18 @@
       <c r="E73" s="25"/>
       <c r="F73" s="10"/>
     </row>
-    <row r="74" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="75" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A75" s="123" t="s">
+    <row r="74" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A75" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="124"/>
-      <c r="C75" s="124"/>
-      <c r="D75" s="126"/>
-      <c r="E75" s="126"/>
-      <c r="F75" s="125"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B75" s="126"/>
+      <c r="C75" s="126"/>
+      <c r="D75" s="128"/>
+      <c r="E75" s="128"/>
+      <c r="F75" s="127"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>1</v>
       </c>
@@ -4417,7 +4421,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
         <v>6</v>
       </c>
@@ -4425,7 +4429,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
         <v>14</v>
       </c>
@@ -4436,7 +4440,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
         <v>16</v>
       </c>
@@ -4458,7 +4462,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
         <v>17</v>
       </c>
@@ -4480,7 +4484,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
         <v>18</v>
       </c>
@@ -4502,7 +4506,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="30" t="s">
         <v>19</v>
       </c>
@@ -4517,7 +4521,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
         <v>20</v>
       </c>
@@ -4529,7 +4533,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
         <v>21</v>
       </c>
@@ -4551,7 +4555,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
         <v>22</v>
       </c>
@@ -4573,7 +4577,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="30" t="s">
         <v>23</v>
       </c>
@@ -4588,7 +4592,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="30" t="s">
         <v>24</v>
       </c>
@@ -4603,7 +4607,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="31" t="s">
         <v>25</v>
       </c>
@@ -4615,7 +4619,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
         <v>26</v>
       </c>
@@ -4637,7 +4641,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
         <v>27</v>
       </c>
@@ -4659,7 +4663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="32" t="s">
         <v>28</v>
       </c>
@@ -4681,7 +4685,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
         <v>29</v>
       </c>
@@ -4703,7 +4707,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
         <v>30</v>
       </c>
@@ -4725,7 +4729,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
         <v>31</v>
       </c>
@@ -4747,7 +4751,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
         <v>32</v>
       </c>
@@ -4769,7 +4773,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
         <v>33</v>
       </c>
@@ -4791,7 +4795,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="30" t="s">
         <v>34</v>
       </c>
@@ -4804,7 +4808,7 @@
       <c r="E97" s="77"/>
       <c r="F97" s="16"/>
     </row>
-    <row r="98" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="33" t="s">
         <v>35</v>
       </c>
@@ -4817,7 +4821,7 @@
       <c r="E98" s="36"/>
       <c r="F98" s="37"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="11" t="s">
         <v>8</v>
       </c>
@@ -4827,7 +4831,7 @@
       <c r="E99" s="39"/>
       <c r="F99" s="14"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="40" t="s">
         <v>20</v>
       </c>
@@ -4849,7 +4853,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="40" t="s">
         <v>36</v>
       </c>
@@ -4871,7 +4875,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="40" t="s">
         <v>37</v>
       </c>
@@ -4893,7 +4897,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="42" t="s">
         <v>35</v>
       </c>
@@ -4906,7 +4910,7 @@
       <c r="E103" s="45"/>
       <c r="F103" s="10"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="11" t="s">
         <v>38</v>
       </c>
@@ -4916,7 +4920,7 @@
       <c r="E104" s="39"/>
       <c r="F104" s="14"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="40" t="s">
         <v>39</v>
       </c>
@@ -4938,7 +4942,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="40" t="s">
         <v>40</v>
       </c>
@@ -4960,7 +4964,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="40" t="s">
         <v>29</v>
       </c>
@@ -4982,7 +4986,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="42" t="s">
         <v>35</v>
       </c>
@@ -4995,18 +4999,18 @@
       <c r="E108" s="45"/>
       <c r="F108" s="10"/>
     </row>
-    <row r="109" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="110" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A110" s="123" t="s">
+    <row r="109" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="110" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A110" s="125" t="s">
         <v>41</v>
       </c>
-      <c r="B110" s="124"/>
-      <c r="C110" s="124"/>
-      <c r="D110" s="126"/>
-      <c r="E110" s="126"/>
-      <c r="F110" s="125"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B110" s="126"/>
+      <c r="C110" s="126"/>
+      <c r="D110" s="128"/>
+      <c r="E110" s="128"/>
+      <c r="F110" s="127"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>1</v>
       </c>
@@ -5026,7 +5030,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="5" t="s">
         <v>6</v>
       </c>
@@ -5038,12 +5042,12 @@
       <c r="E112" s="3"/>
       <c r="F112" s="16"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="7" t="s">
         <v>16</v>
       </c>
@@ -5065,7 +5069,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="7" t="s">
         <v>17</v>
       </c>
@@ -5087,7 +5091,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="7" t="s">
         <v>18</v>
       </c>
@@ -5109,7 +5113,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="7" t="s">
         <v>43</v>
       </c>
@@ -5123,7 +5127,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="7" t="s">
         <v>44</v>
       </c>
@@ -5135,7 +5139,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="7" t="s">
         <v>21</v>
       </c>
@@ -5157,7 +5161,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="7" t="s">
         <v>45</v>
       </c>
@@ -5179,7 +5183,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="7" t="s">
         <v>46</v>
       </c>
@@ -5201,7 +5205,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="7" t="s">
         <v>43</v>
       </c>
@@ -5215,7 +5219,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="7" t="s">
         <v>24</v>
       </c>
@@ -5229,7 +5233,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="31" t="s">
         <v>25</v>
       </c>
@@ -5241,7 +5245,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="7" t="s">
         <v>47</v>
       </c>
@@ -5263,7 +5267,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="7" t="s">
         <v>27</v>
       </c>
@@ -5285,7 +5289,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="32" t="s">
         <v>28</v>
       </c>
@@ -5307,7 +5311,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="7" t="s">
         <v>48</v>
       </c>
@@ -5329,7 +5333,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="7" t="s">
         <v>30</v>
       </c>
@@ -5351,7 +5355,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="7" t="s">
         <v>33</v>
       </c>
@@ -5373,7 +5377,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="7" t="s">
         <v>34</v>
       </c>
@@ -5385,7 +5389,7 @@
       <c r="E131" s="77"/>
       <c r="F131" s="16"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="31" t="s">
         <v>49</v>
       </c>
@@ -5399,7 +5403,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="49" t="s">
         <v>50</v>
       </c>
@@ -5414,7 +5418,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="11" t="s">
         <v>8</v>
       </c>
@@ -5426,7 +5430,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="40" t="s">
         <v>20</v>
       </c>
@@ -5448,7 +5452,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="40" t="s">
         <v>36</v>
       </c>
@@ -5470,7 +5474,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="40" t="s">
         <v>37</v>
       </c>
@@ -5492,7 +5496,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A138" s="42" t="s">
         <v>35</v>
       </c>
@@ -5507,7 +5511,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="11" t="s">
         <v>38</v>
       </c>
@@ -5517,7 +5521,7 @@
       <c r="E139" s="39"/>
       <c r="F139" s="14"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="40" t="s">
         <v>51</v>
       </c>
@@ -5539,7 +5543,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="40" t="s">
         <v>40</v>
       </c>
@@ -5561,7 +5565,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="40" t="s">
         <v>29</v>
       </c>
@@ -5583,7 +5587,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A143" s="42" t="s">
         <v>35</v>
       </c>
@@ -5596,18 +5600,18 @@
       <c r="E143" s="26"/>
       <c r="F143" s="10"/>
     </row>
-    <row r="144" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="145" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A145" s="119" t="s">
+    <row r="144" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="145" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A145" s="121" t="s">
         <v>52</v>
       </c>
-      <c r="B145" s="120"/>
-      <c r="C145" s="120"/>
-      <c r="D145" s="121"/>
-      <c r="E145" s="121"/>
-      <c r="F145" s="122"/>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B145" s="122"/>
+      <c r="C145" s="122"/>
+      <c r="D145" s="123"/>
+      <c r="E145" s="123"/>
+      <c r="F145" s="124"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>1</v>
       </c>
@@ -5627,7 +5631,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="5" t="s">
         <v>6</v>
       </c>
@@ -5639,7 +5643,7 @@
       <c r="E147" s="3"/>
       <c r="F147" s="16"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="7" t="s">
         <v>53</v>
       </c>
@@ -5649,7 +5653,7 @@
       <c r="E148" s="22"/>
       <c r="F148" s="6"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="7" t="s">
         <v>54</v>
       </c>
@@ -5668,7 +5672,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="7" t="s">
         <v>57</v>
       </c>
@@ -5690,7 +5694,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="7" t="s">
         <v>58</v>
       </c>
@@ -5712,7 +5716,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="7" t="s">
         <v>59</v>
       </c>
@@ -5734,7 +5738,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="7" t="s">
         <v>60</v>
       </c>
@@ -5756,7 +5760,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="7" t="s">
         <v>61</v>
       </c>
@@ -5778,7 +5782,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="7" t="s">
         <v>62</v>
       </c>
@@ -5800,7 +5804,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="7" t="s">
         <v>63</v>
       </c>
@@ -5822,7 +5826,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="7" t="s">
         <v>64</v>
       </c>
@@ -5844,7 +5848,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A158" s="59" t="s">
         <v>11</v>
       </c>
@@ -5858,7 +5862,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="11" t="s">
         <v>8</v>
       </c>
@@ -5868,7 +5872,7 @@
       <c r="E159" s="62"/>
       <c r="F159" s="14"/>
     </row>
-    <row r="160" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A160" s="63" t="s">
         <v>65</v>
       </c>
@@ -5890,7 +5894,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="11" t="s">
         <v>38</v>
       </c>
@@ -5900,7 +5904,7 @@
       <c r="E161" s="62"/>
       <c r="F161" s="14"/>
     </row>
-    <row r="162" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A162" s="24" t="s">
         <v>68</v>
       </c>
@@ -5922,18 +5926,18 @@
         <v>70</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="164" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A164" s="119" t="s">
+    <row r="163" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="164" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A164" s="121" t="s">
         <v>71</v>
       </c>
-      <c r="B164" s="120"/>
-      <c r="C164" s="120"/>
-      <c r="D164" s="121"/>
-      <c r="E164" s="121"/>
-      <c r="F164" s="122"/>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B164" s="122"/>
+      <c r="C164" s="122"/>
+      <c r="D164" s="123"/>
+      <c r="E164" s="123"/>
+      <c r="F164" s="124"/>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>1</v>
       </c>
@@ -5953,7 +5957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="5" t="s">
         <v>6</v>
       </c>
@@ -5965,7 +5969,7 @@
       <c r="E166" s="3"/>
       <c r="F166" s="16"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="65" t="s">
         <v>72</v>
       </c>
@@ -5976,7 +5980,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="7" t="s">
         <v>74</v>
       </c>
@@ -5998,7 +6002,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="7" t="s">
         <v>75</v>
       </c>
@@ -6020,7 +6024,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="7" t="s">
         <v>76</v>
       </c>
@@ -6034,7 +6038,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="7" t="s">
         <v>77</v>
       </c>
@@ -6046,7 +6050,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="7" t="s">
         <v>78</v>
       </c>
@@ -6068,7 +6072,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="7" t="s">
         <v>79</v>
       </c>
@@ -6082,7 +6086,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="7" t="s">
         <v>80</v>
       </c>
@@ -6094,7 +6098,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="7" t="s">
         <v>81</v>
       </c>
@@ -6116,7 +6120,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="7" t="s">
         <v>82</v>
       </c>
@@ -6138,7 +6142,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" s="7" t="s">
         <v>83</v>
       </c>
@@ -6160,7 +6164,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="7" t="s">
         <v>84</v>
       </c>
@@ -6182,7 +6186,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" s="7" t="s">
         <v>85</v>
       </c>
@@ -6204,7 +6208,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" s="7" t="s">
         <v>86</v>
       </c>
@@ -6226,7 +6230,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" s="7" t="s">
         <v>87</v>
       </c>
@@ -6248,7 +6252,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" s="7" t="s">
         <v>88</v>
       </c>
@@ -6262,7 +6266,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="7" t="s">
         <v>89</v>
       </c>
@@ -6274,7 +6278,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" s="7" t="s">
         <v>78</v>
       </c>
@@ -6296,7 +6300,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" s="7" t="s">
         <v>90</v>
       </c>
@@ -6318,7 +6322,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" s="7" t="s">
         <v>91</v>
       </c>
@@ -6340,7 +6344,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" s="7" t="s">
         <v>92</v>
       </c>
@@ -6362,7 +6366,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" s="7" t="s">
         <v>93</v>
       </c>
@@ -6384,7 +6388,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" s="7" t="s">
         <v>94</v>
       </c>
@@ -6406,7 +6410,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" s="7" t="s">
         <v>95</v>
       </c>
@@ -6428,7 +6432,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" s="7" t="s">
         <v>96</v>
       </c>
@@ -6450,7 +6454,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" s="7" t="s">
         <v>97</v>
       </c>
@@ -6464,7 +6468,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" s="7" t="s">
         <v>25</v>
       </c>
@@ -6476,7 +6480,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" s="7" t="s">
         <v>98</v>
       </c>
@@ -6498,7 +6502,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" s="7" t="s">
         <v>99</v>
       </c>
@@ -6520,7 +6524,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" s="7" t="s">
         <v>100</v>
       </c>
@@ -6542,7 +6546,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" s="7" t="s">
         <v>101</v>
       </c>
@@ -6564,7 +6568,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" s="7" t="s">
         <v>102</v>
       </c>
@@ -6586,7 +6590,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" s="7" t="s">
         <v>34</v>
       </c>
@@ -6600,7 +6604,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" s="7" t="s">
         <v>103</v>
       </c>
@@ -6614,7 +6618,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" s="7" t="s">
         <v>50</v>
       </c>
@@ -6628,7 +6632,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A202" s="59" t="s">
         <v>11</v>
       </c>
@@ -6642,7 +6646,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" s="11" t="s">
         <v>8</v>
       </c>
@@ -6654,7 +6658,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" s="7" t="s">
         <v>104</v>
       </c>
@@ -6676,7 +6680,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" s="7" t="s">
         <v>105</v>
       </c>
@@ -6688,7 +6692,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" s="7" t="s">
         <v>106</v>
       </c>
@@ -6710,7 +6714,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" s="7" t="s">
         <v>101</v>
       </c>
@@ -6732,7 +6736,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" s="7" t="s">
         <v>107</v>
       </c>
@@ -6754,7 +6758,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" s="7" t="s">
         <v>108</v>
       </c>
@@ -6776,7 +6780,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" s="7" t="s">
         <v>109</v>
       </c>
@@ -6798,7 +6802,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" s="7" t="s">
         <v>110</v>
       </c>
@@ -6820,7 +6824,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" s="7" t="s">
         <v>111</v>
       </c>
@@ -6834,7 +6838,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" s="7" t="s">
         <v>103</v>
       </c>
@@ -6848,7 +6852,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" s="7" t="s">
         <v>50</v>
       </c>
@@ -6862,7 +6866,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A215" s="59" t="s">
         <v>112</v>
       </c>
@@ -6876,7 +6880,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" s="11" t="s">
         <v>38</v>
       </c>
@@ -6886,7 +6890,7 @@
       <c r="E216" s="62"/>
       <c r="F216" s="14"/>
     </row>
-    <row r="217" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A217" s="100" t="s">
         <v>312</v>
       </c>
@@ -6908,18 +6912,18 @@
         <v>313</v>
       </c>
     </row>
-    <row r="218" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="219" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A219" s="119" t="s">
+    <row r="218" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="219" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A219" s="121" t="s">
         <v>230</v>
       </c>
-      <c r="B219" s="120"/>
-      <c r="C219" s="120"/>
-      <c r="D219" s="121"/>
-      <c r="E219" s="121"/>
-      <c r="F219" s="122"/>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B219" s="122"/>
+      <c r="C219" s="122"/>
+      <c r="D219" s="123"/>
+      <c r="E219" s="123"/>
+      <c r="F219" s="124"/>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>1</v>
       </c>
@@ -6939,7 +6943,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" s="5" t="s">
         <v>6</v>
       </c>
@@ -6951,7 +6955,7 @@
       <c r="E221" s="3"/>
       <c r="F221" s="16"/>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" s="20" t="s">
         <v>113</v>
       </c>
@@ -6973,7 +6977,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" s="20" t="s">
         <v>115</v>
       </c>
@@ -6995,7 +6999,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" s="20" t="s">
         <v>116</v>
       </c>
@@ -7017,7 +7021,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" s="20" t="s">
         <v>117</v>
       </c>
@@ -7039,7 +7043,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" s="20" t="s">
         <v>118</v>
       </c>
@@ -7061,7 +7065,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="227" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A227" s="70" t="s">
         <v>119</v>
       </c>
@@ -7083,7 +7087,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" s="11" t="s">
         <v>8</v>
       </c>
@@ -7093,7 +7097,7 @@
       <c r="E228" s="62"/>
       <c r="F228" s="54"/>
     </row>
-    <row r="229" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A229" s="24" t="s">
         <v>65</v>
       </c>
@@ -7115,7 +7119,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" s="11" t="s">
         <v>38</v>
       </c>
@@ -7125,7 +7129,7 @@
       <c r="E230" s="62"/>
       <c r="F230" s="14"/>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" s="7" t="s">
         <v>120</v>
       </c>
@@ -7147,7 +7151,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" s="7" t="s">
         <v>121</v>
       </c>
@@ -7169,7 +7173,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="233" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A233" s="17" t="s">
         <v>122</v>
       </c>
@@ -7191,18 +7195,18 @@
         <v>114</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="235" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A235" s="119" t="s">
+    <row r="234" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="235" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A235" s="121" t="s">
         <v>231</v>
       </c>
-      <c r="B235" s="120"/>
-      <c r="C235" s="120"/>
-      <c r="D235" s="121"/>
-      <c r="E235" s="121"/>
-      <c r="F235" s="122"/>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B235" s="122"/>
+      <c r="C235" s="122"/>
+      <c r="D235" s="123"/>
+      <c r="E235" s="123"/>
+      <c r="F235" s="124"/>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>1</v>
       </c>
@@ -7222,7 +7226,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" s="5" t="s">
         <v>6</v>
       </c>
@@ -7234,7 +7238,7 @@
       <c r="E237" s="2"/>
       <c r="F237" s="16"/>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" s="87" t="s">
         <v>232</v>
       </c>
@@ -7244,7 +7248,7 @@
       <c r="E238" s="21"/>
       <c r="F238" s="58"/>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" s="87" t="s">
         <v>233</v>
       </c>
@@ -7266,7 +7270,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" s="87" t="s">
         <v>234</v>
       </c>
@@ -7278,7 +7282,7 @@
       <c r="E240" s="21"/>
       <c r="F240" s="16"/>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" s="87" t="s">
         <v>235</v>
       </c>
@@ -7288,7 +7292,7 @@
       <c r="E241" s="21"/>
       <c r="F241" s="16"/>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" s="87" t="s">
         <v>236</v>
       </c>
@@ -7310,7 +7314,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" s="87" t="s">
         <v>237</v>
       </c>
@@ -7332,7 +7336,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" s="40" t="s">
         <v>238</v>
       </c>
@@ -7354,7 +7358,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" s="87" t="s">
         <v>239</v>
       </c>
@@ -7376,7 +7380,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" s="40" t="s">
         <v>240</v>
       </c>
@@ -7398,7 +7402,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" s="7" t="s">
         <v>234</v>
       </c>
@@ -7410,7 +7414,7 @@
       <c r="E247" s="21"/>
       <c r="F247" s="16"/>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" s="7" t="s">
         <v>76</v>
       </c>
@@ -7422,7 +7426,7 @@
       <c r="E248" s="21"/>
       <c r="F248" s="16"/>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" s="7" t="s">
         <v>241</v>
       </c>
@@ -7432,7 +7436,7 @@
       <c r="E249" s="21"/>
       <c r="F249" s="16"/>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" s="87" t="s">
         <v>242</v>
       </c>
@@ -7454,7 +7458,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" s="87" t="s">
         <v>243</v>
       </c>
@@ -7476,7 +7480,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" s="87" t="s">
         <v>244</v>
       </c>
@@ -7498,7 +7502,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" s="87" t="s">
         <v>245</v>
       </c>
@@ -7520,7 +7524,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" s="87" t="s">
         <v>246</v>
       </c>
@@ -7542,7 +7546,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" s="87" t="s">
         <v>247</v>
       </c>
@@ -7564,7 +7568,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" s="87" t="s">
         <v>248</v>
       </c>
@@ -7586,7 +7590,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" s="87" t="s">
         <v>249</v>
       </c>
@@ -7608,7 +7612,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" s="87" t="s">
         <v>250</v>
       </c>
@@ -7630,7 +7634,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" s="87" t="s">
         <v>251</v>
       </c>
@@ -7652,7 +7656,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" s="87" t="s">
         <v>252</v>
       </c>
@@ -7674,7 +7678,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" s="87" t="s">
         <v>253</v>
       </c>
@@ -7696,7 +7700,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" s="87" t="s">
         <v>254</v>
       </c>
@@ -7718,7 +7722,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" s="87" t="s">
         <v>76</v>
       </c>
@@ -7730,7 +7734,7 @@
       <c r="E263" s="21"/>
       <c r="F263" s="6"/>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" s="87" t="s">
         <v>25</v>
       </c>
@@ -7740,7 +7744,7 @@
       <c r="E264" s="21"/>
       <c r="F264" s="6"/>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" s="87" t="s">
         <v>255</v>
       </c>
@@ -7762,7 +7766,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266" s="87" t="s">
         <v>256</v>
       </c>
@@ -7784,7 +7788,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" s="87" t="s">
         <v>257</v>
       </c>
@@ -7806,7 +7810,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" s="87" t="s">
         <v>76</v>
       </c>
@@ -7818,7 +7822,7 @@
       <c r="E268" s="21"/>
       <c r="F268" s="6"/>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" s="87" t="s">
         <v>103</v>
       </c>
@@ -7830,7 +7834,7 @@
       <c r="E269" s="21"/>
       <c r="F269" s="6"/>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" s="87" t="s">
         <v>258</v>
       </c>
@@ -7840,7 +7844,7 @@
       <c r="E270" s="21"/>
       <c r="F270" s="6"/>
     </row>
-    <row r="271" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A271" s="89" t="s">
         <v>11</v>
       </c>
@@ -7850,7 +7854,7 @@
       <c r="E271" s="25"/>
       <c r="F271" s="10"/>
     </row>
-    <row r="272" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A272" s="102" t="s">
         <v>8</v>
       </c>
@@ -7860,7 +7864,7 @@
       <c r="E272" s="103"/>
       <c r="F272" s="104"/>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" s="105" t="s">
         <v>293</v>
       </c>
@@ -7870,7 +7874,7 @@
       <c r="E273" s="62"/>
       <c r="F273" s="14"/>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" s="87" t="s">
         <v>319</v>
       </c>
@@ -7892,7 +7896,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" s="87" t="s">
         <v>295</v>
       </c>
@@ -7914,7 +7918,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" s="87" t="s">
         <v>320</v>
       </c>
@@ -7936,7 +7940,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" s="87" t="s">
         <v>321</v>
       </c>
@@ -7958,7 +7962,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" s="87" t="s">
         <v>318</v>
       </c>
@@ -7970,7 +7974,7 @@
       <c r="E278" s="21"/>
       <c r="F278" s="6"/>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" s="87" t="s">
         <v>105</v>
       </c>
@@ -7980,7 +7984,7 @@
       <c r="E279" s="21"/>
       <c r="F279" s="6"/>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" s="87" t="s">
         <v>322</v>
       </c>
@@ -8000,7 +8004,7 @@
       </c>
       <c r="F280" s="6"/>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" s="87" t="s">
         <v>323</v>
       </c>
@@ -8022,7 +8026,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" s="87" t="s">
         <v>324</v>
       </c>
@@ -8044,7 +8048,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" s="87" t="s">
         <v>301</v>
       </c>
@@ -8066,7 +8070,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" s="87" t="s">
         <v>303</v>
       </c>
@@ -8088,7 +8092,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" s="87" t="s">
         <v>325</v>
       </c>
@@ -8110,7 +8114,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" s="87" t="s">
         <v>326</v>
       </c>
@@ -8132,7 +8136,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" s="87" t="s">
         <v>306</v>
       </c>
@@ -8144,7 +8148,7 @@
       <c r="E287" s="21"/>
       <c r="F287" s="6"/>
     </row>
-    <row r="288" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A288" s="89" t="s">
         <v>11</v>
       </c>
@@ -8156,17 +8160,17 @@
       <c r="E288" s="25"/>
       <c r="F288" s="10"/>
     </row>
-    <row r="289" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A289" s="119" t="s">
+    <row r="289" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A289" s="121" t="s">
         <v>341</v>
       </c>
-      <c r="B289" s="120"/>
-      <c r="C289" s="120"/>
-      <c r="D289" s="121"/>
-      <c r="E289" s="121"/>
-      <c r="F289" s="122"/>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B289" s="122"/>
+      <c r="C289" s="122"/>
+      <c r="D289" s="123"/>
+      <c r="E289" s="123"/>
+      <c r="F289" s="124"/>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" s="96" t="s">
         <v>1</v>
       </c>
@@ -8186,7 +8190,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" s="5" t="s">
         <v>6</v>
       </c>
@@ -8198,7 +8202,7 @@
       <c r="E291" s="2"/>
       <c r="F291" s="16"/>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292" s="90" t="s">
         <v>342</v>
       </c>
@@ -8208,7 +8212,7 @@
       <c r="E292" s="21"/>
       <c r="F292" s="6"/>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293" s="87" t="s">
         <v>343</v>
       </c>
@@ -8230,7 +8234,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294" s="87" t="s">
         <v>344</v>
       </c>
@@ -8252,7 +8256,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295" s="87" t="s">
         <v>345</v>
       </c>
@@ -8274,7 +8278,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296" s="87" t="s">
         <v>346</v>
       </c>
@@ -8296,7 +8300,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" s="87" t="s">
         <v>347</v>
       </c>
@@ -8318,7 +8322,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" s="87" t="s">
         <v>348</v>
       </c>
@@ -8340,7 +8344,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299" s="87" t="s">
         <v>349</v>
       </c>
@@ -8362,7 +8366,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300" s="87" t="s">
         <v>350</v>
       </c>
@@ -8384,7 +8388,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301" s="87" t="s">
         <v>351</v>
       </c>
@@ -8406,7 +8410,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302" s="90" t="s">
         <v>352</v>
       </c>
@@ -8416,7 +8420,7 @@
       <c r="E302" s="21"/>
       <c r="F302" s="6"/>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303" s="87" t="s">
         <v>353</v>
       </c>
@@ -8438,7 +8442,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304" s="87" t="s">
         <v>354</v>
       </c>
@@ -8460,7 +8464,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305" s="87" t="s">
         <v>355</v>
       </c>
@@ -8482,7 +8486,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="306" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A306" s="88" t="s">
         <v>356</v>
       </c>
@@ -8504,7 +8508,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307" s="11" t="s">
         <v>8</v>
       </c>
@@ -8514,7 +8518,7 @@
       <c r="E307" s="62"/>
       <c r="F307" s="14"/>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308" s="111" t="s">
         <v>65</v>
       </c>
@@ -8536,7 +8540,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309" s="111" t="s">
         <v>362</v>
       </c>
@@ -8558,7 +8562,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310" s="111" t="s">
         <v>363</v>
       </c>
@@ -8580,7 +8584,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="311" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A311" s="112" t="s">
         <v>364</v>
       </c>
@@ -8602,7 +8606,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312" s="11" t="s">
         <v>38</v>
       </c>
@@ -8612,7 +8616,7 @@
       <c r="E312" s="62"/>
       <c r="F312" s="14"/>
     </row>
-    <row r="313" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:6" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A313" s="114" t="s">
         <v>360</v>
       </c>
@@ -8634,22 +8638,22 @@
         <v>70</v>
       </c>
     </row>
-    <row r="314" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B314" s="85"/>
       <c r="C314" s="84"/>
       <c r="D314" s="107"/>
     </row>
-    <row r="315" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A315" s="119" t="s">
+    <row r="315" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A315" s="121" t="s">
         <v>369</v>
       </c>
-      <c r="B315" s="120"/>
-      <c r="C315" s="120"/>
-      <c r="D315" s="121"/>
-      <c r="E315" s="121"/>
-      <c r="F315" s="122"/>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B315" s="122"/>
+      <c r="C315" s="122"/>
+      <c r="D315" s="123"/>
+      <c r="E315" s="123"/>
+      <c r="F315" s="124"/>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A316" s="96" t="s">
         <v>1</v>
       </c>
@@ -8669,7 +8673,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317" s="5" t="s">
         <v>6</v>
       </c>
@@ -8681,7 +8685,7 @@
       <c r="E317" s="21"/>
       <c r="F317" s="6"/>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318" s="20" t="s">
         <v>370</v>
       </c>
@@ -8691,7 +8695,7 @@
       <c r="E318" s="94"/>
       <c r="F318" s="16"/>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319" s="20" t="s">
         <v>371</v>
       </c>
@@ -8711,7 +8715,7 @@
       </c>
       <c r="F319" s="16"/>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A320" s="20" t="s">
         <v>372</v>
       </c>
@@ -8731,7 +8735,7 @@
       </c>
       <c r="F320" s="16"/>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321" s="20" t="s">
         <v>373</v>
       </c>
@@ -8751,7 +8755,7 @@
       </c>
       <c r="F321" s="16"/>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322" s="20" t="s">
         <v>374</v>
       </c>
@@ -8771,7 +8775,7 @@
       </c>
       <c r="F322" s="16"/>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A323" s="20" t="s">
         <v>375</v>
       </c>
@@ -8791,7 +8795,7 @@
       </c>
       <c r="F323" s="16"/>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A324" s="20" t="s">
         <v>376</v>
       </c>
@@ -8803,7 +8807,7 @@
       <c r="E324" s="94"/>
       <c r="F324" s="16"/>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A325" s="20" t="s">
         <v>377</v>
       </c>
@@ -8813,7 +8817,7 @@
       <c r="E325" s="94"/>
       <c r="F325" s="16"/>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A326" s="20" t="s">
         <v>378</v>
       </c>
@@ -8833,7 +8837,7 @@
       </c>
       <c r="F326" s="16"/>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A327" s="20" t="s">
         <v>379</v>
       </c>
@@ -8853,7 +8857,7 @@
       </c>
       <c r="F327" s="16"/>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A328" s="20" t="s">
         <v>380</v>
       </c>
@@ -8873,7 +8877,7 @@
       </c>
       <c r="F328" s="6"/>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A329" s="20" t="s">
         <v>381</v>
       </c>
@@ -8893,7 +8897,7 @@
       </c>
       <c r="F329" s="16"/>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A330" s="20" t="s">
         <v>382</v>
       </c>
@@ -8913,7 +8917,7 @@
       </c>
       <c r="F330" s="16"/>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A331" s="20" t="s">
         <v>383</v>
       </c>
@@ -8933,7 +8937,7 @@
       </c>
       <c r="F331" s="6"/>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A332" s="20" t="s">
         <v>384</v>
       </c>
@@ -8953,7 +8957,7 @@
       </c>
       <c r="F332" s="6"/>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A333" s="20" t="s">
         <v>385</v>
       </c>
@@ -8965,7 +8969,7 @@
       <c r="E333" s="94"/>
       <c r="F333" s="6"/>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A334" s="20" t="s">
         <v>386</v>
       </c>
@@ -8975,7 +8979,7 @@
       <c r="E334" s="94"/>
       <c r="F334" s="6"/>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A335" s="20" t="s">
         <v>273</v>
       </c>
@@ -8995,7 +8999,7 @@
       </c>
       <c r="F335" s="6"/>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A336" s="20" t="s">
         <v>387</v>
       </c>
@@ -9015,7 +9019,7 @@
       </c>
       <c r="F336" s="6"/>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A337" s="20" t="s">
         <v>388</v>
       </c>
@@ -9035,7 +9039,7 @@
       </c>
       <c r="F337" s="6"/>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A338" s="20" t="s">
         <v>389</v>
       </c>
@@ -9055,7 +9059,7 @@
       </c>
       <c r="F338" s="6"/>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A339" s="20" t="s">
         <v>390</v>
       </c>
@@ -9075,7 +9079,7 @@
       </c>
       <c r="F339" s="6"/>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A340" s="20" t="s">
         <v>275</v>
       </c>
@@ -9095,7 +9099,7 @@
       </c>
       <c r="F340" s="6"/>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A341" s="20" t="s">
         <v>391</v>
       </c>
@@ -9107,7 +9111,7 @@
       <c r="E341" s="94"/>
       <c r="F341" s="6"/>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A342" s="20" t="s">
         <v>392</v>
       </c>
@@ -9117,7 +9121,7 @@
       <c r="E342" s="94"/>
       <c r="F342" s="6"/>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A343" s="20" t="s">
         <v>393</v>
       </c>
@@ -9137,7 +9141,7 @@
       </c>
       <c r="F343" s="6"/>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A344" s="20" t="s">
         <v>394</v>
       </c>
@@ -9147,7 +9151,7 @@
       <c r="E344" s="94"/>
       <c r="F344" s="6"/>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A345" s="20" t="s">
         <v>282</v>
       </c>
@@ -9167,7 +9171,7 @@
       </c>
       <c r="F345" s="6"/>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A346" s="20" t="s">
         <v>283</v>
       </c>
@@ -9187,7 +9191,7 @@
       </c>
       <c r="F346" s="6"/>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A347" s="20" t="s">
         <v>395</v>
       </c>
@@ -9207,7 +9211,7 @@
       </c>
       <c r="F347" s="6"/>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A348" s="20" t="s">
         <v>396</v>
       </c>
@@ -9227,7 +9231,7 @@
       </c>
       <c r="F348" s="6"/>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A349" s="20" t="s">
         <v>285</v>
       </c>
@@ -9247,7 +9251,7 @@
       </c>
       <c r="F349" s="6"/>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A350" s="20" t="s">
         <v>397</v>
       </c>
@@ -9267,7 +9271,7 @@
       </c>
       <c r="F350" s="6"/>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A351" s="20" t="s">
         <v>398</v>
       </c>
@@ -9287,7 +9291,7 @@
       </c>
       <c r="F351" s="6"/>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A352" s="20" t="s">
         <v>399</v>
       </c>
@@ -9307,7 +9311,7 @@
       </c>
       <c r="F352" s="6"/>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A353" s="20" t="s">
         <v>400</v>
       </c>
@@ -9327,7 +9331,7 @@
       </c>
       <c r="F353" s="6"/>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A354" s="20" t="s">
         <v>401</v>
       </c>
@@ -9339,7 +9343,7 @@
       <c r="E354" s="94"/>
       <c r="F354" s="6"/>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A355" s="20" t="s">
         <v>402</v>
       </c>
@@ -9349,7 +9353,7 @@
       <c r="E355" s="94"/>
       <c r="F355" s="6"/>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A356" s="20" t="s">
         <v>403</v>
       </c>
@@ -9369,7 +9373,7 @@
       </c>
       <c r="F356" s="6"/>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A357" s="20" t="s">
         <v>404</v>
       </c>
@@ -9389,7 +9393,7 @@
       </c>
       <c r="F357" s="6"/>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A358" s="20" t="s">
         <v>405</v>
       </c>
@@ -9409,7 +9413,7 @@
       </c>
       <c r="F358" s="6"/>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A359" s="20" t="s">
         <v>406</v>
       </c>
@@ -9429,7 +9433,7 @@
       </c>
       <c r="F359" s="6"/>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A360" s="20" t="s">
         <v>407</v>
       </c>
@@ -9441,7 +9445,7 @@
       <c r="E360" s="94"/>
       <c r="F360" s="6"/>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A361" s="20" t="s">
         <v>408</v>
       </c>
@@ -9461,7 +9465,7 @@
       </c>
       <c r="F361" s="6"/>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A362" s="20" t="s">
         <v>409</v>
       </c>
@@ -9473,7 +9477,7 @@
       <c r="E362" s="94"/>
       <c r="F362" s="6"/>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A363" s="20" t="s">
         <v>289</v>
       </c>
@@ -9493,7 +9497,7 @@
       </c>
       <c r="F363" s="6"/>
     </row>
-    <row r="364" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A364" s="70" t="s">
         <v>410</v>
       </c>
@@ -9505,7 +9509,7 @@
       <c r="E364" s="99"/>
       <c r="F364" s="75"/>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A365" s="11" t="s">
         <v>8</v>
       </c>
@@ -9515,7 +9519,7 @@
       <c r="E365" s="62"/>
       <c r="F365" s="14"/>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A366" s="20" t="s">
         <v>65</v>
       </c>
@@ -9525,7 +9529,7 @@
       <c r="E366" s="21"/>
       <c r="F366" s="6"/>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A367" s="20" t="s">
         <v>412</v>
       </c>
@@ -9545,7 +9549,7 @@
       </c>
       <c r="F367" s="6"/>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A368" s="20" t="s">
         <v>413</v>
       </c>
@@ -9565,7 +9569,7 @@
       </c>
       <c r="F368" s="6"/>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A369" s="20" t="s">
         <v>414</v>
       </c>
@@ -9585,7 +9589,7 @@
       </c>
       <c r="F369" s="6"/>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A370" s="20" t="s">
         <v>275</v>
       </c>
@@ -9605,7 +9609,7 @@
       </c>
       <c r="F370" s="6"/>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A371" s="20" t="s">
         <v>415</v>
       </c>
@@ -9617,7 +9621,7 @@
       <c r="E371" s="21"/>
       <c r="F371" s="6"/>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A372" s="20" t="s">
         <v>105</v>
       </c>
@@ -9627,7 +9631,7 @@
       <c r="E372" s="21"/>
       <c r="F372" s="6"/>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A373" s="20" t="s">
         <v>416</v>
       </c>
@@ -9647,7 +9651,7 @@
       </c>
       <c r="F373" s="6"/>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A374" s="20" t="s">
         <v>417</v>
       </c>
@@ -9667,7 +9671,7 @@
       </c>
       <c r="F374" s="6"/>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A375" s="20" t="s">
         <v>418</v>
       </c>
@@ -9687,7 +9691,7 @@
       </c>
       <c r="F375" s="6"/>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A376" s="20" t="s">
         <v>419</v>
       </c>
@@ -9707,7 +9711,7 @@
       </c>
       <c r="F376" s="6"/>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A377" s="20" t="s">
         <v>420</v>
       </c>
@@ -9727,7 +9731,7 @@
       </c>
       <c r="F377" s="6"/>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A378" s="20" t="s">
         <v>421</v>
       </c>
@@ -9739,7 +9743,7 @@
       <c r="E378" s="21"/>
       <c r="F378" s="6"/>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A379" s="20" t="s">
         <v>409</v>
       </c>
@@ -9751,7 +9755,7 @@
       <c r="E379" s="21"/>
       <c r="F379" s="6"/>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A380" s="20" t="s">
         <v>289</v>
       </c>
@@ -9771,7 +9775,7 @@
       </c>
       <c r="F380" s="6"/>
     </row>
-    <row r="381" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A381" s="24" t="s">
         <v>422</v>
       </c>
@@ -9883,161 +9887,161 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" customWidth="1"/>
-    <col min="14" max="24" width="7.7109375" customWidth="1"/>
-    <col min="25" max="26" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="9.7109375" customWidth="1"/>
-    <col min="29" max="33" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="43" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" customWidth="1"/>
+    <col min="14" max="24" width="7.6640625" customWidth="1"/>
+    <col min="25" max="26" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="9.6640625" customWidth="1"/>
+    <col min="29" max="33" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="43" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="B1" s="127" t="s">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="B1" s="119" t="s">
         <v>163</v>
       </c>
-      <c r="C1" s="127" t="s">
+      <c r="C1" s="119" t="s">
         <v>436</v>
       </c>
-      <c r="D1" s="127" t="s">
+      <c r="D1" s="119" t="s">
         <v>435</v>
       </c>
-      <c r="E1" s="127" t="s">
+      <c r="E1" s="119" t="s">
         <v>164</v>
       </c>
-      <c r="F1" s="127" t="s">
+      <c r="F1" s="119" t="s">
         <v>165</v>
       </c>
-      <c r="G1" s="127" t="s">
+      <c r="G1" s="119" t="s">
         <v>166</v>
       </c>
-      <c r="H1" s="127" t="s">
+      <c r="H1" s="119" t="s">
         <v>167</v>
       </c>
-      <c r="I1" s="127" t="s">
+      <c r="I1" s="119" t="s">
         <v>168</v>
       </c>
-      <c r="J1" s="127" t="s">
+      <c r="J1" s="119" t="s">
         <v>169</v>
       </c>
-      <c r="K1" s="127" t="s">
+      <c r="K1" s="119" t="s">
         <v>170</v>
       </c>
-      <c r="L1" s="127" t="s">
+      <c r="L1" s="119" t="s">
         <v>429</v>
       </c>
-      <c r="M1" s="127" t="s">
+      <c r="M1" s="119" t="s">
         <v>430</v>
       </c>
-      <c r="N1" s="127" t="s">
+      <c r="N1" s="119" t="s">
         <v>171</v>
       </c>
-      <c r="O1" s="127" t="s">
+      <c r="O1" s="119" t="s">
         <v>437</v>
       </c>
-      <c r="P1" s="127" t="s">
+      <c r="P1" s="119" t="s">
         <v>438</v>
       </c>
-      <c r="Q1" s="127" t="s">
+      <c r="Q1" s="119" t="s">
         <v>439</v>
       </c>
-      <c r="R1" s="127" t="s">
+      <c r="R1" s="119" t="s">
         <v>440</v>
       </c>
-      <c r="S1" s="127" t="s">
+      <c r="S1" s="119" t="s">
         <v>172</v>
       </c>
-      <c r="T1" s="127" t="s">
+      <c r="T1" s="119" t="s">
         <v>173</v>
       </c>
-      <c r="U1" s="127" t="s">
+      <c r="U1" s="119" t="s">
         <v>174</v>
       </c>
-      <c r="V1" s="127" t="s">
+      <c r="V1" s="119" t="s">
         <v>175</v>
       </c>
-      <c r="W1" s="127" t="s">
+      <c r="W1" s="119" t="s">
         <v>176</v>
       </c>
-      <c r="X1" s="127" t="s">
+      <c r="X1" s="119" t="s">
         <v>177</v>
       </c>
-      <c r="Y1" s="127" t="s">
+      <c r="Y1" s="119" t="s">
         <v>178</v>
       </c>
-      <c r="Z1" s="127" t="s">
+      <c r="Z1" s="119" t="s">
         <v>441</v>
       </c>
-      <c r="AA1" s="127" t="s">
+      <c r="AA1" s="119" t="s">
         <v>442</v>
       </c>
-      <c r="AB1" s="127" t="s">
+      <c r="AB1" s="119" t="s">
         <v>443</v>
       </c>
-      <c r="AC1" s="127" t="s">
+      <c r="AC1" s="119" t="s">
         <v>179</v>
       </c>
-      <c r="AD1" s="127" t="s">
+      <c r="AD1" s="119" t="s">
         <v>180</v>
       </c>
-      <c r="AE1" s="127" t="s">
+      <c r="AE1" s="119" t="s">
         <v>181</v>
       </c>
-      <c r="AF1" s="127" t="s">
+      <c r="AF1" s="119" t="s">
         <v>182</v>
       </c>
-      <c r="AG1" s="127" t="s">
+      <c r="AG1" s="119" t="s">
         <v>183</v>
       </c>
-      <c r="AH1" s="127" t="s">
+      <c r="AH1" s="119" t="s">
         <v>184</v>
       </c>
-      <c r="AI1" s="127" t="s">
+      <c r="AI1" s="119" t="s">
         <v>185</v>
       </c>
-      <c r="AJ1" s="127" t="s">
+      <c r="AJ1" s="119" t="s">
         <v>186</v>
       </c>
-      <c r="AK1" s="127" t="s">
+      <c r="AK1" s="119" t="s">
         <v>187</v>
       </c>
-      <c r="AL1" s="127" t="s">
+      <c r="AL1" s="119" t="s">
         <v>188</v>
       </c>
-      <c r="AM1" s="127" t="s">
+      <c r="AM1" s="119" t="s">
         <v>189</v>
       </c>
-      <c r="AN1" s="127" t="s">
+      <c r="AN1" s="119" t="s">
         <v>190</v>
       </c>
-      <c r="AO1" s="127" t="s">
+      <c r="AO1" s="119" t="s">
         <v>191</v>
       </c>
-      <c r="AP1" s="127" t="s">
+      <c r="AP1" s="119" t="s">
         <v>192</v>
       </c>
-      <c r="AQ1" s="127" t="s">
+      <c r="AQ1" s="119" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>199</v>
       </c>
@@ -10210,7 +10214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>200</v>
       </c>
@@ -10383,7 +10387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>201</v>
       </c>
@@ -10556,7 +10560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>202</v>
       </c>
@@ -10729,7 +10733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>203</v>
       </c>
@@ -10902,7 +10906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>204</v>
       </c>
@@ -11075,7 +11079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>205</v>
       </c>
@@ -11248,7 +11252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>206</v>
       </c>
@@ -11421,7 +11425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>207</v>
       </c>
@@ -11594,7 +11598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>208</v>
       </c>
@@ -11767,7 +11771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>209</v>
       </c>
@@ -11940,7 +11944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>210</v>
       </c>
@@ -12113,7 +12117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>211</v>
       </c>
@@ -12286,7 +12290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>212</v>
       </c>
@@ -12459,7 +12463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>213</v>
       </c>
@@ -12632,7 +12636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>214</v>
       </c>
@@ -12819,160 +12823,160 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.1640625" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="24" width="8" customWidth="1"/>
-    <col min="25" max="26" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="9.7109375" customWidth="1"/>
-    <col min="29" max="33" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="7.140625" customWidth="1"/>
-    <col min="41" max="43" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="9.6640625" customWidth="1"/>
+    <col min="29" max="33" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="7.1640625" customWidth="1"/>
+    <col min="41" max="43" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="B1" s="127" t="s">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="B1" s="119" t="s">
         <v>163</v>
       </c>
-      <c r="C1" s="127" t="s">
+      <c r="C1" s="119" t="s">
         <v>436</v>
       </c>
-      <c r="D1" s="127" t="s">
+      <c r="D1" s="119" t="s">
         <v>435</v>
       </c>
-      <c r="E1" s="127" t="s">
+      <c r="E1" s="119" t="s">
         <v>164</v>
       </c>
-      <c r="F1" s="127" t="s">
+      <c r="F1" s="119" t="s">
         <v>165</v>
       </c>
-      <c r="G1" s="127" t="s">
+      <c r="G1" s="119" t="s">
         <v>166</v>
       </c>
-      <c r="H1" s="127" t="s">
+      <c r="H1" s="119" t="s">
         <v>167</v>
       </c>
-      <c r="I1" s="127" t="s">
+      <c r="I1" s="119" t="s">
         <v>168</v>
       </c>
-      <c r="J1" s="127" t="s">
+      <c r="J1" s="119" t="s">
         <v>169</v>
       </c>
-      <c r="K1" s="127" t="s">
+      <c r="K1" s="119" t="s">
         <v>170</v>
       </c>
-      <c r="L1" s="127" t="s">
+      <c r="L1" s="119" t="s">
         <v>429</v>
       </c>
-      <c r="M1" s="127" t="s">
+      <c r="M1" s="119" t="s">
         <v>430</v>
       </c>
-      <c r="N1" s="127" t="s">
+      <c r="N1" s="119" t="s">
         <v>171</v>
       </c>
-      <c r="O1" s="127" t="s">
+      <c r="O1" s="119" t="s">
         <v>437</v>
       </c>
-      <c r="P1" s="127" t="s">
+      <c r="P1" s="119" t="s">
         <v>438</v>
       </c>
-      <c r="Q1" s="127" t="s">
+      <c r="Q1" s="119" t="s">
         <v>439</v>
       </c>
-      <c r="R1" s="127" t="s">
+      <c r="R1" s="119" t="s">
         <v>440</v>
       </c>
-      <c r="S1" s="127" t="s">
+      <c r="S1" s="119" t="s">
         <v>172</v>
       </c>
-      <c r="T1" s="127" t="s">
+      <c r="T1" s="119" t="s">
         <v>173</v>
       </c>
-      <c r="U1" s="127" t="s">
+      <c r="U1" s="119" t="s">
         <v>174</v>
       </c>
-      <c r="V1" s="127" t="s">
+      <c r="V1" s="119" t="s">
         <v>175</v>
       </c>
-      <c r="W1" s="127" t="s">
+      <c r="W1" s="119" t="s">
         <v>176</v>
       </c>
-      <c r="X1" s="127" t="s">
+      <c r="X1" s="119" t="s">
         <v>177</v>
       </c>
-      <c r="Y1" s="127" t="s">
+      <c r="Y1" s="119" t="s">
         <v>178</v>
       </c>
-      <c r="Z1" s="127" t="s">
+      <c r="Z1" s="119" t="s">
         <v>441</v>
       </c>
-      <c r="AA1" s="127" t="s">
+      <c r="AA1" s="119" t="s">
         <v>442</v>
       </c>
-      <c r="AB1" s="127" t="s">
+      <c r="AB1" s="119" t="s">
         <v>443</v>
       </c>
-      <c r="AC1" s="127" t="s">
+      <c r="AC1" s="119" t="s">
         <v>179</v>
       </c>
-      <c r="AD1" s="127" t="s">
+      <c r="AD1" s="119" t="s">
         <v>180</v>
       </c>
-      <c r="AE1" s="127" t="s">
+      <c r="AE1" s="119" t="s">
         <v>181</v>
       </c>
-      <c r="AF1" s="127" t="s">
+      <c r="AF1" s="119" t="s">
         <v>182</v>
       </c>
-      <c r="AG1" s="127" t="s">
+      <c r="AG1" s="119" t="s">
         <v>183</v>
       </c>
-      <c r="AH1" s="127" t="s">
+      <c r="AH1" s="119" t="s">
         <v>184</v>
       </c>
-      <c r="AI1" s="127" t="s">
+      <c r="AI1" s="119" t="s">
         <v>185</v>
       </c>
-      <c r="AJ1" s="127" t="s">
+      <c r="AJ1" s="119" t="s">
         <v>186</v>
       </c>
-      <c r="AK1" s="127" t="s">
+      <c r="AK1" s="119" t="s">
         <v>187</v>
       </c>
-      <c r="AL1" s="127" t="s">
+      <c r="AL1" s="119" t="s">
         <v>188</v>
       </c>
-      <c r="AM1" s="127" t="s">
+      <c r="AM1" s="119" t="s">
         <v>189</v>
       </c>
-      <c r="AN1" s="127" t="s">
+      <c r="AN1" s="119" t="s">
         <v>190</v>
       </c>
-      <c r="AO1" s="127" t="s">
+      <c r="AO1" s="119" t="s">
         <v>191</v>
       </c>
-      <c r="AP1" s="127" t="s">
+      <c r="AP1" s="119" t="s">
         <v>192</v>
       </c>
-      <c r="AQ1" s="127" t="s">
+      <c r="AQ1" s="119" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>199</v>
       </c>
@@ -13145,7 +13149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>200</v>
       </c>
@@ -13318,7 +13322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>201</v>
       </c>
@@ -13491,7 +13495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>202</v>
       </c>
@@ -13664,7 +13668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>203</v>
       </c>
@@ -13837,7 +13841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>204</v>
       </c>
@@ -14010,7 +14014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>205</v>
       </c>
@@ -14183,7 +14187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>206</v>
       </c>
@@ -14356,7 +14360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>207</v>
       </c>
@@ -14529,7 +14533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>208</v>
       </c>
@@ -14702,7 +14706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>209</v>
       </c>
@@ -14807,7 +14811,7 @@
         <v>0.41820000000000018</v>
       </c>
       <c r="AA12" s="106">
-        <f t="shared" ref="AA12:AB12" si="6">AA3</f>
+        <f t="shared" ref="AA12" si="6">AA3</f>
         <v>0</v>
       </c>
       <c r="AB12" s="106">
@@ -14875,7 +14879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>210</v>
       </c>
@@ -15048,7 +15052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>211</v>
       </c>
@@ -15221,7 +15225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>212</v>
       </c>
@@ -15394,7 +15398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>213</v>
       </c>
@@ -15567,7 +15571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>214</v>
       </c>
@@ -15672,7 +15676,7 @@
         <v>1</v>
       </c>
       <c r="AA17" s="106">
-        <f t="shared" ref="AA17:AB17" si="15">AA9</f>
+        <f t="shared" ref="AA17" si="15">AA9</f>
         <v>0</v>
       </c>
       <c r="AB17" s="106">
@@ -15754,160 +15758,160 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="24" width="8.28515625" customWidth="1"/>
-    <col min="25" max="26" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="9.7109375" customWidth="1"/>
-    <col min="29" max="33" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="43" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="24" width="8.33203125" customWidth="1"/>
+    <col min="25" max="26" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="9.6640625" customWidth="1"/>
+    <col min="29" max="33" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="43" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="B1" s="127" t="s">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="B1" s="119" t="s">
         <v>163</v>
       </c>
-      <c r="C1" s="127" t="s">
+      <c r="C1" s="119" t="s">
         <v>436</v>
       </c>
-      <c r="D1" s="127" t="s">
+      <c r="D1" s="119" t="s">
         <v>435</v>
       </c>
-      <c r="E1" s="127" t="s">
+      <c r="E1" s="119" t="s">
         <v>164</v>
       </c>
-      <c r="F1" s="127" t="s">
+      <c r="F1" s="119" t="s">
         <v>165</v>
       </c>
-      <c r="G1" s="127" t="s">
+      <c r="G1" s="119" t="s">
         <v>166</v>
       </c>
-      <c r="H1" s="127" t="s">
+      <c r="H1" s="119" t="s">
         <v>167</v>
       </c>
-      <c r="I1" s="127" t="s">
+      <c r="I1" s="119" t="s">
         <v>168</v>
       </c>
-      <c r="J1" s="127" t="s">
+      <c r="J1" s="119" t="s">
         <v>169</v>
       </c>
-      <c r="K1" s="127" t="s">
+      <c r="K1" s="119" t="s">
         <v>170</v>
       </c>
-      <c r="L1" s="127" t="s">
+      <c r="L1" s="119" t="s">
         <v>429</v>
       </c>
-      <c r="M1" s="127" t="s">
+      <c r="M1" s="119" t="s">
         <v>430</v>
       </c>
-      <c r="N1" s="127" t="s">
+      <c r="N1" s="119" t="s">
         <v>171</v>
       </c>
-      <c r="O1" s="127" t="s">
+      <c r="O1" s="119" t="s">
         <v>437</v>
       </c>
-      <c r="P1" s="127" t="s">
+      <c r="P1" s="119" t="s">
         <v>438</v>
       </c>
-      <c r="Q1" s="127" t="s">
+      <c r="Q1" s="119" t="s">
         <v>439</v>
       </c>
-      <c r="R1" s="127" t="s">
+      <c r="R1" s="119" t="s">
         <v>440</v>
       </c>
-      <c r="S1" s="127" t="s">
+      <c r="S1" s="119" t="s">
         <v>172</v>
       </c>
-      <c r="T1" s="127" t="s">
+      <c r="T1" s="119" t="s">
         <v>173</v>
       </c>
-      <c r="U1" s="127" t="s">
+      <c r="U1" s="119" t="s">
         <v>174</v>
       </c>
-      <c r="V1" s="127" t="s">
+      <c r="V1" s="119" t="s">
         <v>175</v>
       </c>
-      <c r="W1" s="127" t="s">
+      <c r="W1" s="119" t="s">
         <v>176</v>
       </c>
-      <c r="X1" s="127" t="s">
+      <c r="X1" s="119" t="s">
         <v>177</v>
       </c>
-      <c r="Y1" s="127" t="s">
+      <c r="Y1" s="119" t="s">
         <v>178</v>
       </c>
-      <c r="Z1" s="127" t="s">
+      <c r="Z1" s="119" t="s">
         <v>441</v>
       </c>
-      <c r="AA1" s="127" t="s">
+      <c r="AA1" s="119" t="s">
         <v>442</v>
       </c>
-      <c r="AB1" s="127" t="s">
+      <c r="AB1" s="119" t="s">
         <v>443</v>
       </c>
-      <c r="AC1" s="127" t="s">
+      <c r="AC1" s="119" t="s">
         <v>179</v>
       </c>
-      <c r="AD1" s="127" t="s">
+      <c r="AD1" s="119" t="s">
         <v>180</v>
       </c>
-      <c r="AE1" s="127" t="s">
+      <c r="AE1" s="119" t="s">
         <v>181</v>
       </c>
-      <c r="AF1" s="127" t="s">
+      <c r="AF1" s="119" t="s">
         <v>182</v>
       </c>
-      <c r="AG1" s="127" t="s">
+      <c r="AG1" s="119" t="s">
         <v>183</v>
       </c>
-      <c r="AH1" s="127" t="s">
+      <c r="AH1" s="119" t="s">
         <v>184</v>
       </c>
-      <c r="AI1" s="127" t="s">
+      <c r="AI1" s="119" t="s">
         <v>185</v>
       </c>
-      <c r="AJ1" s="127" t="s">
+      <c r="AJ1" s="119" t="s">
         <v>186</v>
       </c>
-      <c r="AK1" s="127" t="s">
+      <c r="AK1" s="119" t="s">
         <v>187</v>
       </c>
-      <c r="AL1" s="127" t="s">
+      <c r="AL1" s="119" t="s">
         <v>188</v>
       </c>
-      <c r="AM1" s="127" t="s">
+      <c r="AM1" s="119" t="s">
         <v>189</v>
       </c>
-      <c r="AN1" s="127" t="s">
+      <c r="AN1" s="119" t="s">
         <v>190</v>
       </c>
-      <c r="AO1" s="127" t="s">
+      <c r="AO1" s="119" t="s">
         <v>191</v>
       </c>
-      <c r="AP1" s="127" t="s">
+      <c r="AP1" s="119" t="s">
         <v>192</v>
       </c>
-      <c r="AQ1" s="127" t="s">
+      <c r="AQ1" s="119" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>199</v>
       </c>
@@ -16080,7 +16084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>200</v>
       </c>
@@ -16253,7 +16257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>201</v>
       </c>
@@ -16426,7 +16430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>202</v>
       </c>
@@ -16599,7 +16603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>203</v>
       </c>
@@ -16730,7 +16734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>204</v>
       </c>
@@ -16861,7 +16865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>205</v>
       </c>
@@ -16992,7 +16996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>206</v>
       </c>
@@ -17165,7 +17169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>207</v>
       </c>
@@ -17338,7 +17342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>208</v>
       </c>
@@ -17511,7 +17515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>209</v>
       </c>
@@ -17684,7 +17688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>210</v>
       </c>
@@ -17857,7 +17861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>211</v>
       </c>
@@ -17988,7 +17992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>212</v>
       </c>
@@ -18161,7 +18165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>213</v>
       </c>
@@ -18334,7 +18338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>214</v>
       </c>

--- a/InputData/elec/SoESCaOMCbIC/Share of Electricity Sector Capital and OM Costs by ISIC Code.xlsx
+++ b/InputData/elec/SoESCaOMCbIC/Share of Electricity Sector Capital and OM Costs by ISIC Code.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/ar/elec/soescaomcbic/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/elec/soescaomcbic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94BC4F1-50EF-8348-B9FF-3B52EE39672F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD08BF6D-8A50-6345-B30F-9EE6CC238563}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2540" yWindow="460" windowWidth="25660" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2540" yWindow="460" windowWidth="25660" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="4" r:id="rId1"/>
@@ -2120,7 +2120,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2145,6 +2144,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -2445,7 +2445,7 @@
       <c r="A1" s="74" t="s">
         <v>428</v>
       </c>
-      <c r="C1" s="120">
+      <c r="C1" s="128">
         <v>44307</v>
       </c>
     </row>
@@ -3160,14 +3160,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="125" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="127"/>
+      <c r="A1" s="124" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="126"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -3477,14 +3477,14 @@
     </row>
     <row r="17" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="121" t="s">
+      <c r="A18" s="120" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="122"/>
-      <c r="C18" s="122"/>
-      <c r="D18" s="123"/>
-      <c r="E18" s="123"/>
-      <c r="F18" s="124"/>
+      <c r="B18" s="121"/>
+      <c r="C18" s="121"/>
+      <c r="D18" s="122"/>
+      <c r="E18" s="122"/>
+      <c r="F18" s="123"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="96" t="s">
@@ -4392,14 +4392,14 @@
     </row>
     <row r="74" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="75" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A75" s="125" t="s">
+      <c r="A75" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="126"/>
-      <c r="C75" s="126"/>
-      <c r="D75" s="128"/>
-      <c r="E75" s="128"/>
-      <c r="F75" s="127"/>
+      <c r="B75" s="125"/>
+      <c r="C75" s="125"/>
+      <c r="D75" s="127"/>
+      <c r="E75" s="127"/>
+      <c r="F75" s="126"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
@@ -5001,14 +5001,14 @@
     </row>
     <row r="109" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="110" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A110" s="125" t="s">
+      <c r="A110" s="124" t="s">
         <v>41</v>
       </c>
-      <c r="B110" s="126"/>
-      <c r="C110" s="126"/>
-      <c r="D110" s="128"/>
-      <c r="E110" s="128"/>
-      <c r="F110" s="127"/>
+      <c r="B110" s="125"/>
+      <c r="C110" s="125"/>
+      <c r="D110" s="127"/>
+      <c r="E110" s="127"/>
+      <c r="F110" s="126"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
@@ -5602,14 +5602,14 @@
     </row>
     <row r="144" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="145" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A145" s="121" t="s">
+      <c r="A145" s="120" t="s">
         <v>52</v>
       </c>
-      <c r="B145" s="122"/>
-      <c r="C145" s="122"/>
-      <c r="D145" s="123"/>
-      <c r="E145" s="123"/>
-      <c r="F145" s="124"/>
+      <c r="B145" s="121"/>
+      <c r="C145" s="121"/>
+      <c r="D145" s="122"/>
+      <c r="E145" s="122"/>
+      <c r="F145" s="123"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
@@ -5928,14 +5928,14 @@
     </row>
     <row r="163" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="164" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A164" s="121" t="s">
+      <c r="A164" s="120" t="s">
         <v>71</v>
       </c>
-      <c r="B164" s="122"/>
-      <c r="C164" s="122"/>
-      <c r="D164" s="123"/>
-      <c r="E164" s="123"/>
-      <c r="F164" s="124"/>
+      <c r="B164" s="121"/>
+      <c r="C164" s="121"/>
+      <c r="D164" s="122"/>
+      <c r="E164" s="122"/>
+      <c r="F164" s="123"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
@@ -6914,14 +6914,14 @@
     </row>
     <row r="218" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="219" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A219" s="121" t="s">
+      <c r="A219" s="120" t="s">
         <v>230</v>
       </c>
-      <c r="B219" s="122"/>
-      <c r="C219" s="122"/>
-      <c r="D219" s="123"/>
-      <c r="E219" s="123"/>
-      <c r="F219" s="124"/>
+      <c r="B219" s="121"/>
+      <c r="C219" s="121"/>
+      <c r="D219" s="122"/>
+      <c r="E219" s="122"/>
+      <c r="F219" s="123"/>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
@@ -7197,14 +7197,14 @@
     </row>
     <row r="234" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="235" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A235" s="121" t="s">
+      <c r="A235" s="120" t="s">
         <v>231</v>
       </c>
-      <c r="B235" s="122"/>
-      <c r="C235" s="122"/>
-      <c r="D235" s="123"/>
-      <c r="E235" s="123"/>
-      <c r="F235" s="124"/>
+      <c r="B235" s="121"/>
+      <c r="C235" s="121"/>
+      <c r="D235" s="122"/>
+      <c r="E235" s="122"/>
+      <c r="F235" s="123"/>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
@@ -8161,14 +8161,14 @@
       <c r="F288" s="10"/>
     </row>
     <row r="289" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A289" s="121" t="s">
+      <c r="A289" s="120" t="s">
         <v>341</v>
       </c>
-      <c r="B289" s="122"/>
-      <c r="C289" s="122"/>
-      <c r="D289" s="123"/>
-      <c r="E289" s="123"/>
-      <c r="F289" s="124"/>
+      <c r="B289" s="121"/>
+      <c r="C289" s="121"/>
+      <c r="D289" s="122"/>
+      <c r="E289" s="122"/>
+      <c r="F289" s="123"/>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" s="96" t="s">
@@ -8644,14 +8644,14 @@
       <c r="D314" s="107"/>
     </row>
     <row r="315" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A315" s="121" t="s">
+      <c r="A315" s="120" t="s">
         <v>369</v>
       </c>
-      <c r="B315" s="122"/>
-      <c r="C315" s="122"/>
-      <c r="D315" s="123"/>
-      <c r="E315" s="123"/>
-      <c r="F315" s="124"/>
+      <c r="B315" s="121"/>
+      <c r="C315" s="121"/>
+      <c r="D315" s="122"/>
+      <c r="E315" s="122"/>
+      <c r="F315" s="123"/>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A316" s="96" t="s">

--- a/InputData/elec/SoESCaOMCbIC/Share of Electricity Sector Capital and OM Costs by ISIC Code.xlsx
+++ b/InputData/elec/SoESCaOMCbIC/Share of Electricity Sector Capital and OM Costs by ISIC Code.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/elec/soescaomcbic/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\All_states_RMI\AR\elec\SoESCaOMCbIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD08BF6D-8A50-6345-B30F-9EE6CC238563}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D24CB21A-8D03-402E-BA6E-7EDF2AEC5280}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2540" yWindow="460" windowWidth="25660" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1845" yWindow="1770" windowWidth="20490" windowHeight="15075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="4" r:id="rId1"/>
@@ -31,6 +31,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="453">
   <si>
     <t>Solar PV</t>
   </si>
@@ -1394,6 +1395,9 @@
   </si>
   <si>
     <t>D07T08: Mining and quarrying of uranium and non-energy-producing products</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
   </si>
 </sst>
 </file>
@@ -1905,7 +1909,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2120,6 +2124,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2144,7 +2157,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -2432,24 +2444,27 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="61.83203125" customWidth="1"/>
-    <col min="3" max="3" width="4.5" customWidth="1"/>
-    <col min="4" max="4" width="65.6640625" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" customWidth="1"/>
-    <col min="6" max="6" width="63.5" customWidth="1"/>
+    <col min="2" max="2" width="61.85546875" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" customWidth="1"/>
+    <col min="4" max="4" width="65.7109375" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" customWidth="1"/>
+    <col min="6" max="6" width="63.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="74" t="s">
         <v>428</v>
       </c>
-      <c r="C1" s="128">
-        <v>44307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C1" s="124">
+        <v>44336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="74" t="s">
         <v>215</v>
       </c>
@@ -2463,7 +2478,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>216</v>
       </c>
@@ -2474,7 +2489,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="83">
         <v>2018</v>
       </c>
@@ -2485,7 +2500,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>217</v>
       </c>
@@ -2496,7 +2511,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="68" t="s">
         <v>218</v>
       </c>
@@ -2507,7 +2522,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>219</v>
       </c>
@@ -2518,7 +2533,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="82" t="s">
         <v>331</v>
       </c>
@@ -2529,7 +2544,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>216</v>
       </c>
@@ -2540,7 +2555,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="83">
         <v>2019</v>
       </c>
@@ -2551,7 +2566,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>291</v>
       </c>
@@ -2562,7 +2577,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="68" t="s">
         <v>290</v>
       </c>
@@ -2573,7 +2588,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>292</v>
       </c>
@@ -2584,7 +2599,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="82" t="s">
         <v>227</v>
       </c>
@@ -2595,7 +2610,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>216</v>
       </c>
@@ -2606,7 +2621,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="83">
         <v>2016</v>
       </c>
@@ -2617,7 +2632,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="115" t="s">
         <v>228</v>
       </c>
@@ -2630,7 +2645,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" s="117" t="s">
         <v>114</v>
       </c>
@@ -2643,7 +2658,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>334</v>
       </c>
@@ -2654,7 +2669,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="82" t="s">
         <v>332</v>
       </c>
@@ -2665,7 +2680,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>216</v>
       </c>
@@ -2676,7 +2691,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="83">
         <v>2016</v>
       </c>
@@ -2687,7 +2702,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>333</v>
       </c>
@@ -2698,7 +2713,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="68" t="s">
         <v>259</v>
       </c>
@@ -2709,7 +2724,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>292</v>
       </c>
@@ -2720,37 +2735,37 @@
         <v>292</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="74" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>359</v>
       </c>
@@ -2778,21 +2793,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="77.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="77.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="74" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="74" t="s">
         <v>194</v>
       </c>
@@ -2800,7 +2817,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>123</v>
       </c>
@@ -2808,7 +2825,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>433</v>
       </c>
@@ -2816,7 +2833,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>434</v>
       </c>
@@ -2824,7 +2841,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>451</v>
       </c>
@@ -2832,7 +2849,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>124</v>
       </c>
@@ -2840,7 +2857,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -2848,7 +2865,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>126</v>
       </c>
@@ -2856,7 +2873,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>127</v>
       </c>
@@ -2864,7 +2881,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>128</v>
       </c>
@@ -2872,7 +2889,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>129</v>
       </c>
@@ -2880,7 +2897,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>432</v>
       </c>
@@ -2888,7 +2905,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>431</v>
       </c>
@@ -2896,7 +2913,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>130</v>
       </c>
@@ -2904,7 +2921,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>444</v>
       </c>
@@ -2912,7 +2929,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>445</v>
       </c>
@@ -2920,7 +2937,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>446</v>
       </c>
@@ -2928,7 +2945,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>447</v>
       </c>
@@ -2936,7 +2953,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>131</v>
       </c>
@@ -2944,7 +2961,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>132</v>
       </c>
@@ -2952,7 +2969,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>133</v>
       </c>
@@ -2960,7 +2977,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>134</v>
       </c>
@@ -2968,7 +2985,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>135</v>
       </c>
@@ -2976,7 +2993,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>136</v>
       </c>
@@ -2984,7 +3001,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>137</v>
       </c>
@@ -2992,7 +3009,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>448</v>
       </c>
@@ -3000,7 +3017,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>449</v>
       </c>
@@ -3008,7 +3025,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>450</v>
       </c>
@@ -3016,7 +3033,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>138</v>
       </c>
@@ -3024,7 +3041,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>139</v>
       </c>
@@ -3032,7 +3049,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>140</v>
       </c>
@@ -3040,7 +3057,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>141</v>
       </c>
@@ -3048,7 +3065,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>142</v>
       </c>
@@ -3056,7 +3073,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>143</v>
       </c>
@@ -3064,7 +3081,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>144</v>
       </c>
@@ -3072,7 +3089,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>145</v>
       </c>
@@ -3080,7 +3097,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>146</v>
       </c>
@@ -3088,7 +3105,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>147</v>
       </c>
@@ -3096,7 +3113,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>148</v>
       </c>
@@ -3104,7 +3121,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>149</v>
       </c>
@@ -3112,7 +3129,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>150</v>
       </c>
@@ -3120,7 +3137,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>151</v>
       </c>
@@ -3128,7 +3145,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>152</v>
       </c>
@@ -3145,31 +3162,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F381"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView topLeftCell="A331" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D381" sqref="D381"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="65.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="65.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="74" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.5" customWidth="1"/>
-    <col min="6" max="6" width="60.5" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.5703125" customWidth="1"/>
+    <col min="6" max="6" width="60.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="124" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="126"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="129" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="131"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3189,7 +3206,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -3201,7 +3218,7 @@
       <c r="E3" s="21"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>153</v>
       </c>
@@ -3223,7 +3240,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>154</v>
       </c>
@@ -3245,7 +3262,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>155</v>
       </c>
@@ -3267,7 +3284,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>156</v>
       </c>
@@ -3289,7 +3306,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>157</v>
       </c>
@@ -3311,7 +3328,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>158</v>
       </c>
@@ -3333,7 +3350,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>159</v>
       </c>
@@ -3355,7 +3372,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>160</v>
       </c>
@@ -3377,7 +3394,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
@@ -3399,7 +3416,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="59" t="s">
         <v>161</v>
       </c>
@@ -3421,7 +3438,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="92" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" s="92" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>8</v>
       </c>
@@ -3431,7 +3448,7 @@
       <c r="E14" s="13"/>
       <c r="F14" s="14"/>
     </row>
-    <row r="15" spans="1:6" s="76" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" s="76" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>261</v>
       </c>
@@ -3453,7 +3470,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="91" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="91" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>262</v>
       </c>
@@ -3475,18 +3492,18 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="120" t="s">
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="121"/>
-      <c r="C18" s="121"/>
-      <c r="D18" s="122"/>
-      <c r="E18" s="122"/>
-      <c r="F18" s="123"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="126"/>
+      <c r="C18" s="126"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="127"/>
+      <c r="F18" s="128"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="96" t="s">
         <v>1</v>
       </c>
@@ -3506,7 +3523,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>6</v>
       </c>
@@ -3518,7 +3535,7 @@
       <c r="E20" s="21"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>241</v>
       </c>
@@ -3528,7 +3545,7 @@
       <c r="E21" s="94"/>
       <c r="F21" s="58"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
         <v>263</v>
       </c>
@@ -3548,7 +3565,7 @@
       </c>
       <c r="F22" s="16"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>264</v>
       </c>
@@ -3556,19 +3573,19 @@
         <v>9.8886671808605733E-2</v>
       </c>
       <c r="C23" s="21" t="str">
-        <f>'OECD Mapping'!A25</f>
-        <v>D31T33: Other manufacturing; repair and installation of machinery and equipment</v>
+        <f>'OECD Mapping'!A22</f>
+        <v>D28: Machinery and equipment, nec</v>
       </c>
       <c r="D23" s="21" t="str">
-        <f>'OECD Mapping'!B25</f>
-        <v>ISIC 31T33</v>
+        <f>'OECD Mapping'!B22</f>
+        <v>ISIC 28</v>
       </c>
       <c r="E23" s="94" t="s">
         <v>309</v>
       </c>
       <c r="F23" s="16"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
         <v>265</v>
       </c>
@@ -3588,7 +3605,7 @@
       </c>
       <c r="F24" s="16"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>266</v>
       </c>
@@ -3608,7 +3625,7 @@
       </c>
       <c r="F25" s="16"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
         <v>267</v>
       </c>
@@ -3620,7 +3637,7 @@
       <c r="E26" s="94"/>
       <c r="F26" s="16"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
         <v>118</v>
       </c>
@@ -3630,7 +3647,7 @@
       <c r="E27" s="94"/>
       <c r="F27" s="16"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>232</v>
       </c>
@@ -3640,7 +3657,7 @@
       <c r="E28" s="94"/>
       <c r="F28" s="16"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>268</v>
       </c>
@@ -3660,7 +3677,7 @@
       </c>
       <c r="F29" s="16"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
         <v>269</v>
       </c>
@@ -3668,50 +3685,50 @@
         <v>1.1545687086842617E-2</v>
       </c>
       <c r="C30" s="21" t="str">
+        <f>'OECD Mapping'!A22</f>
+        <v>D28: Machinery and equipment, nec</v>
+      </c>
+      <c r="D30" s="21" t="str">
+        <f>'OECD Mapping'!B22</f>
+        <v>ISIC 28</v>
+      </c>
+      <c r="E30" s="94" t="s">
+        <v>309</v>
+      </c>
+      <c r="F30" s="16"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="B31" s="15">
+        <v>1.2169934344764067E-2</v>
+      </c>
+      <c r="C31" s="21" t="str">
         <f>'OECD Mapping'!A21</f>
         <v>D27: Electrical equipment</v>
       </c>
-      <c r="D30" s="21" t="str">
+      <c r="D31" s="21" t="str">
         <f>'OECD Mapping'!B21</f>
         <v>ISIC 27</v>
       </c>
-      <c r="E30" s="94" t="s">
-        <v>309</v>
-      </c>
-      <c r="F30" s="16"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="20" t="s">
-        <v>270</v>
-      </c>
-      <c r="B31" s="15">
-        <v>1.2169934344764067E-2</v>
-      </c>
-      <c r="C31" s="21" t="str">
-        <f>'OECD Mapping'!A25</f>
-        <v>D31T33: Other manufacturing; repair and installation of machinery and equipment</v>
-      </c>
-      <c r="D31" s="21" t="str">
-        <f>'OECD Mapping'!B25</f>
-        <v>ISIC 31T33</v>
-      </c>
       <c r="E31" s="94" t="s">
         <v>309</v>
       </c>
       <c r="F31" s="16"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
         <v>271</v>
       </c>
       <c r="B32" s="95">
         <v>2.2230409954455552E-2</v>
       </c>
-      <c r="C32" s="97" t="str">
+      <c r="C32" s="121" t="str">
         <f>'OECD Mapping'!A29</f>
         <v>D41T43: Construction</v>
       </c>
-      <c r="D32" s="97" t="str">
+      <c r="D32" s="121" t="str">
         <f>'OECD Mapping'!B29</f>
         <v>ISIC 41T43</v>
       </c>
@@ -3720,7 +3737,7 @@
       </c>
       <c r="F32" s="6"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>272</v>
       </c>
@@ -3732,7 +3749,7 @@
       <c r="E33" s="94"/>
       <c r="F33" s="16"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
         <v>235</v>
       </c>
@@ -3742,7 +3759,7 @@
       <c r="E34" s="94"/>
       <c r="F34" s="16"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>273</v>
       </c>
@@ -3762,7 +3779,7 @@
       </c>
       <c r="F35" s="6"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
         <v>274</v>
       </c>
@@ -3782,7 +3799,7 @@
       </c>
       <c r="F36" s="6"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
         <v>240</v>
       </c>
@@ -3802,7 +3819,7 @@
       </c>
       <c r="F37" s="6"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
         <v>275</v>
       </c>
@@ -3822,7 +3839,7 @@
       </c>
       <c r="F38" s="6"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
         <v>276</v>
       </c>
@@ -3842,7 +3859,7 @@
       </c>
       <c r="F39" s="6"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="20" t="s">
         <v>277</v>
       </c>
@@ -3854,7 +3871,7 @@
       <c r="E40" s="21"/>
       <c r="F40" s="6"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
         <v>278</v>
       </c>
@@ -3864,7 +3881,7 @@
       <c r="E41" s="21"/>
       <c r="F41" s="6"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
         <v>279</v>
       </c>
@@ -3874,7 +3891,7 @@
       <c r="E42" s="21"/>
       <c r="F42" s="6"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
         <v>280</v>
       </c>
@@ -3882,19 +3899,19 @@
         <v>7.014549101207153E-3</v>
       </c>
       <c r="C43" s="21" t="str">
-        <f>'OECD Mapping'!A25</f>
-        <v>D31T33: Other manufacturing; repair and installation of machinery and equipment</v>
+        <f>'OECD Mapping'!A22</f>
+        <v>D28: Machinery and equipment, nec</v>
       </c>
       <c r="D43" s="21" t="str">
-        <f>'OECD Mapping'!B25</f>
-        <v>ISIC 31T33</v>
+        <f>'OECD Mapping'!B22</f>
+        <v>ISIC 28</v>
       </c>
       <c r="E43" s="94" t="s">
         <v>309</v>
       </c>
       <c r="F43" s="6"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
         <v>281</v>
       </c>
@@ -3914,7 +3931,7 @@
       </c>
       <c r="F44" s="6"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="20" t="s">
         <v>282</v>
       </c>
@@ -3934,7 +3951,7 @@
       </c>
       <c r="F45" s="6"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
         <v>283</v>
       </c>
@@ -3954,7 +3971,7 @@
       </c>
       <c r="F46" s="6"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
         <v>284</v>
       </c>
@@ -3974,7 +3991,7 @@
       </c>
       <c r="F47" s="6"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
         <v>285</v>
       </c>
@@ -3994,7 +4011,7 @@
       </c>
       <c r="F48" s="6"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="20" t="s">
         <v>286</v>
       </c>
@@ -4006,7 +4023,7 @@
       <c r="E49" s="21"/>
       <c r="F49" s="6"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
         <v>287</v>
       </c>
@@ -4018,7 +4035,7 @@
       <c r="E50" s="21"/>
       <c r="F50" s="6"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
         <v>288</v>
       </c>
@@ -4030,7 +4047,7 @@
       <c r="E51" s="21"/>
       <c r="F51" s="6"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
         <v>289</v>
       </c>
@@ -4050,7 +4067,7 @@
       </c>
       <c r="F52" s="6"/>
     </row>
-    <row r="53" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="24" t="s">
         <v>11</v>
       </c>
@@ -4062,7 +4079,7 @@
       <c r="E53" s="25"/>
       <c r="F53" s="10"/>
     </row>
-    <row r="54" spans="1:6" s="92" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" s="92" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>8</v>
       </c>
@@ -4072,7 +4089,7 @@
       <c r="E54" s="13"/>
       <c r="F54" s="14"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
         <v>65</v>
       </c>
@@ -4082,7 +4099,7 @@
       <c r="E55" s="21"/>
       <c r="F55" s="6"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="20" t="s">
         <v>293</v>
       </c>
@@ -4092,7 +4109,7 @@
       <c r="E56" s="21"/>
       <c r="F56" s="6"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="20" t="s">
         <v>294</v>
       </c>
@@ -4112,7 +4129,7 @@
       </c>
       <c r="F57" s="6"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="20" t="s">
         <v>295</v>
       </c>
@@ -4132,7 +4149,7 @@
       </c>
       <c r="F58" s="6"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="20" t="s">
         <v>296</v>
       </c>
@@ -4152,7 +4169,7 @@
       </c>
       <c r="F59" s="6"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="20" t="s">
         <v>297</v>
       </c>
@@ -4164,7 +4181,7 @@
       <c r="E60" s="21"/>
       <c r="F60" s="6"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="20" t="s">
         <v>105</v>
       </c>
@@ -4174,7 +4191,7 @@
       <c r="E61" s="21"/>
       <c r="F61" s="6"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="20" t="s">
         <v>298</v>
       </c>
@@ -4194,7 +4211,7 @@
       </c>
       <c r="F62" s="6"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="20" t="s">
         <v>299</v>
       </c>
@@ -4214,7 +4231,7 @@
       </c>
       <c r="F63" s="6"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="20" t="s">
         <v>300</v>
       </c>
@@ -4234,7 +4251,7 @@
       </c>
       <c r="F64" s="6"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="20" t="s">
         <v>301</v>
       </c>
@@ -4254,7 +4271,7 @@
       </c>
       <c r="F65" s="6"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="20" t="s">
         <v>302</v>
       </c>
@@ -4274,7 +4291,7 @@
       </c>
       <c r="F66" s="6"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="20" t="s">
         <v>303</v>
       </c>
@@ -4282,19 +4299,19 @@
         <v>9.5771625191948158E-3</v>
       </c>
       <c r="C67" s="21" t="str">
-        <f>'OECD Mapping'!A30</f>
-        <v>D45T47: Wholesale and retail trade; repair of motor vehicles</v>
+        <f>'OECD Mapping'!A11</f>
+        <v>D19: Coke and refined petroleum products</v>
       </c>
       <c r="D67" s="21" t="str">
-        <f>'OECD Mapping'!B30</f>
-        <v>ISIC 45T47</v>
+        <f>'OECD Mapping'!B11</f>
+        <v>ISIC 19</v>
       </c>
       <c r="E67" s="94" t="s">
         <v>309</v>
       </c>
       <c r="F67" s="6"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="20" t="s">
         <v>304</v>
       </c>
@@ -4314,7 +4331,7 @@
       </c>
       <c r="F68" s="6"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="20" t="s">
         <v>305</v>
       </c>
@@ -4322,19 +4339,19 @@
         <v>0.54552991118951999</v>
       </c>
       <c r="C69" s="21" t="str">
-        <f>'OECD Mapping'!A25</f>
-        <v>D31T33: Other manufacturing; repair and installation of machinery and equipment</v>
+        <f>'OECD Mapping'!A22</f>
+        <v>D28: Machinery and equipment, nec</v>
       </c>
       <c r="D69" s="21" t="str">
-        <f>'OECD Mapping'!B25</f>
-        <v>ISIC 31T33</v>
+        <f>'OECD Mapping'!B22</f>
+        <v>ISIC 28</v>
       </c>
       <c r="E69" s="94" t="s">
         <v>309</v>
       </c>
       <c r="F69" s="6"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="20" t="s">
         <v>306</v>
       </c>
@@ -4346,7 +4363,7 @@
       <c r="E70" s="21"/>
       <c r="F70" s="6"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="20" t="s">
         <v>50</v>
       </c>
@@ -4366,7 +4383,7 @@
       </c>
       <c r="F71" s="6"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="20" t="s">
         <v>307</v>
       </c>
@@ -4378,7 +4395,7 @@
       <c r="E72" s="21"/>
       <c r="F72" s="6"/>
     </row>
-    <row r="73" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="24" t="s">
         <v>308</v>
       </c>
@@ -4390,18 +4407,18 @@
       <c r="E73" s="25"/>
       <c r="F73" s="10"/>
     </row>
-    <row r="74" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A75" s="124" t="s">
+    <row r="74" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A75" s="129" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="125"/>
-      <c r="C75" s="125"/>
-      <c r="D75" s="127"/>
-      <c r="E75" s="127"/>
-      <c r="F75" s="126"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B75" s="130"/>
+      <c r="C75" s="130"/>
+      <c r="D75" s="132"/>
+      <c r="E75" s="132"/>
+      <c r="F75" s="131"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>1</v>
       </c>
@@ -4421,7 +4438,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>6</v>
       </c>
@@ -4429,7 +4446,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>14</v>
       </c>
@@ -4440,7 +4457,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>16</v>
       </c>
@@ -4462,7 +4479,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>17</v>
       </c>
@@ -4484,7 +4501,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>18</v>
       </c>
@@ -4506,7 +4523,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="30" t="s">
         <v>19</v>
       </c>
@@ -4521,7 +4538,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>20</v>
       </c>
@@ -4533,7 +4550,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>21</v>
       </c>
@@ -4555,7 +4572,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>22</v>
       </c>
@@ -4577,7 +4594,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="30" t="s">
         <v>23</v>
       </c>
@@ -4592,7 +4609,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="30" t="s">
         <v>24</v>
       </c>
@@ -4607,7 +4624,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="31" t="s">
         <v>25</v>
       </c>
@@ -4619,7 +4636,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>26</v>
       </c>
@@ -4641,7 +4658,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>27</v>
       </c>
@@ -4663,7 +4680,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="32" t="s">
         <v>28</v>
       </c>
@@ -4685,7 +4702,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>29</v>
       </c>
@@ -4707,7 +4724,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>30</v>
       </c>
@@ -4729,7 +4746,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>31</v>
       </c>
@@ -4751,7 +4768,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>32</v>
       </c>
@@ -4773,7 +4790,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>33</v>
       </c>
@@ -4795,7 +4812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="30" t="s">
         <v>34</v>
       </c>
@@ -4808,7 +4825,7 @@
       <c r="E97" s="77"/>
       <c r="F97" s="16"/>
     </row>
-    <row r="98" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="33" t="s">
         <v>35</v>
       </c>
@@ -4821,7 +4838,7 @@
       <c r="E98" s="36"/>
       <c r="F98" s="37"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
         <v>8</v>
       </c>
@@ -4831,7 +4848,7 @@
       <c r="E99" s="39"/>
       <c r="F99" s="14"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="40" t="s">
         <v>20</v>
       </c>
@@ -4853,7 +4870,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="40" t="s">
         <v>36</v>
       </c>
@@ -4875,7 +4892,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="40" t="s">
         <v>37</v>
       </c>
@@ -4897,7 +4914,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="42" t="s">
         <v>35</v>
       </c>
@@ -4910,7 +4927,7 @@
       <c r="E103" s="45"/>
       <c r="F103" s="10"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
         <v>38</v>
       </c>
@@ -4920,7 +4937,7 @@
       <c r="E104" s="39"/>
       <c r="F104" s="14"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="40" t="s">
         <v>39</v>
       </c>
@@ -4942,7 +4959,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="40" t="s">
         <v>40</v>
       </c>
@@ -4964,7 +4981,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="40" t="s">
         <v>29</v>
       </c>
@@ -4986,7 +5003,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="42" t="s">
         <v>35</v>
       </c>
@@ -4999,18 +5016,18 @@
       <c r="E108" s="45"/>
       <c r="F108" s="10"/>
     </row>
-    <row r="109" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="110" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A110" s="124" t="s">
+    <row r="109" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="110" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A110" s="129" t="s">
         <v>41</v>
       </c>
-      <c r="B110" s="125"/>
-      <c r="C110" s="125"/>
-      <c r="D110" s="127"/>
-      <c r="E110" s="127"/>
-      <c r="F110" s="126"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B110" s="130"/>
+      <c r="C110" s="130"/>
+      <c r="D110" s="132"/>
+      <c r="E110" s="132"/>
+      <c r="F110" s="131"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>1</v>
       </c>
@@ -5030,7 +5047,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>6</v>
       </c>
@@ -5042,12 +5059,12 @@
       <c r="E112" s="3"/>
       <c r="F112" s="16"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
         <v>16</v>
       </c>
@@ -5069,7 +5086,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
         <v>17</v>
       </c>
@@ -5091,7 +5108,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
         <v>18</v>
       </c>
@@ -5113,7 +5130,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
         <v>43</v>
       </c>
@@ -5127,7 +5144,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
         <v>44</v>
       </c>
@@ -5139,7 +5156,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
         <v>21</v>
       </c>
@@ -5161,7 +5178,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
         <v>45</v>
       </c>
@@ -5183,7 +5200,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
         <v>46</v>
       </c>
@@ -5205,7 +5222,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
         <v>43</v>
       </c>
@@ -5219,7 +5236,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
         <v>24</v>
       </c>
@@ -5233,7 +5250,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="31" t="s">
         <v>25</v>
       </c>
@@ -5245,7 +5262,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
         <v>47</v>
       </c>
@@ -5267,7 +5284,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
         <v>27</v>
       </c>
@@ -5289,7 +5306,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="32" t="s">
         <v>28</v>
       </c>
@@ -5311,7 +5328,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
         <v>48</v>
       </c>
@@ -5333,7 +5350,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
         <v>30</v>
       </c>
@@ -5355,7 +5372,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
         <v>33</v>
       </c>
@@ -5377,7 +5394,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
         <v>34</v>
       </c>
@@ -5389,7 +5406,7 @@
       <c r="E131" s="77"/>
       <c r="F131" s="16"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="31" t="s">
         <v>49</v>
       </c>
@@ -5403,7 +5420,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="49" t="s">
         <v>50</v>
       </c>
@@ -5418,7 +5435,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="11" t="s">
         <v>8</v>
       </c>
@@ -5430,7 +5447,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="40" t="s">
         <v>20</v>
       </c>
@@ -5452,7 +5469,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="40" t="s">
         <v>36</v>
       </c>
@@ -5474,7 +5491,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="40" t="s">
         <v>37</v>
       </c>
@@ -5496,7 +5513,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="42" t="s">
         <v>35</v>
       </c>
@@ -5511,7 +5528,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="11" t="s">
         <v>38</v>
       </c>
@@ -5521,7 +5538,7 @@
       <c r="E139" s="39"/>
       <c r="F139" s="14"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="40" t="s">
         <v>51</v>
       </c>
@@ -5543,7 +5560,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="40" t="s">
         <v>40</v>
       </c>
@@ -5565,7 +5582,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="40" t="s">
         <v>29</v>
       </c>
@@ -5587,7 +5604,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="42" t="s">
         <v>35</v>
       </c>
@@ -5600,18 +5617,18 @@
       <c r="E143" s="26"/>
       <c r="F143" s="10"/>
     </row>
-    <row r="144" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="145" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A145" s="120" t="s">
+    <row r="144" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="145" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A145" s="125" t="s">
         <v>52</v>
       </c>
-      <c r="B145" s="121"/>
-      <c r="C145" s="121"/>
-      <c r="D145" s="122"/>
-      <c r="E145" s="122"/>
-      <c r="F145" s="123"/>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B145" s="126"/>
+      <c r="C145" s="126"/>
+      <c r="D145" s="127"/>
+      <c r="E145" s="127"/>
+      <c r="F145" s="128"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>1</v>
       </c>
@@ -5631,7 +5648,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
         <v>6</v>
       </c>
@@ -5643,7 +5660,7 @@
       <c r="E147" s="3"/>
       <c r="F147" s="16"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
         <v>53</v>
       </c>
@@ -5653,7 +5670,7 @@
       <c r="E148" s="22"/>
       <c r="F148" s="6"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
         <v>54</v>
       </c>
@@ -5672,7 +5689,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
         <v>57</v>
       </c>
@@ -5694,7 +5711,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
         <v>58</v>
       </c>
@@ -5716,7 +5733,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
         <v>59</v>
       </c>
@@ -5738,7 +5755,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
         <v>60</v>
       </c>
@@ -5760,7 +5777,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
         <v>61</v>
       </c>
@@ -5782,7 +5799,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
         <v>62</v>
       </c>
@@ -5804,7 +5821,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
         <v>63</v>
       </c>
@@ -5826,7 +5843,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
         <v>64</v>
       </c>
@@ -5848,7 +5865,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="59" t="s">
         <v>11</v>
       </c>
@@ -5862,7 +5879,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="11" t="s">
         <v>8</v>
       </c>
@@ -5872,7 +5889,7 @@
       <c r="E159" s="62"/>
       <c r="F159" s="14"/>
     </row>
-    <row r="160" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="63" t="s">
         <v>65</v>
       </c>
@@ -5894,7 +5911,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="11" t="s">
         <v>38</v>
       </c>
@@ -5904,7 +5921,7 @@
       <c r="E161" s="62"/>
       <c r="F161" s="14"/>
     </row>
-    <row r="162" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="24" t="s">
         <v>68</v>
       </c>
@@ -5926,18 +5943,18 @@
         <v>70</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="164" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A164" s="120" t="s">
+    <row r="163" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="164" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A164" s="125" t="s">
         <v>71</v>
       </c>
-      <c r="B164" s="121"/>
-      <c r="C164" s="121"/>
-      <c r="D164" s="122"/>
-      <c r="E164" s="122"/>
-      <c r="F164" s="123"/>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B164" s="126"/>
+      <c r="C164" s="126"/>
+      <c r="D164" s="127"/>
+      <c r="E164" s="127"/>
+      <c r="F164" s="128"/>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>1</v>
       </c>
@@ -5957,7 +5974,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
         <v>6</v>
       </c>
@@ -5969,7 +5986,7 @@
       <c r="E166" s="3"/>
       <c r="F166" s="16"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="65" t="s">
         <v>72</v>
       </c>
@@ -5980,7 +5997,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
         <v>74</v>
       </c>
@@ -6002,7 +6019,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
         <v>75</v>
       </c>
@@ -6024,7 +6041,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
         <v>76</v>
       </c>
@@ -6038,7 +6055,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
         <v>77</v>
       </c>
@@ -6050,7 +6067,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
         <v>78</v>
       </c>
@@ -6072,7 +6089,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
         <v>79</v>
       </c>
@@ -6086,7 +6103,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
         <v>80</v>
       </c>
@@ -6098,7 +6115,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="7" t="s">
         <v>81</v>
       </c>
@@ -6120,7 +6137,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="7" t="s">
         <v>82</v>
       </c>
@@ -6142,7 +6159,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
         <v>83</v>
       </c>
@@ -6164,7 +6181,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="7" t="s">
         <v>84</v>
       </c>
@@ -6186,7 +6203,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
         <v>85</v>
       </c>
@@ -6208,7 +6225,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
         <v>86</v>
       </c>
@@ -6230,7 +6247,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
         <v>87</v>
       </c>
@@ -6252,7 +6269,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="7" t="s">
         <v>88</v>
       </c>
@@ -6266,7 +6283,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="7" t="s">
         <v>89</v>
       </c>
@@ -6278,7 +6295,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
         <v>78</v>
       </c>
@@ -6300,7 +6317,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="7" t="s">
         <v>90</v>
       </c>
@@ -6322,7 +6339,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="7" t="s">
         <v>91</v>
       </c>
@@ -6344,7 +6361,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="7" t="s">
         <v>92</v>
       </c>
@@ -6366,7 +6383,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="7" t="s">
         <v>93</v>
       </c>
@@ -6388,7 +6405,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
         <v>94</v>
       </c>
@@ -6410,7 +6427,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
         <v>95</v>
       </c>
@@ -6432,7 +6449,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="7" t="s">
         <v>96</v>
       </c>
@@ -6454,7 +6471,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="7" t="s">
         <v>97</v>
       </c>
@@ -6468,7 +6485,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="7" t="s">
         <v>25</v>
       </c>
@@ -6480,7 +6497,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="7" t="s">
         <v>98</v>
       </c>
@@ -6502,7 +6519,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="7" t="s">
         <v>99</v>
       </c>
@@ -6524,7 +6541,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="7" t="s">
         <v>100</v>
       </c>
@@ -6546,7 +6563,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
         <v>101</v>
       </c>
@@ -6568,7 +6585,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="7" t="s">
         <v>102</v>
       </c>
@@ -6590,7 +6607,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="7" t="s">
         <v>34</v>
       </c>
@@ -6604,7 +6621,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="7" t="s">
         <v>103</v>
       </c>
@@ -6618,7 +6635,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="7" t="s">
         <v>50</v>
       </c>
@@ -6632,7 +6649,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="59" t="s">
         <v>11</v>
       </c>
@@ -6646,7 +6663,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="11" t="s">
         <v>8</v>
       </c>
@@ -6658,7 +6675,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="7" t="s">
         <v>104</v>
       </c>
@@ -6680,7 +6697,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="7" t="s">
         <v>105</v>
       </c>
@@ -6692,20 +6709,20 @@
         <v>73</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="7" t="s">
         <v>106</v>
       </c>
       <c r="B206" s="15">
         <v>9.6589707207620543E-2</v>
       </c>
-      <c r="C206" s="21" t="str">
-        <f>'OECD Mapping'!A25</f>
-        <v>D31T33: Other manufacturing; repair and installation of machinery and equipment</v>
-      </c>
-      <c r="D206" s="21" t="str">
-        <f>'OECD Mapping'!B25</f>
-        <v>ISIC 31T33</v>
+      <c r="C206" s="120" t="str">
+        <f>'OECD Mapping'!A22</f>
+        <v>D28: Machinery and equipment, nec</v>
+      </c>
+      <c r="D206" s="120" t="str">
+        <f>'OECD Mapping'!B22</f>
+        <v>ISIC 28</v>
       </c>
       <c r="E206" s="77" t="s">
         <v>311</v>
@@ -6714,7 +6731,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="7" t="s">
         <v>101</v>
       </c>
@@ -6736,7 +6753,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="7" t="s">
         <v>107</v>
       </c>
@@ -6758,7 +6775,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
         <v>108</v>
       </c>
@@ -6780,7 +6797,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
         <v>109</v>
       </c>
@@ -6802,7 +6819,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
         <v>110</v>
       </c>
@@ -6824,7 +6841,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
         <v>111</v>
       </c>
@@ -6838,7 +6855,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="7" t="s">
         <v>103</v>
       </c>
@@ -6852,7 +6869,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="7" t="s">
         <v>50</v>
       </c>
@@ -6866,7 +6883,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="59" t="s">
         <v>112</v>
       </c>
@@ -6880,7 +6897,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="11" t="s">
         <v>38</v>
       </c>
@@ -6890,7 +6907,7 @@
       <c r="E216" s="62"/>
       <c r="F216" s="14"/>
     </row>
-    <row r="217" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="100" t="s">
         <v>312</v>
       </c>
@@ -6912,18 +6929,18 @@
         <v>313</v>
       </c>
     </row>
-    <row r="218" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="219" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A219" s="120" t="s">
+    <row r="218" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="219" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A219" s="125" t="s">
         <v>230</v>
       </c>
-      <c r="B219" s="121"/>
-      <c r="C219" s="121"/>
-      <c r="D219" s="122"/>
-      <c r="E219" s="122"/>
-      <c r="F219" s="123"/>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B219" s="126"/>
+      <c r="C219" s="126"/>
+      <c r="D219" s="127"/>
+      <c r="E219" s="127"/>
+      <c r="F219" s="128"/>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>1</v>
       </c>
@@ -6943,7 +6960,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="5" t="s">
         <v>6</v>
       </c>
@@ -6955,7 +6972,7 @@
       <c r="E221" s="3"/>
       <c r="F221" s="16"/>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="20" t="s">
         <v>113</v>
       </c>
@@ -6977,7 +6994,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="20" t="s">
         <v>115</v>
       </c>
@@ -6999,7 +7016,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="20" t="s">
         <v>116</v>
       </c>
@@ -7021,7 +7038,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="20" t="s">
         <v>117</v>
       </c>
@@ -7043,7 +7060,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="20" t="s">
         <v>118</v>
       </c>
@@ -7051,12 +7068,12 @@
         <v>0.11999999999999998</v>
       </c>
       <c r="C226" s="21" t="str">
-        <f>'OECD Mapping'!A25</f>
-        <v>D31T33: Other manufacturing; repair and installation of machinery and equipment</v>
+        <f>'OECD Mapping'!A22</f>
+        <v>D28: Machinery and equipment, nec</v>
       </c>
       <c r="D226" s="21" t="str">
-        <f>'OECD Mapping'!B25</f>
-        <v>ISIC 31T33</v>
+        <f>'OECD Mapping'!B22</f>
+        <v>ISIC 28</v>
       </c>
       <c r="E226" s="101" t="s">
         <v>198</v>
@@ -7065,7 +7082,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="227" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="70" t="s">
         <v>119</v>
       </c>
@@ -7087,7 +7104,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="11" t="s">
         <v>8</v>
       </c>
@@ -7097,7 +7114,7 @@
       <c r="E228" s="62"/>
       <c r="F228" s="54"/>
     </row>
-    <row r="229" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="24" t="s">
         <v>65</v>
       </c>
@@ -7119,7 +7136,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="11" t="s">
         <v>38</v>
       </c>
@@ -7129,7 +7146,7 @@
       <c r="E230" s="62"/>
       <c r="F230" s="14"/>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="7" t="s">
         <v>120</v>
       </c>
@@ -7151,7 +7168,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="7" t="s">
         <v>121</v>
       </c>
@@ -7173,7 +7190,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="233" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="17" t="s">
         <v>122</v>
       </c>
@@ -7195,18 +7212,18 @@
         <v>114</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="235" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A235" s="120" t="s">
+    <row r="234" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="235" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A235" s="125" t="s">
         <v>231</v>
       </c>
-      <c r="B235" s="121"/>
-      <c r="C235" s="121"/>
-      <c r="D235" s="122"/>
-      <c r="E235" s="122"/>
-      <c r="F235" s="123"/>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B235" s="126"/>
+      <c r="C235" s="126"/>
+      <c r="D235" s="127"/>
+      <c r="E235" s="127"/>
+      <c r="F235" s="128"/>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>1</v>
       </c>
@@ -7226,7 +7243,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="5" t="s">
         <v>6</v>
       </c>
@@ -7238,7 +7255,7 @@
       <c r="E237" s="2"/>
       <c r="F237" s="16"/>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="87" t="s">
         <v>232</v>
       </c>
@@ -7248,7 +7265,7 @@
       <c r="E238" s="21"/>
       <c r="F238" s="58"/>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="87" t="s">
         <v>233</v>
       </c>
@@ -7270,7 +7287,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="87" t="s">
         <v>234</v>
       </c>
@@ -7282,7 +7299,7 @@
       <c r="E240" s="21"/>
       <c r="F240" s="16"/>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="87" t="s">
         <v>235</v>
       </c>
@@ -7292,7 +7309,7 @@
       <c r="E241" s="21"/>
       <c r="F241" s="16"/>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="87" t="s">
         <v>236</v>
       </c>
@@ -7314,7 +7331,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="87" t="s">
         <v>237</v>
       </c>
@@ -7336,7 +7353,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="40" t="s">
         <v>238</v>
       </c>
@@ -7358,7 +7375,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="87" t="s">
         <v>239</v>
       </c>
@@ -7380,7 +7397,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="40" t="s">
         <v>240</v>
       </c>
@@ -7402,7 +7419,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="7" t="s">
         <v>234</v>
       </c>
@@ -7414,7 +7431,7 @@
       <c r="E247" s="21"/>
       <c r="F247" s="16"/>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="7" t="s">
         <v>76</v>
       </c>
@@ -7426,7 +7443,7 @@
       <c r="E248" s="21"/>
       <c r="F248" s="16"/>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="7" t="s">
         <v>241</v>
       </c>
@@ -7436,7 +7453,7 @@
       <c r="E249" s="21"/>
       <c r="F249" s="16"/>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="87" t="s">
         <v>242</v>
       </c>
@@ -7444,12 +7461,12 @@
         <v>5.9171738835744038E-2</v>
       </c>
       <c r="C250" s="21" t="str">
-        <f>'OECD Mapping'!A25</f>
-        <v>D31T33: Other manufacturing; repair and installation of machinery and equipment</v>
+        <f>'OECD Mapping'!A15</f>
+        <v>D231: Glass</v>
       </c>
       <c r="D250" s="21" t="str">
-        <f>'OECD Mapping'!B25</f>
-        <v>ISIC 31T33</v>
+        <f>'OECD Mapping'!B15</f>
+        <v>ISIC 231</v>
       </c>
       <c r="E250" s="21" t="s">
         <v>260</v>
@@ -7458,7 +7475,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="87" t="s">
         <v>243</v>
       </c>
@@ -7480,7 +7497,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="87" t="s">
         <v>244</v>
       </c>
@@ -7502,7 +7519,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="87" t="s">
         <v>245</v>
       </c>
@@ -7524,7 +7541,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="87" t="s">
         <v>246</v>
       </c>
@@ -7546,20 +7563,20 @@
         <v>259</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="87" t="s">
         <v>247</v>
       </c>
       <c r="B255" s="15">
         <v>0.11718436104510066</v>
       </c>
-      <c r="C255" s="21" t="str">
-        <f>'OECD Mapping'!A25</f>
-        <v>D31T33: Other manufacturing; repair and installation of machinery and equipment</v>
-      </c>
-      <c r="D255" s="21" t="str">
-        <f>'OECD Mapping'!B25</f>
-        <v>ISIC 31T33</v>
+      <c r="C255" s="120" t="str">
+        <f>'OECD Mapping'!A22</f>
+        <v>D28: Machinery and equipment, nec</v>
+      </c>
+      <c r="D255" s="120" t="str">
+        <f>'OECD Mapping'!B22</f>
+        <v>ISIC 28</v>
       </c>
       <c r="E255" s="21" t="s">
         <v>260</v>
@@ -7568,18 +7585,18 @@
         <v>259</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="87" t="s">
         <v>248</v>
       </c>
       <c r="B256" s="15">
         <v>7.9186887114255214E-2</v>
       </c>
-      <c r="C256" s="21" t="str">
+      <c r="C256" s="120" t="str">
         <f>'OECD Mapping'!A22</f>
         <v>D28: Machinery and equipment, nec</v>
       </c>
-      <c r="D256" s="21" t="str">
+      <c r="D256" s="120" t="str">
         <f>'OECD Mapping'!B22</f>
         <v>ISIC 28</v>
       </c>
@@ -7590,18 +7607,18 @@
         <v>259</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="87" t="s">
         <v>249</v>
       </c>
       <c r="B257" s="15">
         <v>2.6662594760242975E-3</v>
       </c>
-      <c r="C257" s="21" t="str">
+      <c r="C257" s="120" t="str">
         <f>'OECD Mapping'!A21</f>
         <v>D27: Electrical equipment</v>
       </c>
-      <c r="D257" s="21" t="str">
+      <c r="D257" s="120" t="str">
         <f>'OECD Mapping'!B21</f>
         <v>ISIC 27</v>
       </c>
@@ -7612,18 +7629,18 @@
         <v>259</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="87" t="s">
         <v>250</v>
       </c>
       <c r="B258" s="15">
         <v>2.3065838394442859E-3</v>
       </c>
-      <c r="C258" s="21" t="str">
+      <c r="C258" s="120" t="str">
         <f>'OECD Mapping'!A22</f>
         <v>D28: Machinery and equipment, nec</v>
       </c>
-      <c r="D258" s="21" t="str">
+      <c r="D258" s="120" t="str">
         <f>'OECD Mapping'!B22</f>
         <v>ISIC 28</v>
       </c>
@@ -7634,18 +7651,18 @@
         <v>259</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="87" t="s">
         <v>251</v>
       </c>
       <c r="B259" s="15">
         <v>3.5527798304773789E-2</v>
       </c>
-      <c r="C259" s="21" t="str">
+      <c r="C259" s="120" t="str">
         <f>'OECD Mapping'!A19</f>
         <v>D25: Fabricated metal products</v>
       </c>
-      <c r="D259" s="21" t="str">
+      <c r="D259" s="120" t="str">
         <f>'OECD Mapping'!B19</f>
         <v>ISIC 25</v>
       </c>
@@ -7656,20 +7673,20 @@
         <v>259</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="87" t="s">
         <v>252</v>
       </c>
       <c r="B260" s="15">
         <v>5.1620006644230103E-2</v>
       </c>
-      <c r="C260" s="21" t="str">
-        <f>'OECD Mapping'!A25</f>
-        <v>D31T33: Other manufacturing; repair and installation of machinery and equipment</v>
-      </c>
-      <c r="D260" s="21" t="str">
-        <f>'OECD Mapping'!B25</f>
-        <v>ISIC 31T33</v>
+      <c r="C260" s="120" t="str">
+        <f>'OECD Mapping'!A22</f>
+        <v>D28: Machinery and equipment, nec</v>
+      </c>
+      <c r="D260" s="120" t="str">
+        <f>'OECD Mapping'!B22</f>
+        <v>ISIC 28</v>
       </c>
       <c r="E260" s="21" t="s">
         <v>260</v>
@@ -7678,18 +7695,18 @@
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="87" t="s">
         <v>253</v>
       </c>
       <c r="B261" s="15">
         <v>1.7845445045700584E-2</v>
       </c>
-      <c r="C261" s="21" t="str">
+      <c r="C261" s="120" t="str">
         <f>'OECD Mapping'!A21</f>
         <v>D27: Electrical equipment</v>
       </c>
-      <c r="D261" s="21" t="str">
+      <c r="D261" s="120" t="str">
         <f>'OECD Mapping'!B21</f>
         <v>ISIC 27</v>
       </c>
@@ -7700,20 +7717,20 @@
         <v>259</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="87" t="s">
         <v>254</v>
       </c>
       <c r="B262" s="15">
         <v>2.0360262148428034E-2</v>
       </c>
-      <c r="C262" s="21" t="str">
-        <f>'OECD Mapping'!A25</f>
-        <v>D31T33: Other manufacturing; repair and installation of machinery and equipment</v>
-      </c>
-      <c r="D262" s="21" t="str">
-        <f>'OECD Mapping'!B25</f>
-        <v>ISIC 31T33</v>
+      <c r="C262" s="120" t="str">
+        <f>'OECD Mapping'!A22</f>
+        <v>D28: Machinery and equipment, nec</v>
+      </c>
+      <c r="D262" s="120" t="str">
+        <f>'OECD Mapping'!B22</f>
+        <v>ISIC 28</v>
       </c>
       <c r="E262" s="21" t="s">
         <v>260</v>
@@ -7722,7 +7739,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="87" t="s">
         <v>76</v>
       </c>
@@ -7734,7 +7751,7 @@
       <c r="E263" s="21"/>
       <c r="F263" s="6"/>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="87" t="s">
         <v>25</v>
       </c>
@@ -7744,7 +7761,7 @@
       <c r="E264" s="21"/>
       <c r="F264" s="6"/>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="87" t="s">
         <v>255</v>
       </c>
@@ -7766,7 +7783,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="87" t="s">
         <v>256</v>
       </c>
@@ -7788,7 +7805,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="87" t="s">
         <v>257</v>
       </c>
@@ -7810,7 +7827,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="87" t="s">
         <v>76</v>
       </c>
@@ -7822,7 +7839,7 @@
       <c r="E268" s="21"/>
       <c r="F268" s="6"/>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="87" t="s">
         <v>103</v>
       </c>
@@ -7834,7 +7851,7 @@
       <c r="E269" s="21"/>
       <c r="F269" s="6"/>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="87" t="s">
         <v>258</v>
       </c>
@@ -7844,7 +7861,7 @@
       <c r="E270" s="21"/>
       <c r="F270" s="6"/>
     </row>
-    <row r="271" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="89" t="s">
         <v>11</v>
       </c>
@@ -7854,7 +7871,7 @@
       <c r="E271" s="25"/>
       <c r="F271" s="10"/>
     </row>
-    <row r="272" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="102" t="s">
         <v>8</v>
       </c>
@@ -7864,7 +7881,7 @@
       <c r="E272" s="103"/>
       <c r="F272" s="104"/>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="105" t="s">
         <v>293</v>
       </c>
@@ -7874,7 +7891,7 @@
       <c r="E273" s="62"/>
       <c r="F273" s="14"/>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="87" t="s">
         <v>319</v>
       </c>
@@ -7896,7 +7913,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="87" t="s">
         <v>295</v>
       </c>
@@ -7918,7 +7935,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="87" t="s">
         <v>320</v>
       </c>
@@ -7940,7 +7957,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="87" t="s">
         <v>321</v>
       </c>
@@ -7962,7 +7979,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="87" t="s">
         <v>318</v>
       </c>
@@ -7974,7 +7991,7 @@
       <c r="E278" s="21"/>
       <c r="F278" s="6"/>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="87" t="s">
         <v>105</v>
       </c>
@@ -7984,7 +8001,7 @@
       <c r="E279" s="21"/>
       <c r="F279" s="6"/>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="87" t="s">
         <v>322</v>
       </c>
@@ -8004,7 +8021,7 @@
       </c>
       <c r="F280" s="6"/>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="87" t="s">
         <v>323</v>
       </c>
@@ -8026,7 +8043,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="87" t="s">
         <v>324</v>
       </c>
@@ -8048,7 +8065,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="87" t="s">
         <v>301</v>
       </c>
@@ -8070,73 +8087,73 @@
         <v>259</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="87" t="s">
         <v>303</v>
       </c>
       <c r="B284" s="15">
         <v>0</v>
       </c>
-      <c r="C284" s="21" t="str">
-        <f>'OECD Mapping'!A25</f>
-        <v>D31T33: Other manufacturing; repair and installation of machinery and equipment</v>
-      </c>
-      <c r="D284" s="21" t="str">
-        <f>'OECD Mapping'!B25</f>
-        <v>ISIC 31T33</v>
-      </c>
-      <c r="E284" s="21" t="s">
+      <c r="C284" s="120" t="str">
+        <f>'OECD Mapping'!A11</f>
+        <v>D19: Coke and refined petroleum products</v>
+      </c>
+      <c r="D284" s="120" t="str">
+        <f>'OECD Mapping'!B11</f>
+        <v>ISIC 19</v>
+      </c>
+      <c r="E284" s="120" t="s">
         <v>329</v>
       </c>
       <c r="F284" s="68" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="87" t="s">
         <v>325</v>
       </c>
       <c r="B285" s="15">
         <v>0.42277656301083044</v>
       </c>
-      <c r="C285" s="21" t="str">
+      <c r="C285" s="120" t="str">
         <f>'OECD Mapping'!A19</f>
         <v>D25: Fabricated metal products</v>
       </c>
-      <c r="D285" s="21" t="str">
+      <c r="D285" s="120" t="str">
         <f>'OECD Mapping'!B19</f>
         <v>ISIC 25</v>
       </c>
-      <c r="E285" s="21" t="s">
+      <c r="E285" s="120" t="s">
         <v>329</v>
       </c>
       <c r="F285" s="68" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="87" t="s">
         <v>326</v>
       </c>
       <c r="B286" s="15">
         <v>0</v>
       </c>
-      <c r="C286" s="21" t="str">
-        <f>'OECD Mapping'!A25</f>
-        <v>D31T33: Other manufacturing; repair and installation of machinery and equipment</v>
-      </c>
-      <c r="D286" s="21" t="str">
-        <f>'OECD Mapping'!B25</f>
-        <v>ISIC 31T33</v>
-      </c>
-      <c r="E286" s="21" t="s">
+      <c r="C286" s="120" t="str">
+        <f>'OECD Mapping'!A22</f>
+        <v>D28: Machinery and equipment, nec</v>
+      </c>
+      <c r="D286" s="120" t="str">
+        <f>'OECD Mapping'!B22</f>
+        <v>ISIC 28</v>
+      </c>
+      <c r="E286" s="120" t="s">
         <v>329</v>
       </c>
       <c r="F286" s="68" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="87" t="s">
         <v>306</v>
       </c>
@@ -8148,7 +8165,7 @@
       <c r="E287" s="21"/>
       <c r="F287" s="6"/>
     </row>
-    <row r="288" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A288" s="89" t="s">
         <v>11</v>
       </c>
@@ -8160,17 +8177,17 @@
       <c r="E288" s="25"/>
       <c r="F288" s="10"/>
     </row>
-    <row r="289" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A289" s="120" t="s">
+    <row r="289" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A289" s="125" t="s">
         <v>341</v>
       </c>
-      <c r="B289" s="121"/>
-      <c r="C289" s="121"/>
-      <c r="D289" s="122"/>
-      <c r="E289" s="122"/>
-      <c r="F289" s="123"/>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B289" s="126"/>
+      <c r="C289" s="126"/>
+      <c r="D289" s="127"/>
+      <c r="E289" s="127"/>
+      <c r="F289" s="128"/>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="96" t="s">
         <v>1</v>
       </c>
@@ -8190,7 +8207,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" s="5" t="s">
         <v>6</v>
       </c>
@@ -8202,7 +8219,7 @@
       <c r="E291" s="2"/>
       <c r="F291" s="16"/>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="90" t="s">
         <v>342</v>
       </c>
@@ -8212,7 +8229,7 @@
       <c r="E292" s="21"/>
       <c r="F292" s="6"/>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" s="87" t="s">
         <v>343</v>
       </c>
@@ -8234,7 +8251,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="87" t="s">
         <v>344</v>
       </c>
@@ -8256,7 +8273,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" s="87" t="s">
         <v>345</v>
       </c>
@@ -8278,7 +8295,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" s="87" t="s">
         <v>346</v>
       </c>
@@ -8300,7 +8317,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" s="87" t="s">
         <v>347</v>
       </c>
@@ -8322,7 +8339,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" s="87" t="s">
         <v>348</v>
       </c>
@@ -8344,7 +8361,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" s="87" t="s">
         <v>349</v>
       </c>
@@ -8366,7 +8383,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" s="87" t="s">
         <v>350</v>
       </c>
@@ -8388,7 +8405,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" s="87" t="s">
         <v>351</v>
       </c>
@@ -8410,7 +8427,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" s="90" t="s">
         <v>352</v>
       </c>
@@ -8420,7 +8437,7 @@
       <c r="E302" s="21"/>
       <c r="F302" s="6"/>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" s="87" t="s">
         <v>353</v>
       </c>
@@ -8442,7 +8459,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" s="87" t="s">
         <v>354</v>
       </c>
@@ -8464,7 +8481,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" s="87" t="s">
         <v>355</v>
       </c>
@@ -8486,7 +8503,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="306" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A306" s="88" t="s">
         <v>356</v>
       </c>
@@ -8508,7 +8525,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" s="11" t="s">
         <v>8</v>
       </c>
@@ -8518,7 +8535,7 @@
       <c r="E307" s="62"/>
       <c r="F307" s="14"/>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" s="111" t="s">
         <v>65</v>
       </c>
@@ -8540,29 +8557,29 @@
         <v>70</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" s="111" t="s">
         <v>362</v>
       </c>
       <c r="B309" s="15">
         <v>0.58345780433159067</v>
       </c>
-      <c r="C309" s="15" t="str">
+      <c r="C309" s="122" t="str">
         <f>'OECD Mapping'!A25</f>
         <v>D31T33: Other manufacturing; repair and installation of machinery and equipment</v>
       </c>
-      <c r="D309" s="15" t="str">
+      <c r="D309" s="122" t="str">
         <f>'OECD Mapping'!B25</f>
         <v>ISIC 31T33</v>
       </c>
-      <c r="E309" s="21" t="s">
+      <c r="E309" s="120" t="s">
         <v>328</v>
       </c>
       <c r="F309" s="68" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" s="111" t="s">
         <v>363</v>
       </c>
@@ -8584,7 +8601,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="311" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A311" s="112" t="s">
         <v>364</v>
       </c>
@@ -8606,7 +8623,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" s="11" t="s">
         <v>38</v>
       </c>
@@ -8616,7 +8633,7 @@
       <c r="E312" s="62"/>
       <c r="F312" s="14"/>
     </row>
-    <row r="313" spans="1:6" ht="30" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A313" s="114" t="s">
         <v>360</v>
       </c>
@@ -8638,22 +8655,22 @@
         <v>70</v>
       </c>
     </row>
-    <row r="314" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B314" s="85"/>
       <c r="C314" s="84"/>
       <c r="D314" s="107"/>
     </row>
-    <row r="315" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A315" s="120" t="s">
+    <row r="315" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A315" s="125" t="s">
         <v>369</v>
       </c>
-      <c r="B315" s="121"/>
-      <c r="C315" s="121"/>
-      <c r="D315" s="122"/>
-      <c r="E315" s="122"/>
-      <c r="F315" s="123"/>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B315" s="126"/>
+      <c r="C315" s="126"/>
+      <c r="D315" s="127"/>
+      <c r="E315" s="127"/>
+      <c r="F315" s="128"/>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" s="96" t="s">
         <v>1</v>
       </c>
@@ -8673,7 +8690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" s="5" t="s">
         <v>6</v>
       </c>
@@ -8685,7 +8702,7 @@
       <c r="E317" s="21"/>
       <c r="F317" s="6"/>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" s="20" t="s">
         <v>370</v>
       </c>
@@ -8695,7 +8712,7 @@
       <c r="E318" s="94"/>
       <c r="F318" s="16"/>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" s="20" t="s">
         <v>371</v>
       </c>
@@ -8715,7 +8732,7 @@
       </c>
       <c r="F319" s="16"/>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" s="20" t="s">
         <v>372</v>
       </c>
@@ -8735,7 +8752,7 @@
       </c>
       <c r="F320" s="16"/>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" s="20" t="s">
         <v>373</v>
       </c>
@@ -8755,7 +8772,7 @@
       </c>
       <c r="F321" s="16"/>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" s="20" t="s">
         <v>374</v>
       </c>
@@ -8775,7 +8792,7 @@
       </c>
       <c r="F322" s="16"/>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" s="20" t="s">
         <v>375</v>
       </c>
@@ -8795,7 +8812,7 @@
       </c>
       <c r="F323" s="16"/>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" s="20" t="s">
         <v>376</v>
       </c>
@@ -8807,7 +8824,7 @@
       <c r="E324" s="94"/>
       <c r="F324" s="16"/>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" s="20" t="s">
         <v>377</v>
       </c>
@@ -8817,27 +8834,27 @@
       <c r="E325" s="94"/>
       <c r="F325" s="16"/>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" s="20" t="s">
         <v>378</v>
       </c>
       <c r="B326" s="15">
         <v>5.9790282669963217E-3</v>
       </c>
-      <c r="C326" s="21" t="str">
-        <f>'OECD Mapping'!A25</f>
-        <v>D31T33: Other manufacturing; repair and installation of machinery and equipment</v>
-      </c>
-      <c r="D326" s="21" t="str">
-        <f>'OECD Mapping'!B25</f>
-        <v>ISIC 31T33</v>
-      </c>
-      <c r="E326" s="94" t="s">
+      <c r="C326" s="120" t="str">
+        <f>'OECD Mapping'!A22</f>
+        <v>D28: Machinery and equipment, nec</v>
+      </c>
+      <c r="D326" s="120" t="str">
+        <f>'OECD Mapping'!B22</f>
+        <v>ISIC 28</v>
+      </c>
+      <c r="E326" s="123" t="s">
         <v>411</v>
       </c>
       <c r="F326" s="16"/>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" s="20" t="s">
         <v>379</v>
       </c>
@@ -8857,7 +8874,7 @@
       </c>
       <c r="F327" s="16"/>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" s="20" t="s">
         <v>380</v>
       </c>
@@ -8877,7 +8894,7 @@
       </c>
       <c r="F328" s="6"/>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" s="20" t="s">
         <v>381</v>
       </c>
@@ -8897,7 +8914,7 @@
       </c>
       <c r="F329" s="16"/>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" s="20" t="s">
         <v>382</v>
       </c>
@@ -8917,7 +8934,7 @@
       </c>
       <c r="F330" s="16"/>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" s="20" t="s">
         <v>383</v>
       </c>
@@ -8937,7 +8954,7 @@
       </c>
       <c r="F331" s="6"/>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" s="20" t="s">
         <v>384</v>
       </c>
@@ -8957,7 +8974,7 @@
       </c>
       <c r="F332" s="6"/>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" s="20" t="s">
         <v>385</v>
       </c>
@@ -8969,7 +8986,7 @@
       <c r="E333" s="94"/>
       <c r="F333" s="6"/>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" s="20" t="s">
         <v>386</v>
       </c>
@@ -8979,7 +8996,7 @@
       <c r="E334" s="94"/>
       <c r="F334" s="6"/>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" s="20" t="s">
         <v>273</v>
       </c>
@@ -8999,7 +9016,7 @@
       </c>
       <c r="F335" s="6"/>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" s="20" t="s">
         <v>387</v>
       </c>
@@ -9019,7 +9036,7 @@
       </c>
       <c r="F336" s="6"/>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" s="20" t="s">
         <v>388</v>
       </c>
@@ -9039,7 +9056,7 @@
       </c>
       <c r="F337" s="6"/>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" s="20" t="s">
         <v>389</v>
       </c>
@@ -9059,7 +9076,7 @@
       </c>
       <c r="F338" s="6"/>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" s="20" t="s">
         <v>390</v>
       </c>
@@ -9079,7 +9096,7 @@
       </c>
       <c r="F339" s="6"/>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" s="20" t="s">
         <v>275</v>
       </c>
@@ -9099,7 +9116,7 @@
       </c>
       <c r="F340" s="6"/>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" s="20" t="s">
         <v>391</v>
       </c>
@@ -9111,7 +9128,7 @@
       <c r="E341" s="94"/>
       <c r="F341" s="6"/>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" s="20" t="s">
         <v>392</v>
       </c>
@@ -9121,7 +9138,7 @@
       <c r="E342" s="94"/>
       <c r="F342" s="6"/>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" s="20" t="s">
         <v>393</v>
       </c>
@@ -9141,7 +9158,7 @@
       </c>
       <c r="F343" s="6"/>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" s="20" t="s">
         <v>394</v>
       </c>
@@ -9151,7 +9168,7 @@
       <c r="E344" s="94"/>
       <c r="F344" s="6"/>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" s="20" t="s">
         <v>282</v>
       </c>
@@ -9171,7 +9188,7 @@
       </c>
       <c r="F345" s="6"/>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" s="20" t="s">
         <v>283</v>
       </c>
@@ -9191,7 +9208,7 @@
       </c>
       <c r="F346" s="6"/>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" s="20" t="s">
         <v>395</v>
       </c>
@@ -9211,7 +9228,7 @@
       </c>
       <c r="F347" s="6"/>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" s="20" t="s">
         <v>396</v>
       </c>
@@ -9231,7 +9248,7 @@
       </c>
       <c r="F348" s="6"/>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" s="20" t="s">
         <v>285</v>
       </c>
@@ -9251,7 +9268,7 @@
       </c>
       <c r="F349" s="6"/>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" s="20" t="s">
         <v>397</v>
       </c>
@@ -9271,7 +9288,7 @@
       </c>
       <c r="F350" s="6"/>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" s="20" t="s">
         <v>398</v>
       </c>
@@ -9291,7 +9308,7 @@
       </c>
       <c r="F351" s="6"/>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352" s="20" t="s">
         <v>399</v>
       </c>
@@ -9311,7 +9328,7 @@
       </c>
       <c r="F352" s="6"/>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" s="20" t="s">
         <v>400</v>
       </c>
@@ -9331,7 +9348,7 @@
       </c>
       <c r="F353" s="6"/>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" s="20" t="s">
         <v>401</v>
       </c>
@@ -9343,7 +9360,7 @@
       <c r="E354" s="94"/>
       <c r="F354" s="6"/>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" s="20" t="s">
         <v>402</v>
       </c>
@@ -9353,7 +9370,7 @@
       <c r="E355" s="94"/>
       <c r="F355" s="6"/>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" s="20" t="s">
         <v>403</v>
       </c>
@@ -9373,7 +9390,7 @@
       </c>
       <c r="F356" s="6"/>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" s="20" t="s">
         <v>404</v>
       </c>
@@ -9393,7 +9410,7 @@
       </c>
       <c r="F357" s="6"/>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" s="20" t="s">
         <v>405</v>
       </c>
@@ -9413,7 +9430,7 @@
       </c>
       <c r="F358" s="6"/>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" s="20" t="s">
         <v>406</v>
       </c>
@@ -9433,7 +9450,7 @@
       </c>
       <c r="F359" s="6"/>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360" s="20" t="s">
         <v>407</v>
       </c>
@@ -9445,7 +9462,7 @@
       <c r="E360" s="94"/>
       <c r="F360" s="6"/>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" s="20" t="s">
         <v>408</v>
       </c>
@@ -9465,7 +9482,7 @@
       </c>
       <c r="F361" s="6"/>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362" s="20" t="s">
         <v>409</v>
       </c>
@@ -9477,7 +9494,7 @@
       <c r="E362" s="94"/>
       <c r="F362" s="6"/>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363" s="20" t="s">
         <v>289</v>
       </c>
@@ -9497,7 +9514,7 @@
       </c>
       <c r="F363" s="6"/>
     </row>
-    <row r="364" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A364" s="70" t="s">
         <v>410</v>
       </c>
@@ -9509,7 +9526,7 @@
       <c r="E364" s="99"/>
       <c r="F364" s="75"/>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" s="11" t="s">
         <v>8</v>
       </c>
@@ -9519,7 +9536,7 @@
       <c r="E365" s="62"/>
       <c r="F365" s="14"/>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" s="20" t="s">
         <v>65</v>
       </c>
@@ -9529,7 +9546,7 @@
       <c r="E366" s="21"/>
       <c r="F366" s="6"/>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" s="20" t="s">
         <v>412</v>
       </c>
@@ -9549,7 +9566,7 @@
       </c>
       <c r="F367" s="6"/>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368" s="20" t="s">
         <v>413</v>
       </c>
@@ -9569,7 +9586,7 @@
       </c>
       <c r="F368" s="6"/>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" s="20" t="s">
         <v>414</v>
       </c>
@@ -9589,7 +9606,7 @@
       </c>
       <c r="F369" s="6"/>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" s="20" t="s">
         <v>275</v>
       </c>
@@ -9609,7 +9626,7 @@
       </c>
       <c r="F370" s="6"/>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" s="20" t="s">
         <v>415</v>
       </c>
@@ -9621,7 +9638,7 @@
       <c r="E371" s="21"/>
       <c r="F371" s="6"/>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" s="20" t="s">
         <v>105</v>
       </c>
@@ -9631,7 +9648,7 @@
       <c r="E372" s="21"/>
       <c r="F372" s="6"/>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" s="20" t="s">
         <v>416</v>
       </c>
@@ -9651,7 +9668,7 @@
       </c>
       <c r="F373" s="6"/>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" s="20" t="s">
         <v>417</v>
       </c>
@@ -9671,7 +9688,7 @@
       </c>
       <c r="F374" s="6"/>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" s="20" t="s">
         <v>418</v>
       </c>
@@ -9691,7 +9708,7 @@
       </c>
       <c r="F375" s="6"/>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" s="20" t="s">
         <v>419</v>
       </c>
@@ -9711,7 +9728,7 @@
       </c>
       <c r="F376" s="6"/>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377" s="20" t="s">
         <v>420</v>
       </c>
@@ -9731,7 +9748,7 @@
       </c>
       <c r="F377" s="6"/>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" s="20" t="s">
         <v>421</v>
       </c>
@@ -9743,7 +9760,7 @@
       <c r="E378" s="21"/>
       <c r="F378" s="6"/>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" s="20" t="s">
         <v>409</v>
       </c>
@@ -9755,7 +9772,7 @@
       <c r="E379" s="21"/>
       <c r="F379" s="6"/>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" s="20" t="s">
         <v>289</v>
       </c>
@@ -9775,7 +9792,7 @@
       </c>
       <c r="F380" s="6"/>
     </row>
-    <row r="381" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A381" s="24" t="s">
         <v>422</v>
       </c>
@@ -9885,35 +9902,37 @@
   </sheetPr>
   <dimension ref="A1:AQ17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.6640625" customWidth="1"/>
-    <col min="14" max="24" width="7.6640625" customWidth="1"/>
-    <col min="25" max="26" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="9.6640625" customWidth="1"/>
-    <col min="29" max="33" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="41" max="43" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" customWidth="1"/>
+    <col min="14" max="24" width="7.7109375" customWidth="1"/>
+    <col min="25" max="26" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="9.7109375" customWidth="1"/>
+    <col min="29" max="33" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="43" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B1" s="119" t="s">
         <v>163</v>
       </c>
@@ -10041,7 +10060,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>199</v>
       </c>
@@ -10214,7 +10233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>200</v>
       </c>
@@ -10387,7 +10406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>201</v>
       </c>
@@ -10560,7 +10579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>202</v>
       </c>
@@ -10733,7 +10752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>203</v>
       </c>
@@ -10815,11 +10834,11 @@
       </c>
       <c r="U6" s="81">
         <f>SUMIF('Cost Breakdowns'!$D$22:$D$52,'SoESCaOMCbIC-capital'!U$1,'Cost Breakdowns'!$B$22:$B$52)</f>
-        <v>1.1545687086842617E-2</v>
+        <v>1.2169934344764067E-2</v>
       </c>
       <c r="V6" s="81">
         <f>SUMIF('Cost Breakdowns'!$D$22:$D$52,'SoESCaOMCbIC-capital'!V$1,'Cost Breakdowns'!$B$22:$B$52)</f>
-        <v>0.42238735529675886</v>
+        <v>0.53983426329341444</v>
       </c>
       <c r="W6" s="81">
         <f>SUMIF('Cost Breakdowns'!$D$22:$D$52,'SoESCaOMCbIC-capital'!W$1,'Cost Breakdowns'!$B$22:$B$52)</f>
@@ -10831,7 +10850,7 @@
       </c>
       <c r="Y6" s="81">
         <f>SUMIF('Cost Breakdowns'!$D$22:$D$52,'SoESCaOMCbIC-capital'!Y$1,'Cost Breakdowns'!$B$22:$B$52)</f>
-        <v>0.11807115525457695</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="81">
         <f>SUMIF('Cost Breakdowns'!$D$22:$D$52,'SoESCaOMCbIC-capital'!Z$1,'Cost Breakdowns'!$B$22:$B$52)</f>
@@ -10906,7 +10925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>204</v>
       </c>
@@ -11079,7 +11098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>205</v>
       </c>
@@ -11137,7 +11156,7 @@
       </c>
       <c r="O8" s="81">
         <f>SUMIF('Cost Breakdowns'!$D$239:$D$267,'SoESCaOMCbIC-capital'!O$1,'Cost Breakdowns'!$B$239:$B$267)</f>
-        <v>0</v>
+        <v>5.9171738835744038E-2</v>
       </c>
       <c r="P8" s="81">
         <f>SUMIF('Cost Breakdowns'!$D$239:$D$267,'SoESCaOMCbIC-capital'!P$1,'Cost Breakdowns'!$B$239:$B$267)</f>
@@ -11165,7 +11184,7 @@
       </c>
       <c r="V8" s="81">
         <f>SUMIF('Cost Breakdowns'!$D$239:$D$267,'SoESCaOMCbIC-capital'!V$1,'Cost Breakdowns'!$B$239:$B$267)</f>
-        <v>8.1493470953699493E-2</v>
+        <v>0.27065810079145824</v>
       </c>
       <c r="W8" s="81">
         <f>SUMIF('Cost Breakdowns'!$D$239:$D$267,'SoESCaOMCbIC-capital'!W$1,'Cost Breakdowns'!$B$239:$B$267)</f>
@@ -11177,7 +11196,7 @@
       </c>
       <c r="Y8" s="81">
         <f>SUMIF('Cost Breakdowns'!$D$239:$D$267,'SoESCaOMCbIC-capital'!Y$1,'Cost Breakdowns'!$B$239:$B$267)</f>
-        <v>0.24833636867350284</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="81">
         <f>SUMIF('Cost Breakdowns'!$D$239:$D$267,'SoESCaOMCbIC-capital'!Z$1,'Cost Breakdowns'!$B$239:$B$267)</f>
@@ -11252,7 +11271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>206</v>
       </c>
@@ -11338,7 +11357,7 @@
       </c>
       <c r="V9" s="81">
         <f>SUMIF('Cost Breakdowns'!$D$222:$D$227,'SoESCaOMCbIC-capital'!V$1,'Cost Breakdowns'!$B$222:$B$227)</f>
-        <v>0.55999999999999994</v>
+        <v>0.67999999999999994</v>
       </c>
       <c r="W9" s="81">
         <f>SUMIF('Cost Breakdowns'!$D$222:$D$227,'SoESCaOMCbIC-capital'!W$1,'Cost Breakdowns'!$B$222:$B$227)</f>
@@ -11350,7 +11369,7 @@
       </c>
       <c r="Y9" s="81">
         <f>SUMIF('Cost Breakdowns'!$D$222:$D$227,'SoESCaOMCbIC-capital'!Y$1,'Cost Breakdowns'!$B$222:$B$227)</f>
-        <v>0.11999999999999998</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="81">
         <f>SUMIF('Cost Breakdowns'!$D$222:$D$227,'SoESCaOMCbIC-capital'!Z$1,'Cost Breakdowns'!$B$222:$B$227)</f>
@@ -11425,7 +11444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>207</v>
       </c>
@@ -11598,7 +11617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>208</v>
       </c>
@@ -11771,7 +11790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>209</v>
       </c>
@@ -11944,7 +11963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>210</v>
       </c>
@@ -12117,7 +12136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>211</v>
       </c>
@@ -12203,7 +12222,7 @@
       </c>
       <c r="V14" s="81">
         <f>SUMIF('Cost Breakdowns'!$D$319:$D$363,'SoESCaOMCbIC-capital'!V$1,'Cost Breakdowns'!$B$319:$B$363)</f>
-        <v>4.8279391145854111E-2</v>
+        <v>5.4258419412850437E-2</v>
       </c>
       <c r="W14" s="81">
         <f>SUMIF('Cost Breakdowns'!$D$319:$D$363,'SoESCaOMCbIC-capital'!W$1,'Cost Breakdowns'!$B$319:$B$363)</f>
@@ -12215,7 +12234,7 @@
       </c>
       <c r="Y14" s="81">
         <f>SUMIF('Cost Breakdowns'!$D$319:$D$363,'SoESCaOMCbIC-capital'!Y$1,'Cost Breakdowns'!$B$319:$B$363)</f>
-        <v>5.9790282669963217E-3</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="81">
         <f>SUMIF('Cost Breakdowns'!$D$319:$D$363,'SoESCaOMCbIC-capital'!Z$1,'Cost Breakdowns'!$B$319:$B$363)</f>
@@ -12290,7 +12309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>212</v>
       </c>
@@ -12463,7 +12482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>213</v>
       </c>
@@ -12636,7 +12655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>214</v>
       </c>
@@ -12722,7 +12741,7 @@
       </c>
       <c r="V17" s="106">
         <f t="shared" si="8"/>
-        <v>0.55999999999999994</v>
+        <v>0.67999999999999994</v>
       </c>
       <c r="W17" s="106">
         <f t="shared" si="8"/>
@@ -12734,7 +12753,7 @@
       </c>
       <c r="Y17" s="106">
         <f t="shared" si="8"/>
-        <v>0.11999999999999998</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="106">
         <f t="shared" si="8"/>
@@ -12823,32 +12842,32 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.1640625" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="24" width="8" customWidth="1"/>
-    <col min="25" max="26" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="9.6640625" customWidth="1"/>
-    <col min="29" max="33" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="7.1640625" customWidth="1"/>
-    <col min="41" max="43" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="9.7109375" customWidth="1"/>
+    <col min="29" max="33" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="7.140625" customWidth="1"/>
+    <col min="41" max="43" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B1" s="119" t="s">
         <v>163</v>
       </c>
@@ -12976,7 +12995,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>199</v>
       </c>
@@ -13149,7 +13168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>200</v>
       </c>
@@ -13322,7 +13341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>201</v>
       </c>
@@ -13495,7 +13514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>202</v>
       </c>
@@ -13581,7 +13600,7 @@
       </c>
       <c r="V5" s="81">
         <f>SUMIF('Cost Breakdowns'!$D$204:$D$211,'SoESCaOMCbIC-capital'!V$1,'Cost Breakdowns'!$B$204:$B$211)</f>
-        <v>0</v>
+        <v>9.6589707207620543E-2</v>
       </c>
       <c r="W5" s="81">
         <f>SUMIF('Cost Breakdowns'!$D$204:$D$211,'SoESCaOMCbIC-capital'!W$1,'Cost Breakdowns'!$B$204:$B$211)</f>
@@ -13593,7 +13612,7 @@
       </c>
       <c r="Y5" s="81">
         <f>SUMIF('Cost Breakdowns'!$D$204:$D$211,'SoESCaOMCbIC-capital'!Y$1,'Cost Breakdowns'!$B$204:$B$211)</f>
-        <v>9.6589707207620543E-2</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="81">
         <f>SUMIF('Cost Breakdowns'!$D$204:$D$211,'SoESCaOMCbIC-capital'!Z$1,'Cost Breakdowns'!$B$204:$B$211)</f>
@@ -13668,7 +13687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>203</v>
       </c>
@@ -13710,7 +13729,7 @@
       </c>
       <c r="K6" s="81">
         <f>SUMIF('Cost Breakdowns'!$D$57:$D$71,'SoESCaOMCbIC-capital'!K$1,'Cost Breakdowns'!$B$57:$B$71)</f>
-        <v>0</v>
+        <v>9.5771625191948158E-3</v>
       </c>
       <c r="L6" s="81">
         <f>SUMIF('Cost Breakdowns'!$D$57:$D$71,'SoESCaOMCbIC-capital'!L$1,'Cost Breakdowns'!$B$57:$B$71)</f>
@@ -13754,7 +13773,7 @@
       </c>
       <c r="V6" s="81">
         <f>SUMIF('Cost Breakdowns'!$D$57:$D$71,'SoESCaOMCbIC-capital'!V$1,'Cost Breakdowns'!$B$57:$B$71)</f>
-        <v>0</v>
+        <v>0.54552991118951999</v>
       </c>
       <c r="W6" s="81">
         <f>SUMIF('Cost Breakdowns'!$D$57:$D$71,'SoESCaOMCbIC-capital'!W$1,'Cost Breakdowns'!$B$57:$B$71)</f>
@@ -13766,7 +13785,7 @@
       </c>
       <c r="Y6" s="81">
         <f>SUMIF('Cost Breakdowns'!$D$57:$D$71,'SoESCaOMCbIC-capital'!Y$1,'Cost Breakdowns'!$B$57:$B$71)</f>
-        <v>0.54552991118951999</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="81">
         <f>SUMIF('Cost Breakdowns'!$D$57:$D$71,'SoESCaOMCbIC-capital'!Z$1,'Cost Breakdowns'!$B$57:$B$71)</f>
@@ -13786,7 +13805,7 @@
       </c>
       <c r="AD6" s="81">
         <f>SUMIF('Cost Breakdowns'!$D$57:$D$71,'SoESCaOMCbIC-capital'!AD$1,'Cost Breakdowns'!$B$57:$B$71)</f>
-        <v>9.6385545866255529E-2</v>
+        <v>8.6808383347060702E-2</v>
       </c>
       <c r="AE6" s="81">
         <f>SUMIF('Cost Breakdowns'!$D$57:$D$71,'SoESCaOMCbIC-capital'!AE$1,'Cost Breakdowns'!$B$57:$B$71)</f>
@@ -13841,7 +13860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>204</v>
       </c>
@@ -14014,7 +14033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>205</v>
       </c>
@@ -14187,7 +14206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>206</v>
       </c>
@@ -14360,7 +14379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>207</v>
       </c>
@@ -14533,7 +14552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>208</v>
       </c>
@@ -14706,7 +14725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>209</v>
       </c>
@@ -14879,7 +14898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>210</v>
       </c>
@@ -15052,7 +15071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>211</v>
       </c>
@@ -15225,7 +15244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>212</v>
       </c>
@@ -15398,7 +15417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>213</v>
       </c>
@@ -15571,7 +15590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>214</v>
       </c>
@@ -15758,32 +15777,32 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="24" width="8.33203125" customWidth="1"/>
-    <col min="25" max="26" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="9.6640625" customWidth="1"/>
-    <col min="29" max="33" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="41" max="43" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="24" width="8.28515625" customWidth="1"/>
+    <col min="25" max="26" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="9.7109375" customWidth="1"/>
+    <col min="29" max="33" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="43" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B1" s="119" t="s">
         <v>163</v>
       </c>
@@ -15911,7 +15930,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>199</v>
       </c>
@@ -16084,7 +16103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>200</v>
       </c>
@@ -16257,7 +16276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>201</v>
       </c>
@@ -16430,7 +16449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>202</v>
       </c>
@@ -16603,7 +16622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>203</v>
       </c>
@@ -16734,7 +16753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>204</v>
       </c>
@@ -16865,7 +16884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>205</v>
       </c>
@@ -16996,7 +17015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>206</v>
       </c>
@@ -17169,7 +17188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>207</v>
       </c>
@@ -17342,7 +17361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>208</v>
       </c>
@@ -17515,7 +17534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>209</v>
       </c>
@@ -17688,7 +17707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>210</v>
       </c>
@@ -17861,7 +17880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>211</v>
       </c>
@@ -17992,7 +18011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>212</v>
       </c>
@@ -18165,7 +18184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>213</v>
       </c>
@@ -18338,7 +18357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>214</v>
       </c>

--- a/InputData/elec/SoESCaOMCbIC/Share of Electricity Sector Capital and OM Costs by ISIC Code.xlsx
+++ b/InputData/elec/SoESCaOMCbIC/Share of Electricity Sector Capital and OM Costs by ISIC Code.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\All_states_RMI\AR\elec\SoESCaOMCbIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-us\InputData\elec\SoESCaOMCbIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D24CB21A-8D03-402E-BA6E-7EDF2AEC5280}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1845" yWindow="1770" windowWidth="20490" windowHeight="15075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2535" yWindow="165" windowWidth="25665" windowHeight="16830"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="4" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <sheet name="SoESCaOMCbIC-fixedOM" sheetId="6" r:id="rId5"/>
     <sheet name="SoESCaOMCbIC-variableOM" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="452">
   <si>
     <t>Solar PV</t>
   </si>
@@ -1395,15 +1393,12 @@
   </si>
   <si>
     <t>D07T08: Mining and quarrying of uranium and non-energy-producing products</t>
-  </si>
-  <si>
-    <t>Arkansas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
@@ -1909,7 +1904,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2124,15 +2119,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2157,6 +2143,14 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -2164,7 +2158,38 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2439,32 +2464,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="61.85546875" customWidth="1"/>
-    <col min="3" max="3" width="4.5703125" customWidth="1"/>
-    <col min="4" max="4" width="65.7109375" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" customWidth="1"/>
-    <col min="6" max="6" width="63.42578125" customWidth="1"/>
+    <col min="2" max="2" width="61.86328125" customWidth="1"/>
+    <col min="3" max="3" width="4.59765625" customWidth="1"/>
+    <col min="4" max="4" width="65.73046875" customWidth="1"/>
+    <col min="5" max="5" width="5.73046875" customWidth="1"/>
+    <col min="6" max="6" width="63.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="74" t="s">
         <v>428</v>
       </c>
-      <c r="B1" t="s">
-        <v>452</v>
-      </c>
-      <c r="C1" s="124">
-        <v>44336</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="74" t="s">
         <v>215</v>
       </c>
@@ -2478,7 +2497,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>216</v>
       </c>
@@ -2489,7 +2508,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="83">
         <v>2018</v>
       </c>
@@ -2500,7 +2519,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>217</v>
       </c>
@@ -2511,7 +2530,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B7" s="68" t="s">
         <v>218</v>
       </c>
@@ -2522,7 +2541,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>219</v>
       </c>
@@ -2533,7 +2552,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B10" s="82" t="s">
         <v>331</v>
       </c>
@@ -2544,7 +2563,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>216</v>
       </c>
@@ -2555,7 +2574,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B12" s="83">
         <v>2019</v>
       </c>
@@ -2566,7 +2585,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>291</v>
       </c>
@@ -2577,7 +2596,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B14" s="68" t="s">
         <v>290</v>
       </c>
@@ -2588,7 +2607,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>292</v>
       </c>
@@ -2599,7 +2618,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B17" s="82" t="s">
         <v>227</v>
       </c>
@@ -2610,7 +2629,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>216</v>
       </c>
@@ -2621,7 +2640,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B19" s="83">
         <v>2016</v>
       </c>
@@ -2632,7 +2651,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B20" s="115" t="s">
         <v>228</v>
       </c>
@@ -2645,7 +2664,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B21" s="117" t="s">
         <v>114</v>
       </c>
@@ -2658,7 +2677,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>334</v>
       </c>
@@ -2669,7 +2688,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B24" s="82" t="s">
         <v>332</v>
       </c>
@@ -2680,7 +2699,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>216</v>
       </c>
@@ -2691,7 +2710,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B26" s="83">
         <v>2016</v>
       </c>
@@ -2702,7 +2721,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
         <v>333</v>
       </c>
@@ -2713,7 +2732,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B28" s="68" t="s">
         <v>259</v>
       </c>
@@ -2724,7 +2743,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
         <v>292</v>
       </c>
@@ -2735,81 +2754,81 @@
         <v>292</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" s="74" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>359</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D14" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="F7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="F14" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B21" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="F28" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B14" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="F21" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B28" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="D21" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="D28" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="D7" r:id="rId2"/>
+    <hyperlink ref="D14" r:id="rId3"/>
+    <hyperlink ref="F7" r:id="rId4"/>
+    <hyperlink ref="F14" r:id="rId5"/>
+    <hyperlink ref="B21" r:id="rId6"/>
+    <hyperlink ref="F28" r:id="rId7"/>
+    <hyperlink ref="B14" r:id="rId8"/>
+    <hyperlink ref="F21" r:id="rId9"/>
+    <hyperlink ref="B28" r:id="rId10"/>
+    <hyperlink ref="D21" r:id="rId11"/>
+    <hyperlink ref="D28" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="77.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="77.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.73046875" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.59765625" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="74" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="74" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="74" t="s">
         <v>194</v>
       </c>
@@ -2817,7 +2836,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>123</v>
       </c>
@@ -2825,7 +2844,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>433</v>
       </c>
@@ -2833,7 +2852,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>434</v>
       </c>
@@ -2841,7 +2860,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>451</v>
       </c>
@@ -2849,7 +2868,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>124</v>
       </c>
@@ -2857,7 +2876,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -2865,7 +2884,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>126</v>
       </c>
@@ -2873,7 +2892,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>127</v>
       </c>
@@ -2881,7 +2900,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>128</v>
       </c>
@@ -2889,7 +2908,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>129</v>
       </c>
@@ -2897,7 +2916,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>432</v>
       </c>
@@ -2905,7 +2924,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>431</v>
       </c>
@@ -2913,7 +2932,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>130</v>
       </c>
@@ -2921,7 +2940,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>444</v>
       </c>
@@ -2929,7 +2948,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>445</v>
       </c>
@@ -2937,7 +2956,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>446</v>
       </c>
@@ -2945,7 +2964,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>447</v>
       </c>
@@ -2953,7 +2972,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>131</v>
       </c>
@@ -2961,7 +2980,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>132</v>
       </c>
@@ -2969,7 +2988,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>133</v>
       </c>
@@ -2977,7 +2996,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>134</v>
       </c>
@@ -2985,7 +3004,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>135</v>
       </c>
@@ -2993,7 +3012,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>136</v>
       </c>
@@ -3001,7 +3020,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>137</v>
       </c>
@@ -3009,7 +3028,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>448</v>
       </c>
@@ -3017,7 +3036,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>449</v>
       </c>
@@ -3025,7 +3044,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>450</v>
       </c>
@@ -3033,7 +3052,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>138</v>
       </c>
@@ -3041,7 +3060,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>139</v>
       </c>
@@ -3049,7 +3068,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>140</v>
       </c>
@@ -3057,7 +3076,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>141</v>
       </c>
@@ -3065,7 +3084,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>142</v>
       </c>
@@ -3073,7 +3092,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>143</v>
       </c>
@@ -3081,7 +3100,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>144</v>
       </c>
@@ -3089,7 +3108,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>145</v>
       </c>
@@ -3097,7 +3116,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>146</v>
       </c>
@@ -3105,7 +3124,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>147</v>
       </c>
@@ -3113,7 +3132,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>148</v>
       </c>
@@ -3121,7 +3140,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>149</v>
       </c>
@@ -3129,7 +3148,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>150</v>
       </c>
@@ -3137,7 +3156,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>151</v>
       </c>
@@ -3145,7 +3164,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>152</v>
       </c>
@@ -3159,34 +3178,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F381"/>
   <sheetViews>
     <sheetView topLeftCell="A331" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D381" sqref="D381"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="65.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="65.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.59765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="74" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.5703125" customWidth="1"/>
-    <col min="6" max="6" width="60.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.59765625" customWidth="1"/>
+    <col min="6" max="6" width="60.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="129" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="131"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="124" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="126"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3206,7 +3225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -3218,7 +3237,7 @@
       <c r="E3" s="21"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
         <v>153</v>
       </c>
@@ -3240,7 +3259,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
         <v>154</v>
       </c>
@@ -3262,7 +3281,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
         <v>155</v>
       </c>
@@ -3284,7 +3303,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
         <v>156</v>
       </c>
@@ -3306,7 +3325,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
         <v>157</v>
       </c>
@@ -3328,7 +3347,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="7" t="s">
         <v>158</v>
       </c>
@@ -3350,7 +3369,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="7" t="s">
         <v>159</v>
       </c>
@@ -3372,7 +3391,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="7" t="s">
         <v>160</v>
       </c>
@@ -3394,7 +3413,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
@@ -3416,7 +3435,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="59" t="s">
         <v>161</v>
       </c>
@@ -3438,7 +3457,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="92" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="92" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A14" s="11" t="s">
         <v>8</v>
       </c>
@@ -3448,7 +3467,7 @@
       <c r="E14" s="13"/>
       <c r="F14" s="14"/>
     </row>
-    <row r="15" spans="1:6" s="76" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="76" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="7" t="s">
         <v>261</v>
       </c>
@@ -3470,7 +3489,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="91" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="91" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="17" t="s">
         <v>262</v>
       </c>
@@ -3492,18 +3511,18 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="125" t="s">
+    <row r="17" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="18" spans="1:6" ht="18.399999999999999" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A18" s="120" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="126"/>
-      <c r="C18" s="126"/>
-      <c r="D18" s="127"/>
-      <c r="E18" s="127"/>
-      <c r="F18" s="128"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="121"/>
+      <c r="C18" s="121"/>
+      <c r="D18" s="122"/>
+      <c r="E18" s="122"/>
+      <c r="F18" s="123"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="96" t="s">
         <v>1</v>
       </c>
@@ -3523,7 +3542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
         <v>6</v>
       </c>
@@ -3535,7 +3554,7 @@
       <c r="E20" s="21"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="20" t="s">
         <v>241</v>
       </c>
@@ -3545,7 +3564,7 @@
       <c r="E21" s="94"/>
       <c r="F21" s="58"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="20" t="s">
         <v>263</v>
       </c>
@@ -3565,7 +3584,7 @@
       </c>
       <c r="F22" s="16"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="20" t="s">
         <v>264</v>
       </c>
@@ -3585,7 +3604,7 @@
       </c>
       <c r="F23" s="16"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="20" t="s">
         <v>265</v>
       </c>
@@ -3605,7 +3624,7 @@
       </c>
       <c r="F24" s="16"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="20" t="s">
         <v>266</v>
       </c>
@@ -3625,7 +3644,7 @@
       </c>
       <c r="F25" s="16"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="20" t="s">
         <v>267</v>
       </c>
@@ -3637,7 +3656,7 @@
       <c r="E26" s="94"/>
       <c r="F26" s="16"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" s="20" t="s">
         <v>118</v>
       </c>
@@ -3647,7 +3666,7 @@
       <c r="E27" s="94"/>
       <c r="F27" s="16"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="20" t="s">
         <v>232</v>
       </c>
@@ -3657,7 +3676,7 @@
       <c r="E28" s="94"/>
       <c r="F28" s="16"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="20" t="s">
         <v>268</v>
       </c>
@@ -3677,7 +3696,7 @@
       </c>
       <c r="F29" s="16"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="20" t="s">
         <v>269</v>
       </c>
@@ -3697,7 +3716,7 @@
       </c>
       <c r="F30" s="16"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="20" t="s">
         <v>270</v>
       </c>
@@ -3717,18 +3736,18 @@
       </c>
       <c r="F31" s="16"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" s="20" t="s">
         <v>271</v>
       </c>
       <c r="B32" s="95">
         <v>2.2230409954455552E-2</v>
       </c>
-      <c r="C32" s="121" t="str">
+      <c r="C32" s="129" t="str">
         <f>'OECD Mapping'!A29</f>
         <v>D41T43: Construction</v>
       </c>
-      <c r="D32" s="121" t="str">
+      <c r="D32" s="129" t="str">
         <f>'OECD Mapping'!B29</f>
         <v>ISIC 41T43</v>
       </c>
@@ -3737,7 +3756,7 @@
       </c>
       <c r="F32" s="6"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" s="20" t="s">
         <v>272</v>
       </c>
@@ -3749,7 +3768,7 @@
       <c r="E33" s="94"/>
       <c r="F33" s="16"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" s="20" t="s">
         <v>235</v>
       </c>
@@ -3759,7 +3778,7 @@
       <c r="E34" s="94"/>
       <c r="F34" s="16"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" s="20" t="s">
         <v>273</v>
       </c>
@@ -3779,7 +3798,7 @@
       </c>
       <c r="F35" s="6"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" s="20" t="s">
         <v>274</v>
       </c>
@@ -3799,7 +3818,7 @@
       </c>
       <c r="F36" s="6"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" s="20" t="s">
         <v>240</v>
       </c>
@@ -3819,7 +3838,7 @@
       </c>
       <c r="F37" s="6"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" s="20" t="s">
         <v>275</v>
       </c>
@@ -3839,7 +3858,7 @@
       </c>
       <c r="F38" s="6"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" s="20" t="s">
         <v>276</v>
       </c>
@@ -3859,7 +3878,7 @@
       </c>
       <c r="F39" s="6"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" s="20" t="s">
         <v>277</v>
       </c>
@@ -3871,7 +3890,7 @@
       <c r="E40" s="21"/>
       <c r="F40" s="6"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" s="20" t="s">
         <v>278</v>
       </c>
@@ -3881,7 +3900,7 @@
       <c r="E41" s="21"/>
       <c r="F41" s="6"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" s="20" t="s">
         <v>279</v>
       </c>
@@ -3891,7 +3910,7 @@
       <c r="E42" s="21"/>
       <c r="F42" s="6"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" s="20" t="s">
         <v>280</v>
       </c>
@@ -3911,7 +3930,7 @@
       </c>
       <c r="F43" s="6"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" s="20" t="s">
         <v>281</v>
       </c>
@@ -3931,7 +3950,7 @@
       </c>
       <c r="F44" s="6"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" s="20" t="s">
         <v>282</v>
       </c>
@@ -3951,7 +3970,7 @@
       </c>
       <c r="F45" s="6"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" s="20" t="s">
         <v>283</v>
       </c>
@@ -3971,7 +3990,7 @@
       </c>
       <c r="F46" s="6"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47" s="20" t="s">
         <v>284</v>
       </c>
@@ -3991,7 +4010,7 @@
       </c>
       <c r="F47" s="6"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" s="20" t="s">
         <v>285</v>
       </c>
@@ -4011,7 +4030,7 @@
       </c>
       <c r="F48" s="6"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49" s="20" t="s">
         <v>286</v>
       </c>
@@ -4023,7 +4042,7 @@
       <c r="E49" s="21"/>
       <c r="F49" s="6"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" s="20" t="s">
         <v>287</v>
       </c>
@@ -4035,7 +4054,7 @@
       <c r="E50" s="21"/>
       <c r="F50" s="6"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" s="20" t="s">
         <v>288</v>
       </c>
@@ -4047,7 +4066,7 @@
       <c r="E51" s="21"/>
       <c r="F51" s="6"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" s="20" t="s">
         <v>289</v>
       </c>
@@ -4067,7 +4086,7 @@
       </c>
       <c r="F52" s="6"/>
     </row>
-    <row r="53" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A53" s="24" t="s">
         <v>11</v>
       </c>
@@ -4079,7 +4098,7 @@
       <c r="E53" s="25"/>
       <c r="F53" s="10"/>
     </row>
-    <row r="54" spans="1:6" s="92" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" s="92" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A54" s="11" t="s">
         <v>8</v>
       </c>
@@ -4089,7 +4108,7 @@
       <c r="E54" s="13"/>
       <c r="F54" s="14"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55" s="20" t="s">
         <v>65</v>
       </c>
@@ -4099,7 +4118,7 @@
       <c r="E55" s="21"/>
       <c r="F55" s="6"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56" s="20" t="s">
         <v>293</v>
       </c>
@@ -4109,7 +4128,7 @@
       <c r="E56" s="21"/>
       <c r="F56" s="6"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57" s="20" t="s">
         <v>294</v>
       </c>
@@ -4129,7 +4148,7 @@
       </c>
       <c r="F57" s="6"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58" s="20" t="s">
         <v>295</v>
       </c>
@@ -4149,7 +4168,7 @@
       </c>
       <c r="F58" s="6"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A59" s="20" t="s">
         <v>296</v>
       </c>
@@ -4169,7 +4188,7 @@
       </c>
       <c r="F59" s="6"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A60" s="20" t="s">
         <v>297</v>
       </c>
@@ -4181,7 +4200,7 @@
       <c r="E60" s="21"/>
       <c r="F60" s="6"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A61" s="20" t="s">
         <v>105</v>
       </c>
@@ -4191,7 +4210,7 @@
       <c r="E61" s="21"/>
       <c r="F61" s="6"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A62" s="20" t="s">
         <v>298</v>
       </c>
@@ -4211,7 +4230,7 @@
       </c>
       <c r="F62" s="6"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A63" s="20" t="s">
         <v>299</v>
       </c>
@@ -4231,7 +4250,7 @@
       </c>
       <c r="F63" s="6"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A64" s="20" t="s">
         <v>300</v>
       </c>
@@ -4251,7 +4270,7 @@
       </c>
       <c r="F64" s="6"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A65" s="20" t="s">
         <v>301</v>
       </c>
@@ -4271,7 +4290,7 @@
       </c>
       <c r="F65" s="6"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A66" s="20" t="s">
         <v>302</v>
       </c>
@@ -4291,7 +4310,7 @@
       </c>
       <c r="F66" s="6"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A67" s="20" t="s">
         <v>303</v>
       </c>
@@ -4311,7 +4330,7 @@
       </c>
       <c r="F67" s="6"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A68" s="20" t="s">
         <v>304</v>
       </c>
@@ -4331,7 +4350,7 @@
       </c>
       <c r="F68" s="6"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A69" s="20" t="s">
         <v>305</v>
       </c>
@@ -4351,7 +4370,7 @@
       </c>
       <c r="F69" s="6"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A70" s="20" t="s">
         <v>306</v>
       </c>
@@ -4363,7 +4382,7 @@
       <c r="E70" s="21"/>
       <c r="F70" s="6"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A71" s="20" t="s">
         <v>50</v>
       </c>
@@ -4383,7 +4402,7 @@
       </c>
       <c r="F71" s="6"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A72" s="20" t="s">
         <v>307</v>
       </c>
@@ -4395,7 +4414,7 @@
       <c r="E72" s="21"/>
       <c r="F72" s="6"/>
     </row>
-    <row r="73" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A73" s="24" t="s">
         <v>308</v>
       </c>
@@ -4407,18 +4426,18 @@
       <c r="E73" s="25"/>
       <c r="F73" s="10"/>
     </row>
-    <row r="74" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="75" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A75" s="129" t="s">
+    <row r="74" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="75" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="130"/>
-      <c r="C75" s="130"/>
-      <c r="D75" s="132"/>
-      <c r="E75" s="132"/>
-      <c r="F75" s="131"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B75" s="125"/>
+      <c r="C75" s="125"/>
+      <c r="D75" s="127"/>
+      <c r="E75" s="127"/>
+      <c r="F75" s="126"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
         <v>1</v>
       </c>
@@ -4438,7 +4457,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A77" s="5" t="s">
         <v>6</v>
       </c>
@@ -4446,7 +4465,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A78" s="7" t="s">
         <v>14</v>
       </c>
@@ -4457,7 +4476,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A79" s="7" t="s">
         <v>16</v>
       </c>
@@ -4479,7 +4498,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A80" s="7" t="s">
         <v>17</v>
       </c>
@@ -4501,7 +4520,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A81" s="7" t="s">
         <v>18</v>
       </c>
@@ -4523,7 +4542,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A82" s="30" t="s">
         <v>19</v>
       </c>
@@ -4538,7 +4557,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A83" s="7" t="s">
         <v>20</v>
       </c>
@@ -4550,7 +4569,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A84" s="7" t="s">
         <v>21</v>
       </c>
@@ -4572,7 +4591,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A85" s="7" t="s">
         <v>22</v>
       </c>
@@ -4594,7 +4613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A86" s="30" t="s">
         <v>23</v>
       </c>
@@ -4609,7 +4628,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A87" s="30" t="s">
         <v>24</v>
       </c>
@@ -4624,7 +4643,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A88" s="31" t="s">
         <v>25</v>
       </c>
@@ -4636,7 +4655,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A89" s="7" t="s">
         <v>26</v>
       </c>
@@ -4658,7 +4677,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A90" s="7" t="s">
         <v>27</v>
       </c>
@@ -4680,7 +4699,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A91" s="32" t="s">
         <v>28</v>
       </c>
@@ -4702,7 +4721,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A92" s="7" t="s">
         <v>29</v>
       </c>
@@ -4724,7 +4743,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A93" s="7" t="s">
         <v>30</v>
       </c>
@@ -4746,7 +4765,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A94" s="7" t="s">
         <v>31</v>
       </c>
@@ -4768,7 +4787,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A95" s="7" t="s">
         <v>32</v>
       </c>
@@ -4790,7 +4809,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A96" s="7" t="s">
         <v>33</v>
       </c>
@@ -4812,7 +4831,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A97" s="30" t="s">
         <v>34</v>
       </c>
@@ -4825,7 +4844,7 @@
       <c r="E97" s="77"/>
       <c r="F97" s="16"/>
     </row>
-    <row r="98" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A98" s="33" t="s">
         <v>35</v>
       </c>
@@ -4838,7 +4857,7 @@
       <c r="E98" s="36"/>
       <c r="F98" s="37"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A99" s="11" t="s">
         <v>8</v>
       </c>
@@ -4848,7 +4867,7 @@
       <c r="E99" s="39"/>
       <c r="F99" s="14"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A100" s="40" t="s">
         <v>20</v>
       </c>
@@ -4870,7 +4889,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A101" s="40" t="s">
         <v>36</v>
       </c>
@@ -4892,7 +4911,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A102" s="40" t="s">
         <v>37</v>
       </c>
@@ -4914,7 +4933,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A103" s="42" t="s">
         <v>35</v>
       </c>
@@ -4927,7 +4946,7 @@
       <c r="E103" s="45"/>
       <c r="F103" s="10"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A104" s="11" t="s">
         <v>38</v>
       </c>
@@ -4937,7 +4956,7 @@
       <c r="E104" s="39"/>
       <c r="F104" s="14"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A105" s="40" t="s">
         <v>39</v>
       </c>
@@ -4959,7 +4978,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A106" s="40" t="s">
         <v>40</v>
       </c>
@@ -4981,7 +5000,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A107" s="40" t="s">
         <v>29</v>
       </c>
@@ -5003,7 +5022,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A108" s="42" t="s">
         <v>35</v>
       </c>
@@ -5016,18 +5035,18 @@
       <c r="E108" s="45"/>
       <c r="F108" s="10"/>
     </row>
-    <row r="109" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="110" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A110" s="129" t="s">
+    <row r="109" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="110" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110" s="124" t="s">
         <v>41</v>
       </c>
-      <c r="B110" s="130"/>
-      <c r="C110" s="130"/>
-      <c r="D110" s="132"/>
-      <c r="E110" s="132"/>
-      <c r="F110" s="131"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B110" s="125"/>
+      <c r="C110" s="125"/>
+      <c r="D110" s="127"/>
+      <c r="E110" s="127"/>
+      <c r="F110" s="126"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A111" s="1" t="s">
         <v>1</v>
       </c>
@@ -5047,7 +5066,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A112" s="5" t="s">
         <v>6</v>
       </c>
@@ -5059,12 +5078,12 @@
       <c r="E112" s="3"/>
       <c r="F112" s="16"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A113" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A114" s="7" t="s">
         <v>16</v>
       </c>
@@ -5086,7 +5105,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A115" s="7" t="s">
         <v>17</v>
       </c>
@@ -5108,7 +5127,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A116" s="7" t="s">
         <v>18</v>
       </c>
@@ -5130,7 +5149,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A117" s="7" t="s">
         <v>43</v>
       </c>
@@ -5144,7 +5163,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A118" s="7" t="s">
         <v>44</v>
       </c>
@@ -5156,7 +5175,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A119" s="7" t="s">
         <v>21</v>
       </c>
@@ -5178,7 +5197,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A120" s="7" t="s">
         <v>45</v>
       </c>
@@ -5200,7 +5219,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A121" s="7" t="s">
         <v>46</v>
       </c>
@@ -5222,7 +5241,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A122" s="7" t="s">
         <v>43</v>
       </c>
@@ -5236,7 +5255,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A123" s="7" t="s">
         <v>24</v>
       </c>
@@ -5250,7 +5269,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A124" s="31" t="s">
         <v>25</v>
       </c>
@@ -5262,7 +5281,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A125" s="7" t="s">
         <v>47</v>
       </c>
@@ -5284,7 +5303,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A126" s="7" t="s">
         <v>27</v>
       </c>
@@ -5306,7 +5325,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A127" s="32" t="s">
         <v>28</v>
       </c>
@@ -5328,7 +5347,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A128" s="7" t="s">
         <v>48</v>
       </c>
@@ -5350,7 +5369,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A129" s="7" t="s">
         <v>30</v>
       </c>
@@ -5372,7 +5391,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A130" s="7" t="s">
         <v>33</v>
       </c>
@@ -5394,7 +5413,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A131" s="7" t="s">
         <v>34</v>
       </c>
@@ -5406,7 +5425,7 @@
       <c r="E131" s="77"/>
       <c r="F131" s="16"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A132" s="31" t="s">
         <v>49</v>
       </c>
@@ -5420,7 +5439,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A133" s="49" t="s">
         <v>50</v>
       </c>
@@ -5435,7 +5454,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A134" s="11" t="s">
         <v>8</v>
       </c>
@@ -5447,7 +5466,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A135" s="40" t="s">
         <v>20</v>
       </c>
@@ -5469,7 +5488,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A136" s="40" t="s">
         <v>36</v>
       </c>
@@ -5491,7 +5510,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A137" s="40" t="s">
         <v>37</v>
       </c>
@@ -5513,7 +5532,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A138" s="42" t="s">
         <v>35</v>
       </c>
@@ -5528,7 +5547,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A139" s="11" t="s">
         <v>38</v>
       </c>
@@ -5538,7 +5557,7 @@
       <c r="E139" s="39"/>
       <c r="F139" s="14"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A140" s="40" t="s">
         <v>51</v>
       </c>
@@ -5560,7 +5579,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A141" s="40" t="s">
         <v>40</v>
       </c>
@@ -5582,7 +5601,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A142" s="40" t="s">
         <v>29</v>
       </c>
@@ -5604,7 +5623,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A143" s="42" t="s">
         <v>35</v>
       </c>
@@ -5617,18 +5636,18 @@
       <c r="E143" s="26"/>
       <c r="F143" s="10"/>
     </row>
-    <row r="144" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="145" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A145" s="125" t="s">
+    <row r="144" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="145" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A145" s="120" t="s">
         <v>52</v>
       </c>
-      <c r="B145" s="126"/>
-      <c r="C145" s="126"/>
-      <c r="D145" s="127"/>
-      <c r="E145" s="127"/>
-      <c r="F145" s="128"/>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B145" s="121"/>
+      <c r="C145" s="121"/>
+      <c r="D145" s="122"/>
+      <c r="E145" s="122"/>
+      <c r="F145" s="123"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A146" s="1" t="s">
         <v>1</v>
       </c>
@@ -5648,7 +5667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A147" s="5" t="s">
         <v>6</v>
       </c>
@@ -5660,7 +5679,7 @@
       <c r="E147" s="3"/>
       <c r="F147" s="16"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A148" s="7" t="s">
         <v>53</v>
       </c>
@@ -5670,7 +5689,7 @@
       <c r="E148" s="22"/>
       <c r="F148" s="6"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A149" s="7" t="s">
         <v>54</v>
       </c>
@@ -5689,7 +5708,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A150" s="7" t="s">
         <v>57</v>
       </c>
@@ -5711,7 +5730,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A151" s="7" t="s">
         <v>58</v>
       </c>
@@ -5733,7 +5752,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A152" s="7" t="s">
         <v>59</v>
       </c>
@@ -5755,7 +5774,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A153" s="7" t="s">
         <v>60</v>
       </c>
@@ -5777,7 +5796,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A154" s="7" t="s">
         <v>61</v>
       </c>
@@ -5799,7 +5818,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A155" s="7" t="s">
         <v>62</v>
       </c>
@@ -5821,7 +5840,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A156" s="7" t="s">
         <v>63</v>
       </c>
@@ -5843,7 +5862,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A157" s="7" t="s">
         <v>64</v>
       </c>
@@ -5865,7 +5884,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A158" s="59" t="s">
         <v>11</v>
       </c>
@@ -5879,7 +5898,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A159" s="11" t="s">
         <v>8</v>
       </c>
@@ -5889,7 +5908,7 @@
       <c r="E159" s="62"/>
       <c r="F159" s="14"/>
     </row>
-    <row r="160" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A160" s="63" t="s">
         <v>65</v>
       </c>
@@ -5911,7 +5930,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A161" s="11" t="s">
         <v>38</v>
       </c>
@@ -5921,7 +5940,7 @@
       <c r="E161" s="62"/>
       <c r="F161" s="14"/>
     </row>
-    <row r="162" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A162" s="24" t="s">
         <v>68</v>
       </c>
@@ -5943,18 +5962,18 @@
         <v>70</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="164" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A164" s="125" t="s">
+    <row r="163" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="164" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A164" s="120" t="s">
         <v>71</v>
       </c>
-      <c r="B164" s="126"/>
-      <c r="C164" s="126"/>
-      <c r="D164" s="127"/>
-      <c r="E164" s="127"/>
-      <c r="F164" s="128"/>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B164" s="121"/>
+      <c r="C164" s="121"/>
+      <c r="D164" s="122"/>
+      <c r="E164" s="122"/>
+      <c r="F164" s="123"/>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A165" s="1" t="s">
         <v>1</v>
       </c>
@@ -5974,7 +5993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A166" s="5" t="s">
         <v>6</v>
       </c>
@@ -5986,7 +6005,7 @@
       <c r="E166" s="3"/>
       <c r="F166" s="16"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A167" s="65" t="s">
         <v>72</v>
       </c>
@@ -5997,7 +6016,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A168" s="7" t="s">
         <v>74</v>
       </c>
@@ -6019,7 +6038,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A169" s="7" t="s">
         <v>75</v>
       </c>
@@ -6041,7 +6060,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A170" s="7" t="s">
         <v>76</v>
       </c>
@@ -6055,7 +6074,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A171" s="7" t="s">
         <v>77</v>
       </c>
@@ -6067,7 +6086,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A172" s="7" t="s">
         <v>78</v>
       </c>
@@ -6089,7 +6108,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A173" s="7" t="s">
         <v>79</v>
       </c>
@@ -6103,7 +6122,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A174" s="7" t="s">
         <v>80</v>
       </c>
@@ -6115,7 +6134,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A175" s="7" t="s">
         <v>81</v>
       </c>
@@ -6137,7 +6156,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A176" s="7" t="s">
         <v>82</v>
       </c>
@@ -6159,7 +6178,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A177" s="7" t="s">
         <v>83</v>
       </c>
@@ -6181,7 +6200,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A178" s="7" t="s">
         <v>84</v>
       </c>
@@ -6203,7 +6222,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A179" s="7" t="s">
         <v>85</v>
       </c>
@@ -6225,7 +6244,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A180" s="7" t="s">
         <v>86</v>
       </c>
@@ -6247,7 +6266,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A181" s="7" t="s">
         <v>87</v>
       </c>
@@ -6269,7 +6288,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A182" s="7" t="s">
         <v>88</v>
       </c>
@@ -6283,7 +6302,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A183" s="7" t="s">
         <v>89</v>
       </c>
@@ -6295,7 +6314,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A184" s="7" t="s">
         <v>78</v>
       </c>
@@ -6317,7 +6336,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A185" s="7" t="s">
         <v>90</v>
       </c>
@@ -6339,7 +6358,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A186" s="7" t="s">
         <v>91</v>
       </c>
@@ -6361,7 +6380,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A187" s="7" t="s">
         <v>92</v>
       </c>
@@ -6383,7 +6402,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A188" s="7" t="s">
         <v>93</v>
       </c>
@@ -6405,7 +6424,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A189" s="7" t="s">
         <v>94</v>
       </c>
@@ -6427,7 +6446,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A190" s="7" t="s">
         <v>95</v>
       </c>
@@ -6449,7 +6468,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A191" s="7" t="s">
         <v>96</v>
       </c>
@@ -6471,7 +6490,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A192" s="7" t="s">
         <v>97</v>
       </c>
@@ -6485,7 +6504,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A193" s="7" t="s">
         <v>25</v>
       </c>
@@ -6497,7 +6516,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A194" s="7" t="s">
         <v>98</v>
       </c>
@@ -6519,7 +6538,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A195" s="7" t="s">
         <v>99</v>
       </c>
@@ -6541,7 +6560,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A196" s="7" t="s">
         <v>100</v>
       </c>
@@ -6563,7 +6582,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A197" s="7" t="s">
         <v>101</v>
       </c>
@@ -6585,7 +6604,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A198" s="7" t="s">
         <v>102</v>
       </c>
@@ -6607,7 +6626,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A199" s="7" t="s">
         <v>34</v>
       </c>
@@ -6621,7 +6640,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A200" s="7" t="s">
         <v>103</v>
       </c>
@@ -6635,7 +6654,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A201" s="7" t="s">
         <v>50</v>
       </c>
@@ -6649,7 +6668,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A202" s="59" t="s">
         <v>11</v>
       </c>
@@ -6663,7 +6682,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A203" s="11" t="s">
         <v>8</v>
       </c>
@@ -6675,7 +6694,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A204" s="7" t="s">
         <v>104</v>
       </c>
@@ -6697,7 +6716,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A205" s="7" t="s">
         <v>105</v>
       </c>
@@ -6709,18 +6728,18 @@
         <v>73</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A206" s="7" t="s">
         <v>106</v>
       </c>
       <c r="B206" s="15">
         <v>9.6589707207620543E-2</v>
       </c>
-      <c r="C206" s="120" t="str">
+      <c r="C206" s="128" t="str">
         <f>'OECD Mapping'!A22</f>
         <v>D28: Machinery and equipment, nec</v>
       </c>
-      <c r="D206" s="120" t="str">
+      <c r="D206" s="128" t="str">
         <f>'OECD Mapping'!B22</f>
         <v>ISIC 28</v>
       </c>
@@ -6731,7 +6750,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A207" s="7" t="s">
         <v>101</v>
       </c>
@@ -6753,7 +6772,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A208" s="7" t="s">
         <v>107</v>
       </c>
@@ -6775,7 +6794,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A209" s="7" t="s">
         <v>108</v>
       </c>
@@ -6797,7 +6816,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A210" s="7" t="s">
         <v>109</v>
       </c>
@@ -6819,7 +6838,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A211" s="7" t="s">
         <v>110</v>
       </c>
@@ -6841,7 +6860,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A212" s="7" t="s">
         <v>111</v>
       </c>
@@ -6855,7 +6874,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A213" s="7" t="s">
         <v>103</v>
       </c>
@@ -6869,7 +6888,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A214" s="7" t="s">
         <v>50</v>
       </c>
@@ -6883,7 +6902,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A215" s="59" t="s">
         <v>112</v>
       </c>
@@ -6897,7 +6916,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A216" s="11" t="s">
         <v>38</v>
       </c>
@@ -6907,7 +6926,7 @@
       <c r="E216" s="62"/>
       <c r="F216" s="14"/>
     </row>
-    <row r="217" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A217" s="100" t="s">
         <v>312</v>
       </c>
@@ -6929,18 +6948,18 @@
         <v>313</v>
       </c>
     </row>
-    <row r="218" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="219" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A219" s="125" t="s">
+    <row r="218" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="219" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A219" s="120" t="s">
         <v>230</v>
       </c>
-      <c r="B219" s="126"/>
-      <c r="C219" s="126"/>
-      <c r="D219" s="127"/>
-      <c r="E219" s="127"/>
-      <c r="F219" s="128"/>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B219" s="121"/>
+      <c r="C219" s="121"/>
+      <c r="D219" s="122"/>
+      <c r="E219" s="122"/>
+      <c r="F219" s="123"/>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A220" s="1" t="s">
         <v>1</v>
       </c>
@@ -6960,7 +6979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A221" s="5" t="s">
         <v>6</v>
       </c>
@@ -6972,7 +6991,7 @@
       <c r="E221" s="3"/>
       <c r="F221" s="16"/>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A222" s="20" t="s">
         <v>113</v>
       </c>
@@ -6994,7 +7013,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A223" s="20" t="s">
         <v>115</v>
       </c>
@@ -7016,7 +7035,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A224" s="20" t="s">
         <v>116</v>
       </c>
@@ -7038,7 +7057,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A225" s="20" t="s">
         <v>117</v>
       </c>
@@ -7060,7 +7079,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A226" s="20" t="s">
         <v>118</v>
       </c>
@@ -7082,7 +7101,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="227" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A227" s="70" t="s">
         <v>119</v>
       </c>
@@ -7104,7 +7123,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A228" s="11" t="s">
         <v>8</v>
       </c>
@@ -7114,7 +7133,7 @@
       <c r="E228" s="62"/>
       <c r="F228" s="54"/>
     </row>
-    <row r="229" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A229" s="24" t="s">
         <v>65</v>
       </c>
@@ -7136,7 +7155,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A230" s="11" t="s">
         <v>38</v>
       </c>
@@ -7146,7 +7165,7 @@
       <c r="E230" s="62"/>
       <c r="F230" s="14"/>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A231" s="7" t="s">
         <v>120</v>
       </c>
@@ -7168,7 +7187,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A232" s="7" t="s">
         <v>121</v>
       </c>
@@ -7190,7 +7209,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="233" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A233" s="17" t="s">
         <v>122</v>
       </c>
@@ -7212,18 +7231,18 @@
         <v>114</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="235" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A235" s="125" t="s">
+    <row r="234" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="235" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A235" s="120" t="s">
         <v>231</v>
       </c>
-      <c r="B235" s="126"/>
-      <c r="C235" s="126"/>
-      <c r="D235" s="127"/>
-      <c r="E235" s="127"/>
-      <c r="F235" s="128"/>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B235" s="121"/>
+      <c r="C235" s="121"/>
+      <c r="D235" s="122"/>
+      <c r="E235" s="122"/>
+      <c r="F235" s="123"/>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A236" s="1" t="s">
         <v>1</v>
       </c>
@@ -7243,7 +7262,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A237" s="5" t="s">
         <v>6</v>
       </c>
@@ -7255,7 +7274,7 @@
       <c r="E237" s="2"/>
       <c r="F237" s="16"/>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A238" s="87" t="s">
         <v>232</v>
       </c>
@@ -7265,7 +7284,7 @@
       <c r="E238" s="21"/>
       <c r="F238" s="58"/>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A239" s="87" t="s">
         <v>233</v>
       </c>
@@ -7287,7 +7306,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A240" s="87" t="s">
         <v>234</v>
       </c>
@@ -7299,7 +7318,7 @@
       <c r="E240" s="21"/>
       <c r="F240" s="16"/>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A241" s="87" t="s">
         <v>235</v>
       </c>
@@ -7309,7 +7328,7 @@
       <c r="E241" s="21"/>
       <c r="F241" s="16"/>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A242" s="87" t="s">
         <v>236</v>
       </c>
@@ -7331,7 +7350,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A243" s="87" t="s">
         <v>237</v>
       </c>
@@ -7353,7 +7372,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A244" s="40" t="s">
         <v>238</v>
       </c>
@@ -7375,7 +7394,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A245" s="87" t="s">
         <v>239</v>
       </c>
@@ -7397,7 +7416,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A246" s="40" t="s">
         <v>240</v>
       </c>
@@ -7419,7 +7438,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A247" s="7" t="s">
         <v>234</v>
       </c>
@@ -7431,7 +7450,7 @@
       <c r="E247" s="21"/>
       <c r="F247" s="16"/>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A248" s="7" t="s">
         <v>76</v>
       </c>
@@ -7443,7 +7462,7 @@
       <c r="E248" s="21"/>
       <c r="F248" s="16"/>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A249" s="7" t="s">
         <v>241</v>
       </c>
@@ -7453,7 +7472,7 @@
       <c r="E249" s="21"/>
       <c r="F249" s="16"/>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A250" s="87" t="s">
         <v>242</v>
       </c>
@@ -7475,7 +7494,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A251" s="87" t="s">
         <v>243</v>
       </c>
@@ -7497,7 +7516,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A252" s="87" t="s">
         <v>244</v>
       </c>
@@ -7519,7 +7538,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A253" s="87" t="s">
         <v>245</v>
       </c>
@@ -7541,7 +7560,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A254" s="87" t="s">
         <v>246</v>
       </c>
@@ -7563,18 +7582,18 @@
         <v>259</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A255" s="87" t="s">
         <v>247</v>
       </c>
       <c r="B255" s="15">
         <v>0.11718436104510066</v>
       </c>
-      <c r="C255" s="120" t="str">
+      <c r="C255" s="128" t="str">
         <f>'OECD Mapping'!A22</f>
         <v>D28: Machinery and equipment, nec</v>
       </c>
-      <c r="D255" s="120" t="str">
+      <c r="D255" s="128" t="str">
         <f>'OECD Mapping'!B22</f>
         <v>ISIC 28</v>
       </c>
@@ -7585,18 +7604,18 @@
         <v>259</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A256" s="87" t="s">
         <v>248</v>
       </c>
       <c r="B256" s="15">
         <v>7.9186887114255214E-2</v>
       </c>
-      <c r="C256" s="120" t="str">
+      <c r="C256" s="128" t="str">
         <f>'OECD Mapping'!A22</f>
         <v>D28: Machinery and equipment, nec</v>
       </c>
-      <c r="D256" s="120" t="str">
+      <c r="D256" s="128" t="str">
         <f>'OECD Mapping'!B22</f>
         <v>ISIC 28</v>
       </c>
@@ -7607,18 +7626,18 @@
         <v>259</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A257" s="87" t="s">
         <v>249</v>
       </c>
       <c r="B257" s="15">
         <v>2.6662594760242975E-3</v>
       </c>
-      <c r="C257" s="120" t="str">
+      <c r="C257" s="128" t="str">
         <f>'OECD Mapping'!A21</f>
         <v>D27: Electrical equipment</v>
       </c>
-      <c r="D257" s="120" t="str">
+      <c r="D257" s="128" t="str">
         <f>'OECD Mapping'!B21</f>
         <v>ISIC 27</v>
       </c>
@@ -7629,18 +7648,18 @@
         <v>259</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A258" s="87" t="s">
         <v>250</v>
       </c>
       <c r="B258" s="15">
         <v>2.3065838394442859E-3</v>
       </c>
-      <c r="C258" s="120" t="str">
+      <c r="C258" s="128" t="str">
         <f>'OECD Mapping'!A22</f>
         <v>D28: Machinery and equipment, nec</v>
       </c>
-      <c r="D258" s="120" t="str">
+      <c r="D258" s="128" t="str">
         <f>'OECD Mapping'!B22</f>
         <v>ISIC 28</v>
       </c>
@@ -7651,18 +7670,18 @@
         <v>259</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A259" s="87" t="s">
         <v>251</v>
       </c>
       <c r="B259" s="15">
         <v>3.5527798304773789E-2</v>
       </c>
-      <c r="C259" s="120" t="str">
+      <c r="C259" s="128" t="str">
         <f>'OECD Mapping'!A19</f>
         <v>D25: Fabricated metal products</v>
       </c>
-      <c r="D259" s="120" t="str">
+      <c r="D259" s="128" t="str">
         <f>'OECD Mapping'!B19</f>
         <v>ISIC 25</v>
       </c>
@@ -7673,18 +7692,18 @@
         <v>259</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A260" s="87" t="s">
         <v>252</v>
       </c>
       <c r="B260" s="15">
         <v>5.1620006644230103E-2</v>
       </c>
-      <c r="C260" s="120" t="str">
+      <c r="C260" s="128" t="str">
         <f>'OECD Mapping'!A22</f>
         <v>D28: Machinery and equipment, nec</v>
       </c>
-      <c r="D260" s="120" t="str">
+      <c r="D260" s="128" t="str">
         <f>'OECD Mapping'!B22</f>
         <v>ISIC 28</v>
       </c>
@@ -7695,18 +7714,18 @@
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A261" s="87" t="s">
         <v>253</v>
       </c>
       <c r="B261" s="15">
         <v>1.7845445045700584E-2</v>
       </c>
-      <c r="C261" s="120" t="str">
+      <c r="C261" s="128" t="str">
         <f>'OECD Mapping'!A21</f>
         <v>D27: Electrical equipment</v>
       </c>
-      <c r="D261" s="120" t="str">
+      <c r="D261" s="128" t="str">
         <f>'OECD Mapping'!B21</f>
         <v>ISIC 27</v>
       </c>
@@ -7717,18 +7736,18 @@
         <v>259</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A262" s="87" t="s">
         <v>254</v>
       </c>
       <c r="B262" s="15">
         <v>2.0360262148428034E-2</v>
       </c>
-      <c r="C262" s="120" t="str">
+      <c r="C262" s="128" t="str">
         <f>'OECD Mapping'!A22</f>
         <v>D28: Machinery and equipment, nec</v>
       </c>
-      <c r="D262" s="120" t="str">
+      <c r="D262" s="128" t="str">
         <f>'OECD Mapping'!B22</f>
         <v>ISIC 28</v>
       </c>
@@ -7739,7 +7758,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A263" s="87" t="s">
         <v>76</v>
       </c>
@@ -7751,7 +7770,7 @@
       <c r="E263" s="21"/>
       <c r="F263" s="6"/>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A264" s="87" t="s">
         <v>25</v>
       </c>
@@ -7761,7 +7780,7 @@
       <c r="E264" s="21"/>
       <c r="F264" s="6"/>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A265" s="87" t="s">
         <v>255</v>
       </c>
@@ -7783,7 +7802,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A266" s="87" t="s">
         <v>256</v>
       </c>
@@ -7805,7 +7824,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A267" s="87" t="s">
         <v>257</v>
       </c>
@@ -7827,7 +7846,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A268" s="87" t="s">
         <v>76</v>
       </c>
@@ -7839,7 +7858,7 @@
       <c r="E268" s="21"/>
       <c r="F268" s="6"/>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A269" s="87" t="s">
         <v>103</v>
       </c>
@@ -7851,7 +7870,7 @@
       <c r="E269" s="21"/>
       <c r="F269" s="6"/>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A270" s="87" t="s">
         <v>258</v>
       </c>
@@ -7861,7 +7880,7 @@
       <c r="E270" s="21"/>
       <c r="F270" s="6"/>
     </row>
-    <row r="271" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A271" s="89" t="s">
         <v>11</v>
       </c>
@@ -7871,7 +7890,7 @@
       <c r="E271" s="25"/>
       <c r="F271" s="10"/>
     </row>
-    <row r="272" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A272" s="102" t="s">
         <v>8</v>
       </c>
@@ -7881,7 +7900,7 @@
       <c r="E272" s="103"/>
       <c r="F272" s="104"/>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A273" s="105" t="s">
         <v>293</v>
       </c>
@@ -7891,7 +7910,7 @@
       <c r="E273" s="62"/>
       <c r="F273" s="14"/>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A274" s="87" t="s">
         <v>319</v>
       </c>
@@ -7913,7 +7932,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A275" s="87" t="s">
         <v>295</v>
       </c>
@@ -7935,7 +7954,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A276" s="87" t="s">
         <v>320</v>
       </c>
@@ -7957,7 +7976,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A277" s="87" t="s">
         <v>321</v>
       </c>
@@ -7979,7 +7998,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A278" s="87" t="s">
         <v>318</v>
       </c>
@@ -7991,7 +8010,7 @@
       <c r="E278" s="21"/>
       <c r="F278" s="6"/>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A279" s="87" t="s">
         <v>105</v>
       </c>
@@ -8001,7 +8020,7 @@
       <c r="E279" s="21"/>
       <c r="F279" s="6"/>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A280" s="87" t="s">
         <v>322</v>
       </c>
@@ -8021,7 +8040,7 @@
       </c>
       <c r="F280" s="6"/>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A281" s="87" t="s">
         <v>323</v>
       </c>
@@ -8043,7 +8062,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A282" s="87" t="s">
         <v>324</v>
       </c>
@@ -8065,7 +8084,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A283" s="87" t="s">
         <v>301</v>
       </c>
@@ -8087,73 +8106,73 @@
         <v>259</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A284" s="87" t="s">
         <v>303</v>
       </c>
       <c r="B284" s="15">
         <v>0</v>
       </c>
-      <c r="C284" s="120" t="str">
+      <c r="C284" s="128" t="str">
         <f>'OECD Mapping'!A11</f>
         <v>D19: Coke and refined petroleum products</v>
       </c>
-      <c r="D284" s="120" t="str">
+      <c r="D284" s="128" t="str">
         <f>'OECD Mapping'!B11</f>
         <v>ISIC 19</v>
       </c>
-      <c r="E284" s="120" t="s">
+      <c r="E284" s="128" t="s">
         <v>329</v>
       </c>
       <c r="F284" s="68" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A285" s="87" t="s">
         <v>325</v>
       </c>
       <c r="B285" s="15">
         <v>0.42277656301083044</v>
       </c>
-      <c r="C285" s="120" t="str">
+      <c r="C285" s="128" t="str">
         <f>'OECD Mapping'!A19</f>
         <v>D25: Fabricated metal products</v>
       </c>
-      <c r="D285" s="120" t="str">
+      <c r="D285" s="128" t="str">
         <f>'OECD Mapping'!B19</f>
         <v>ISIC 25</v>
       </c>
-      <c r="E285" s="120" t="s">
+      <c r="E285" s="128" t="s">
         <v>329</v>
       </c>
       <c r="F285" s="68" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A286" s="87" t="s">
         <v>326</v>
       </c>
       <c r="B286" s="15">
         <v>0</v>
       </c>
-      <c r="C286" s="120" t="str">
+      <c r="C286" s="128" t="str">
         <f>'OECD Mapping'!A22</f>
         <v>D28: Machinery and equipment, nec</v>
       </c>
-      <c r="D286" s="120" t="str">
+      <c r="D286" s="128" t="str">
         <f>'OECD Mapping'!B22</f>
         <v>ISIC 28</v>
       </c>
-      <c r="E286" s="120" t="s">
+      <c r="E286" s="128" t="s">
         <v>329</v>
       </c>
       <c r="F286" s="68" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A287" s="87" t="s">
         <v>306</v>
       </c>
@@ -8165,7 +8184,7 @@
       <c r="E287" s="21"/>
       <c r="F287" s="6"/>
     </row>
-    <row r="288" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A288" s="89" t="s">
         <v>11</v>
       </c>
@@ -8177,17 +8196,17 @@
       <c r="E288" s="25"/>
       <c r="F288" s="10"/>
     </row>
-    <row r="289" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A289" s="125" t="s">
+    <row r="289" spans="1:6" ht="18.399999999999999" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A289" s="120" t="s">
         <v>341</v>
       </c>
-      <c r="B289" s="126"/>
-      <c r="C289" s="126"/>
-      <c r="D289" s="127"/>
-      <c r="E289" s="127"/>
-      <c r="F289" s="128"/>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B289" s="121"/>
+      <c r="C289" s="121"/>
+      <c r="D289" s="122"/>
+      <c r="E289" s="122"/>
+      <c r="F289" s="123"/>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A290" s="96" t="s">
         <v>1</v>
       </c>
@@ -8207,7 +8226,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A291" s="5" t="s">
         <v>6</v>
       </c>
@@ -8219,7 +8238,7 @@
       <c r="E291" s="2"/>
       <c r="F291" s="16"/>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A292" s="90" t="s">
         <v>342</v>
       </c>
@@ -8229,7 +8248,7 @@
       <c r="E292" s="21"/>
       <c r="F292" s="6"/>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A293" s="87" t="s">
         <v>343</v>
       </c>
@@ -8251,7 +8270,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A294" s="87" t="s">
         <v>344</v>
       </c>
@@ -8273,7 +8292,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A295" s="87" t="s">
         <v>345</v>
       </c>
@@ -8295,7 +8314,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A296" s="87" t="s">
         <v>346</v>
       </c>
@@ -8317,7 +8336,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A297" s="87" t="s">
         <v>347</v>
       </c>
@@ -8339,7 +8358,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A298" s="87" t="s">
         <v>348</v>
       </c>
@@ -8361,7 +8380,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A299" s="87" t="s">
         <v>349</v>
       </c>
@@ -8383,7 +8402,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A300" s="87" t="s">
         <v>350</v>
       </c>
@@ -8405,7 +8424,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A301" s="87" t="s">
         <v>351</v>
       </c>
@@ -8427,7 +8446,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A302" s="90" t="s">
         <v>352</v>
       </c>
@@ -8437,7 +8456,7 @@
       <c r="E302" s="21"/>
       <c r="F302" s="6"/>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A303" s="87" t="s">
         <v>353</v>
       </c>
@@ -8459,7 +8478,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A304" s="87" t="s">
         <v>354</v>
       </c>
@@ -8481,7 +8500,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A305" s="87" t="s">
         <v>355</v>
       </c>
@@ -8503,7 +8522,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="306" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A306" s="88" t="s">
         <v>356</v>
       </c>
@@ -8525,7 +8544,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A307" s="11" t="s">
         <v>8</v>
       </c>
@@ -8535,7 +8554,7 @@
       <c r="E307" s="62"/>
       <c r="F307" s="14"/>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A308" s="111" t="s">
         <v>65</v>
       </c>
@@ -8557,29 +8576,29 @@
         <v>70</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A309" s="111" t="s">
         <v>362</v>
       </c>
       <c r="B309" s="15">
         <v>0.58345780433159067</v>
       </c>
-      <c r="C309" s="122" t="str">
+      <c r="C309" s="130" t="str">
         <f>'OECD Mapping'!A25</f>
         <v>D31T33: Other manufacturing; repair and installation of machinery and equipment</v>
       </c>
-      <c r="D309" s="122" t="str">
+      <c r="D309" s="130" t="str">
         <f>'OECD Mapping'!B25</f>
         <v>ISIC 31T33</v>
       </c>
-      <c r="E309" s="120" t="s">
+      <c r="E309" s="128" t="s">
         <v>328</v>
       </c>
       <c r="F309" s="68" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A310" s="111" t="s">
         <v>363</v>
       </c>
@@ -8601,7 +8620,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="311" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A311" s="112" t="s">
         <v>364</v>
       </c>
@@ -8623,7 +8642,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A312" s="11" t="s">
         <v>38</v>
       </c>
@@ -8633,7 +8652,7 @@
       <c r="E312" s="62"/>
       <c r="F312" s="14"/>
     </row>
-    <row r="313" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:6" ht="26.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A313" s="114" t="s">
         <v>360</v>
       </c>
@@ -8655,22 +8674,22 @@
         <v>70</v>
       </c>
     </row>
-    <row r="314" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B314" s="85"/>
       <c r="C314" s="84"/>
       <c r="D314" s="107"/>
     </row>
-    <row r="315" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A315" s="125" t="s">
+    <row r="315" spans="1:6" ht="18.399999999999999" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A315" s="120" t="s">
         <v>369</v>
       </c>
-      <c r="B315" s="126"/>
-      <c r="C315" s="126"/>
-      <c r="D315" s="127"/>
-      <c r="E315" s="127"/>
-      <c r="F315" s="128"/>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B315" s="121"/>
+      <c r="C315" s="121"/>
+      <c r="D315" s="122"/>
+      <c r="E315" s="122"/>
+      <c r="F315" s="123"/>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A316" s="96" t="s">
         <v>1</v>
       </c>
@@ -8690,7 +8709,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A317" s="5" t="s">
         <v>6</v>
       </c>
@@ -8702,7 +8721,7 @@
       <c r="E317" s="21"/>
       <c r="F317" s="6"/>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A318" s="20" t="s">
         <v>370</v>
       </c>
@@ -8712,7 +8731,7 @@
       <c r="E318" s="94"/>
       <c r="F318" s="16"/>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A319" s="20" t="s">
         <v>371</v>
       </c>
@@ -8732,7 +8751,7 @@
       </c>
       <c r="F319" s="16"/>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A320" s="20" t="s">
         <v>372</v>
       </c>
@@ -8752,7 +8771,7 @@
       </c>
       <c r="F320" s="16"/>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A321" s="20" t="s">
         <v>373</v>
       </c>
@@ -8772,7 +8791,7 @@
       </c>
       <c r="F321" s="16"/>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A322" s="20" t="s">
         <v>374</v>
       </c>
@@ -8792,7 +8811,7 @@
       </c>
       <c r="F322" s="16"/>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A323" s="20" t="s">
         <v>375</v>
       </c>
@@ -8812,7 +8831,7 @@
       </c>
       <c r="F323" s="16"/>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A324" s="20" t="s">
         <v>376</v>
       </c>
@@ -8824,7 +8843,7 @@
       <c r="E324" s="94"/>
       <c r="F324" s="16"/>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A325" s="20" t="s">
         <v>377</v>
       </c>
@@ -8834,27 +8853,27 @@
       <c r="E325" s="94"/>
       <c r="F325" s="16"/>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A326" s="20" t="s">
         <v>378</v>
       </c>
       <c r="B326" s="15">
         <v>5.9790282669963217E-3</v>
       </c>
-      <c r="C326" s="120" t="str">
+      <c r="C326" s="128" t="str">
         <f>'OECD Mapping'!A22</f>
         <v>D28: Machinery and equipment, nec</v>
       </c>
-      <c r="D326" s="120" t="str">
+      <c r="D326" s="128" t="str">
         <f>'OECD Mapping'!B22</f>
         <v>ISIC 28</v>
       </c>
-      <c r="E326" s="123" t="s">
+      <c r="E326" s="131" t="s">
         <v>411</v>
       </c>
       <c r="F326" s="16"/>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A327" s="20" t="s">
         <v>379</v>
       </c>
@@ -8874,7 +8893,7 @@
       </c>
       <c r="F327" s="16"/>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A328" s="20" t="s">
         <v>380</v>
       </c>
@@ -8894,7 +8913,7 @@
       </c>
       <c r="F328" s="6"/>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A329" s="20" t="s">
         <v>381</v>
       </c>
@@ -8914,7 +8933,7 @@
       </c>
       <c r="F329" s="16"/>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A330" s="20" t="s">
         <v>382</v>
       </c>
@@ -8934,7 +8953,7 @@
       </c>
       <c r="F330" s="16"/>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A331" s="20" t="s">
         <v>383</v>
       </c>
@@ -8954,7 +8973,7 @@
       </c>
       <c r="F331" s="6"/>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A332" s="20" t="s">
         <v>384</v>
       </c>
@@ -8974,7 +8993,7 @@
       </c>
       <c r="F332" s="6"/>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A333" s="20" t="s">
         <v>385</v>
       </c>
@@ -8986,7 +9005,7 @@
       <c r="E333" s="94"/>
       <c r="F333" s="6"/>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A334" s="20" t="s">
         <v>386</v>
       </c>
@@ -8996,7 +9015,7 @@
       <c r="E334" s="94"/>
       <c r="F334" s="6"/>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A335" s="20" t="s">
         <v>273</v>
       </c>
@@ -9016,7 +9035,7 @@
       </c>
       <c r="F335" s="6"/>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A336" s="20" t="s">
         <v>387</v>
       </c>
@@ -9036,7 +9055,7 @@
       </c>
       <c r="F336" s="6"/>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A337" s="20" t="s">
         <v>388</v>
       </c>
@@ -9056,7 +9075,7 @@
       </c>
       <c r="F337" s="6"/>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A338" s="20" t="s">
         <v>389</v>
       </c>
@@ -9076,7 +9095,7 @@
       </c>
       <c r="F338" s="6"/>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A339" s="20" t="s">
         <v>390</v>
       </c>
@@ -9096,7 +9115,7 @@
       </c>
       <c r="F339" s="6"/>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A340" s="20" t="s">
         <v>275</v>
       </c>
@@ -9116,7 +9135,7 @@
       </c>
       <c r="F340" s="6"/>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A341" s="20" t="s">
         <v>391</v>
       </c>
@@ -9128,7 +9147,7 @@
       <c r="E341" s="94"/>
       <c r="F341" s="6"/>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A342" s="20" t="s">
         <v>392</v>
       </c>
@@ -9138,7 +9157,7 @@
       <c r="E342" s="94"/>
       <c r="F342" s="6"/>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A343" s="20" t="s">
         <v>393</v>
       </c>
@@ -9158,7 +9177,7 @@
       </c>
       <c r="F343" s="6"/>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A344" s="20" t="s">
         <v>394</v>
       </c>
@@ -9168,7 +9187,7 @@
       <c r="E344" s="94"/>
       <c r="F344" s="6"/>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A345" s="20" t="s">
         <v>282</v>
       </c>
@@ -9188,7 +9207,7 @@
       </c>
       <c r="F345" s="6"/>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A346" s="20" t="s">
         <v>283</v>
       </c>
@@ -9208,7 +9227,7 @@
       </c>
       <c r="F346" s="6"/>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A347" s="20" t="s">
         <v>395</v>
       </c>
@@ -9228,7 +9247,7 @@
       </c>
       <c r="F347" s="6"/>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A348" s="20" t="s">
         <v>396</v>
       </c>
@@ -9248,7 +9267,7 @@
       </c>
       <c r="F348" s="6"/>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A349" s="20" t="s">
         <v>285</v>
       </c>
@@ -9268,7 +9287,7 @@
       </c>
       <c r="F349" s="6"/>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A350" s="20" t="s">
         <v>397</v>
       </c>
@@ -9288,7 +9307,7 @@
       </c>
       <c r="F350" s="6"/>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A351" s="20" t="s">
         <v>398</v>
       </c>
@@ -9308,7 +9327,7 @@
       </c>
       <c r="F351" s="6"/>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A352" s="20" t="s">
         <v>399</v>
       </c>
@@ -9328,7 +9347,7 @@
       </c>
       <c r="F352" s="6"/>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A353" s="20" t="s">
         <v>400</v>
       </c>
@@ -9348,7 +9367,7 @@
       </c>
       <c r="F353" s="6"/>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A354" s="20" t="s">
         <v>401</v>
       </c>
@@ -9360,7 +9379,7 @@
       <c r="E354" s="94"/>
       <c r="F354" s="6"/>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A355" s="20" t="s">
         <v>402</v>
       </c>
@@ -9370,7 +9389,7 @@
       <c r="E355" s="94"/>
       <c r="F355" s="6"/>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A356" s="20" t="s">
         <v>403</v>
       </c>
@@ -9390,7 +9409,7 @@
       </c>
       <c r="F356" s="6"/>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A357" s="20" t="s">
         <v>404</v>
       </c>
@@ -9410,7 +9429,7 @@
       </c>
       <c r="F357" s="6"/>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A358" s="20" t="s">
         <v>405</v>
       </c>
@@ -9430,7 +9449,7 @@
       </c>
       <c r="F358" s="6"/>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A359" s="20" t="s">
         <v>406</v>
       </c>
@@ -9450,7 +9469,7 @@
       </c>
       <c r="F359" s="6"/>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A360" s="20" t="s">
         <v>407</v>
       </c>
@@ -9462,7 +9481,7 @@
       <c r="E360" s="94"/>
       <c r="F360" s="6"/>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A361" s="20" t="s">
         <v>408</v>
       </c>
@@ -9482,7 +9501,7 @@
       </c>
       <c r="F361" s="6"/>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A362" s="20" t="s">
         <v>409</v>
       </c>
@@ -9494,7 +9513,7 @@
       <c r="E362" s="94"/>
       <c r="F362" s="6"/>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A363" s="20" t="s">
         <v>289</v>
       </c>
@@ -9514,7 +9533,7 @@
       </c>
       <c r="F363" s="6"/>
     </row>
-    <row r="364" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A364" s="70" t="s">
         <v>410</v>
       </c>
@@ -9526,7 +9545,7 @@
       <c r="E364" s="99"/>
       <c r="F364" s="75"/>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A365" s="11" t="s">
         <v>8</v>
       </c>
@@ -9536,7 +9555,7 @@
       <c r="E365" s="62"/>
       <c r="F365" s="14"/>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A366" s="20" t="s">
         <v>65</v>
       </c>
@@ -9546,7 +9565,7 @@
       <c r="E366" s="21"/>
       <c r="F366" s="6"/>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A367" s="20" t="s">
         <v>412</v>
       </c>
@@ -9566,7 +9585,7 @@
       </c>
       <c r="F367" s="6"/>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A368" s="20" t="s">
         <v>413</v>
       </c>
@@ -9586,7 +9605,7 @@
       </c>
       <c r="F368" s="6"/>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A369" s="20" t="s">
         <v>414</v>
       </c>
@@ -9606,7 +9625,7 @@
       </c>
       <c r="F369" s="6"/>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A370" s="20" t="s">
         <v>275</v>
       </c>
@@ -9626,7 +9645,7 @@
       </c>
       <c r="F370" s="6"/>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A371" s="20" t="s">
         <v>415</v>
       </c>
@@ -9638,7 +9657,7 @@
       <c r="E371" s="21"/>
       <c r="F371" s="6"/>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A372" s="20" t="s">
         <v>105</v>
       </c>
@@ -9648,7 +9667,7 @@
       <c r="E372" s="21"/>
       <c r="F372" s="6"/>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A373" s="20" t="s">
         <v>416</v>
       </c>
@@ -9668,7 +9687,7 @@
       </c>
       <c r="F373" s="6"/>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A374" s="20" t="s">
         <v>417</v>
       </c>
@@ -9688,7 +9707,7 @@
       </c>
       <c r="F374" s="6"/>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A375" s="20" t="s">
         <v>418</v>
       </c>
@@ -9708,7 +9727,7 @@
       </c>
       <c r="F375" s="6"/>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A376" s="20" t="s">
         <v>419</v>
       </c>
@@ -9728,7 +9747,7 @@
       </c>
       <c r="F376" s="6"/>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A377" s="20" t="s">
         <v>420</v>
       </c>
@@ -9748,7 +9767,7 @@
       </c>
       <c r="F377" s="6"/>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A378" s="20" t="s">
         <v>421</v>
       </c>
@@ -9760,7 +9779,7 @@
       <c r="E378" s="21"/>
       <c r="F378" s="6"/>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A379" s="20" t="s">
         <v>409</v>
       </c>
@@ -9772,7 +9791,7 @@
       <c r="E379" s="21"/>
       <c r="F379" s="6"/>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A380" s="20" t="s">
         <v>289</v>
       </c>
@@ -9792,7 +9811,7 @@
       </c>
       <c r="F380" s="6"/>
     </row>
-    <row r="381" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A381" s="24" t="s">
         <v>422</v>
       </c>
@@ -9821,74 +9840,74 @@
     <mergeCell ref="A164:F164"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="Expenditures" error="Expenditures must be a number that is greater than or equal to zero." sqref="B17" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="Expenditures" error="Expenditures must be a number that is greater than or equal to zero." sqref="B17">
       <formula1>0</formula1>
       <formula2>9000000000000000000</formula2>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F78" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="F100" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="F101" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="F102" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="F105" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="F106" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="F107" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="F140:F142" r:id="rId8" display="https://www.nrel.gov/analysis/jedi/natural-gas.html" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="F150" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="F151:F158" r:id="rId10" display="https://www.world-nuclear.org/information-library/economic-aspects/economics-of-nuclear-power.aspx" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink ref="F160" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
-    <hyperlink ref="F162" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
-    <hyperlink ref="F167" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
-    <hyperlink ref="F202" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
-    <hyperlink ref="F203:F215" r:id="rId15" display="https://www.nrel.gov/analysis/jedi/conventional-hydro.html" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
-    <hyperlink ref="F229" r:id="rId16" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
-    <hyperlink ref="F231" r:id="rId17" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
-    <hyperlink ref="F232" r:id="rId18" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
-    <hyperlink ref="F233" r:id="rId19" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
-    <hyperlink ref="F222:F227" r:id="rId20" display="https://www.nrel.gov/analysis/jedi/international.html" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
-    <hyperlink ref="F4" r:id="rId21" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
-    <hyperlink ref="F5:F13" r:id="rId22" display="https://www.nrel.gov/docs/fy19osti/72399.pdf, Figure 28" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
-    <hyperlink ref="F239" r:id="rId23" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
-    <hyperlink ref="F242" r:id="rId24" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
-    <hyperlink ref="F243" r:id="rId25" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
-    <hyperlink ref="F244" r:id="rId26" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
-    <hyperlink ref="F245" r:id="rId27" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
-    <hyperlink ref="F246" r:id="rId28" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
-    <hyperlink ref="F250" r:id="rId29" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
-    <hyperlink ref="F251" r:id="rId30" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
-    <hyperlink ref="F252" r:id="rId31" xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
-    <hyperlink ref="F253" r:id="rId32" xr:uid="{00000000-0004-0000-0200-00001F000000}"/>
-    <hyperlink ref="F254" r:id="rId33" xr:uid="{00000000-0004-0000-0200-000020000000}"/>
-    <hyperlink ref="F255" r:id="rId34" xr:uid="{00000000-0004-0000-0200-000021000000}"/>
-    <hyperlink ref="F256" r:id="rId35" xr:uid="{00000000-0004-0000-0200-000022000000}"/>
-    <hyperlink ref="F257" r:id="rId36" xr:uid="{00000000-0004-0000-0200-000023000000}"/>
-    <hyperlink ref="F258" r:id="rId37" xr:uid="{00000000-0004-0000-0200-000024000000}"/>
-    <hyperlink ref="F259" r:id="rId38" xr:uid="{00000000-0004-0000-0200-000025000000}"/>
-    <hyperlink ref="F260" r:id="rId39" xr:uid="{00000000-0004-0000-0200-000026000000}"/>
-    <hyperlink ref="F261" r:id="rId40" xr:uid="{00000000-0004-0000-0200-000027000000}"/>
-    <hyperlink ref="F262" r:id="rId41" xr:uid="{00000000-0004-0000-0200-000028000000}"/>
-    <hyperlink ref="F265" r:id="rId42" xr:uid="{00000000-0004-0000-0200-000029000000}"/>
-    <hyperlink ref="F266" r:id="rId43" xr:uid="{00000000-0004-0000-0200-00002A000000}"/>
-    <hyperlink ref="F267" r:id="rId44" xr:uid="{00000000-0004-0000-0200-00002B000000}"/>
-    <hyperlink ref="F15:F16" r:id="rId45" display="https://www.nrel.gov/analysis/jedi/international.html" xr:uid="{00000000-0004-0000-0200-00002C000000}"/>
-    <hyperlink ref="F217" r:id="rId46" xr:uid="{00000000-0004-0000-0200-00002D000000}"/>
-    <hyperlink ref="F274" r:id="rId47" xr:uid="{00000000-0004-0000-0200-00002E000000}"/>
-    <hyperlink ref="F275" r:id="rId48" xr:uid="{00000000-0004-0000-0200-00002F000000}"/>
-    <hyperlink ref="F276" r:id="rId49" xr:uid="{00000000-0004-0000-0200-000030000000}"/>
-    <hyperlink ref="F277" r:id="rId50" xr:uid="{00000000-0004-0000-0200-000031000000}"/>
-    <hyperlink ref="F281" r:id="rId51" xr:uid="{00000000-0004-0000-0200-000032000000}"/>
-    <hyperlink ref="F284" r:id="rId52" xr:uid="{00000000-0004-0000-0200-000033000000}"/>
-    <hyperlink ref="F285" r:id="rId53" xr:uid="{00000000-0004-0000-0200-000034000000}"/>
-    <hyperlink ref="F286" r:id="rId54" xr:uid="{00000000-0004-0000-0200-000035000000}"/>
-    <hyperlink ref="F282:F283" r:id="rId55" display="https://www.nrel.gov/analysis/jedi/csp.html" xr:uid="{00000000-0004-0000-0200-000036000000}"/>
-    <hyperlink ref="F293:F301" r:id="rId56" display="https://www.nrel.gov/analysis/jedi/international.html" xr:uid="{00000000-0004-0000-0200-000037000000}"/>
-    <hyperlink ref="F303:F306" r:id="rId57" display="https://www.nrel.gov/analysis/jedi/international.html" xr:uid="{00000000-0004-0000-0200-000038000000}"/>
-    <hyperlink ref="F308" r:id="rId58" xr:uid="{00000000-0004-0000-0200-000039000000}"/>
-    <hyperlink ref="F309" r:id="rId59" xr:uid="{00000000-0004-0000-0200-00003A000000}"/>
-    <hyperlink ref="F310" r:id="rId60" xr:uid="{00000000-0004-0000-0200-00003B000000}"/>
-    <hyperlink ref="F311" r:id="rId61" xr:uid="{00000000-0004-0000-0200-00003C000000}"/>
-    <hyperlink ref="F313" r:id="rId62" xr:uid="{00000000-0004-0000-0200-00003D000000}"/>
+    <hyperlink ref="F78" r:id="rId1"/>
+    <hyperlink ref="F100" r:id="rId2"/>
+    <hyperlink ref="F101" r:id="rId3"/>
+    <hyperlink ref="F102" r:id="rId4"/>
+    <hyperlink ref="F105" r:id="rId5"/>
+    <hyperlink ref="F106" r:id="rId6"/>
+    <hyperlink ref="F107" r:id="rId7"/>
+    <hyperlink ref="F140:F142" r:id="rId8" display="https://www.nrel.gov/analysis/jedi/natural-gas.html"/>
+    <hyperlink ref="F150" r:id="rId9"/>
+    <hyperlink ref="F151:F158" r:id="rId10" display="https://www.world-nuclear.org/information-library/economic-aspects/economics-of-nuclear-power.aspx"/>
+    <hyperlink ref="F160" r:id="rId11"/>
+    <hyperlink ref="F162" r:id="rId12"/>
+    <hyperlink ref="F167" r:id="rId13"/>
+    <hyperlink ref="F202" r:id="rId14"/>
+    <hyperlink ref="F203:F215" r:id="rId15" display="https://www.nrel.gov/analysis/jedi/conventional-hydro.html"/>
+    <hyperlink ref="F229" r:id="rId16"/>
+    <hyperlink ref="F231" r:id="rId17"/>
+    <hyperlink ref="F232" r:id="rId18"/>
+    <hyperlink ref="F233" r:id="rId19"/>
+    <hyperlink ref="F222:F227" r:id="rId20" display="https://www.nrel.gov/analysis/jedi/international.html"/>
+    <hyperlink ref="F4" r:id="rId21"/>
+    <hyperlink ref="F5:F13" r:id="rId22" display="https://www.nrel.gov/docs/fy19osti/72399.pdf, Figure 28"/>
+    <hyperlink ref="F239" r:id="rId23"/>
+    <hyperlink ref="F242" r:id="rId24"/>
+    <hyperlink ref="F243" r:id="rId25"/>
+    <hyperlink ref="F244" r:id="rId26"/>
+    <hyperlink ref="F245" r:id="rId27"/>
+    <hyperlink ref="F246" r:id="rId28"/>
+    <hyperlink ref="F250" r:id="rId29"/>
+    <hyperlink ref="F251" r:id="rId30"/>
+    <hyperlink ref="F252" r:id="rId31"/>
+    <hyperlink ref="F253" r:id="rId32"/>
+    <hyperlink ref="F254" r:id="rId33"/>
+    <hyperlink ref="F255" r:id="rId34"/>
+    <hyperlink ref="F256" r:id="rId35"/>
+    <hyperlink ref="F257" r:id="rId36"/>
+    <hyperlink ref="F258" r:id="rId37"/>
+    <hyperlink ref="F259" r:id="rId38"/>
+    <hyperlink ref="F260" r:id="rId39"/>
+    <hyperlink ref="F261" r:id="rId40"/>
+    <hyperlink ref="F262" r:id="rId41"/>
+    <hyperlink ref="F265" r:id="rId42"/>
+    <hyperlink ref="F266" r:id="rId43"/>
+    <hyperlink ref="F267" r:id="rId44"/>
+    <hyperlink ref="F15:F16" r:id="rId45" display="https://www.nrel.gov/analysis/jedi/international.html"/>
+    <hyperlink ref="F217" r:id="rId46"/>
+    <hyperlink ref="F274" r:id="rId47"/>
+    <hyperlink ref="F275" r:id="rId48"/>
+    <hyperlink ref="F276" r:id="rId49"/>
+    <hyperlink ref="F277" r:id="rId50"/>
+    <hyperlink ref="F281" r:id="rId51"/>
+    <hyperlink ref="F284" r:id="rId52"/>
+    <hyperlink ref="F285" r:id="rId53"/>
+    <hyperlink ref="F286" r:id="rId54"/>
+    <hyperlink ref="F282:F283" r:id="rId55" display="https://www.nrel.gov/analysis/jedi/csp.html"/>
+    <hyperlink ref="F293:F301" r:id="rId56" display="https://www.nrel.gov/analysis/jedi/international.html"/>
+    <hyperlink ref="F303:F306" r:id="rId57" display="https://www.nrel.gov/analysis/jedi/international.html"/>
+    <hyperlink ref="F308" r:id="rId58"/>
+    <hyperlink ref="F309" r:id="rId59"/>
+    <hyperlink ref="F310" r:id="rId60"/>
+    <hyperlink ref="F311" r:id="rId61"/>
+    <hyperlink ref="F313" r:id="rId62"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId63"/>
@@ -9896,7 +9915,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
@@ -9906,33 +9925,33 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" customWidth="1"/>
-    <col min="14" max="24" width="7.7109375" customWidth="1"/>
-    <col min="25" max="26" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="9.7109375" customWidth="1"/>
-    <col min="29" max="33" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="43" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.73046875" customWidth="1"/>
+    <col min="5" max="5" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.73046875" customWidth="1"/>
+    <col min="14" max="24" width="7.73046875" customWidth="1"/>
+    <col min="25" max="26" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="9.73046875" customWidth="1"/>
+    <col min="29" max="33" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="41" max="43" width="9.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.45">
       <c r="B1" s="119" t="s">
         <v>163</v>
       </c>
@@ -10060,7 +10079,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>199</v>
       </c>
@@ -10233,7 +10252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>200</v>
       </c>
@@ -10406,7 +10425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>201</v>
       </c>
@@ -10579,7 +10598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>202</v>
       </c>
@@ -10752,7 +10771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>203</v>
       </c>
@@ -10925,7 +10944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>204</v>
       </c>
@@ -11098,7 +11117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>205</v>
       </c>
@@ -11271,7 +11290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>206</v>
       </c>
@@ -11444,7 +11463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>207</v>
       </c>
@@ -11617,7 +11636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>208</v>
       </c>
@@ -11790,7 +11809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>209</v>
       </c>
@@ -11963,7 +11982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>210</v>
       </c>
@@ -12136,7 +12155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>211</v>
       </c>
@@ -12309,7 +12328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>212</v>
       </c>
@@ -12482,7 +12501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>213</v>
       </c>
@@ -12655,7 +12674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>214</v>
       </c>
@@ -12834,7 +12853,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
@@ -12842,32 +12861,32 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.73046875" customWidth="1"/>
+    <col min="5" max="5" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.1328125" customWidth="1"/>
+    <col min="12" max="12" width="9.73046875" bestFit="1" customWidth="1"/>
     <col min="13" max="24" width="8" customWidth="1"/>
-    <col min="25" max="26" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="9.7109375" customWidth="1"/>
-    <col min="29" max="33" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="7.140625" customWidth="1"/>
-    <col min="41" max="43" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="9.73046875" customWidth="1"/>
+    <col min="29" max="33" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="7.1328125" customWidth="1"/>
+    <col min="41" max="43" width="9.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.45">
       <c r="B1" s="119" t="s">
         <v>163</v>
       </c>
@@ -12995,7 +13014,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>199</v>
       </c>
@@ -13168,7 +13187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>200</v>
       </c>
@@ -13341,7 +13360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>201</v>
       </c>
@@ -13514,7 +13533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>202</v>
       </c>
@@ -13687,7 +13706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>203</v>
       </c>
@@ -13860,7 +13879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>204</v>
       </c>
@@ -14033,7 +14052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>205</v>
       </c>
@@ -14206,7 +14225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>206</v>
       </c>
@@ -14379,7 +14398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>207</v>
       </c>
@@ -14552,7 +14571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>208</v>
       </c>
@@ -14725,7 +14744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>209</v>
       </c>
@@ -14898,7 +14917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>210</v>
       </c>
@@ -15071,7 +15090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>211</v>
       </c>
@@ -15244,7 +15263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>212</v>
       </c>
@@ -15417,7 +15436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>213</v>
       </c>
@@ -15590,7 +15609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>214</v>
       </c>
@@ -15769,7 +15788,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
@@ -15777,32 +15796,32 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="24" width="8.28515625" customWidth="1"/>
-    <col min="25" max="26" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="9.7109375" customWidth="1"/>
-    <col min="29" max="33" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="43" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.73046875" customWidth="1"/>
+    <col min="5" max="5" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="13" max="24" width="8.265625" customWidth="1"/>
+    <col min="25" max="26" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="9.73046875" customWidth="1"/>
+    <col min="29" max="33" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="41" max="43" width="9.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.45">
       <c r="B1" s="119" t="s">
         <v>163</v>
       </c>
@@ -15930,7 +15949,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>199</v>
       </c>
@@ -16103,7 +16122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>200</v>
       </c>
@@ -16276,7 +16295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>201</v>
       </c>
@@ -16449,7 +16468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>202</v>
       </c>
@@ -16622,7 +16641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>203</v>
       </c>
@@ -16753,7 +16772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>204</v>
       </c>
@@ -16884,7 +16903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>205</v>
       </c>
@@ -17015,7 +17034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>206</v>
       </c>
@@ -17188,7 +17207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>207</v>
       </c>
@@ -17361,7 +17380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>208</v>
       </c>
@@ -17534,7 +17553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>209</v>
       </c>
@@ -17707,7 +17726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>210</v>
       </c>
@@ -17880,7 +17899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>211</v>
       </c>
@@ -18011,7 +18030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>212</v>
       </c>
@@ -18184,7 +18203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>213</v>
       </c>
@@ -18357,7 +18376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>214</v>
       </c>
